--- a/Diagramme_de_Gantt.xlsx
+++ b/Diagramme_de_Gantt.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1247499-FF15-4C84-9993-4885FA6AA47A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160018D5-DE59-8746-AFCD-303ABBAB6B33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -210,9 +210,6 @@
   </si>
   <si>
     <t>Caroline</t>
-  </si>
-  <si>
-    <t>Objectif</t>
   </si>
   <si>
     <t>Mourir dans un trou</t>
@@ -1244,31 +1241,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="9" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="9" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyBorder="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -1302,6 +1274,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyBorder="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="9" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="9" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1358,6 +1355,15 @@
   </cellStyles>
   <dxfs count="227">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
@@ -5604,15 +5610,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -5876,9 +5873,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon" dataDxfId="214"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Catégorie" dataDxfId="213"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à" dataDxfId="212"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Catégorie" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Début" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nombre de jours"/>
@@ -6160,25 +6157,25 @@
   </sheetPr>
   <dimension ref="A1:AB68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" customWidth="1"/>
-    <col min="9" max="28" width="9.28515625" customWidth="1"/>
-    <col min="33" max="34" width="10.28515625"/>
+    <col min="1" max="1" width="2.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+    <col min="9" max="28" width="9.33203125" customWidth="1"/>
+    <col min="33" max="34" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -6212,7 +6209,7 @@
       <c r="AA1" s="20"/>
       <c r="AB1" s="20"/>
     </row>
-    <row r="2" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -6222,33 +6219,33 @@
       <c r="C2" s="18"/>
       <c r="F2" s="23"/>
       <c r="G2" s="21"/>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="O2" s="57" t="s">
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="O2" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="U2" s="58" t="s">
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="U2" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="AA2" s="59" t="s">
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="AA2" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="59"/>
+      <c r="AB2" s="65"/>
     </row>
-    <row r="3" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -6256,24 +6253,24 @@
         <v>49</v>
       </c>
       <c r="C3" s="19"/>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="54">
+      <c r="E3" s="67"/>
+      <c r="F3" s="69">
         <v>43880</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="70"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="61"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="41">
         <v>0</v>
       </c>
@@ -6307,17 +6304,17 @@
       <c r="AA4" s="40"/>
       <c r="AB4" s="40"/>
     </row>
-    <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
       <c r="I5" s="47">
         <f ca="1">IFERROR(Début_Projet+Incrément_Défilement,TODAY())</f>
         <v>43880</v>
@@ -6399,7 +6396,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="20" customFormat="1" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" s="20" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -6431,7 +6428,7 @@
       <c r="AA6" s="43"/>
       <c r="AB6" s="43"/>
     </row>
-    <row r="7" spans="1:28" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
@@ -6535,7 +6532,7 @@
         <v>l</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>7</v>
       </c>
@@ -6565,19 +6562,21 @@
       <c r="AA8" s="35"/>
       <c r="AB8" s="35"/>
     </row>
-    <row r="9" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="54" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>46</v>
+      </c>
       <c r="E9" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="51">
         <v>43882</v>
@@ -6667,9 +6666,9 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="54" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="20"/>
@@ -6761,7 +6760,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="50" t="s">
         <v>31</v>
@@ -6773,7 +6772,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="30">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F11" s="51">
         <v>43880</v>
@@ -6863,7 +6862,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="50" t="s">
         <v>32</v>
@@ -6875,7 +6874,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="51">
         <v>43882</v>
@@ -6965,17 +6964,19 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="50" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="33"/>
+        <v>16</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>50</v>
+      </c>
       <c r="E13" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="51">
         <v>43882</v>
@@ -6992,9 +6993,9 @@
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="K13" s="37">
+      <c r="K13" s="37" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="L13" s="37" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7065,9 +7066,9 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="20"/>
@@ -7157,15 +7158,19 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
+      <c r="C15" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>50</v>
+      </c>
       <c r="E15" s="30">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="F15" s="51">
         <v>43882</v>
@@ -7255,12 +7260,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="33"/>
+      <c r="C16" s="33" t="s">
+        <v>13</v>
+      </c>
       <c r="D16" s="33"/>
       <c r="E16" s="30">
         <v>0</v>
@@ -7353,9 +7360,9 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="54" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="33"/>
@@ -7445,7 +7452,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="50" t="s">
         <v>38</v>
@@ -7537,10 +7544,10 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
-      <c r="B19" s="62" t="s">
-        <v>55</v>
+      <c r="B19" s="53" t="s">
+        <v>54</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
@@ -7575,10 +7582,10 @@
       <c r="AA19" s="37"/>
       <c r="AB19" s="37"/>
     </row>
-    <row r="20" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
-      <c r="B20" s="62" t="s">
-        <v>56</v>
+      <c r="B20" s="53" t="s">
+        <v>55</v>
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
@@ -7613,7 +7620,7 @@
       <c r="AA20" s="37"/>
       <c r="AB20" s="37"/>
     </row>
-    <row r="21" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="50" t="s">
         <v>39</v>
@@ -7621,94 +7628,94 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="30"/>
-      <c r="F21" s="64"/>
+      <c r="F21" s="55"/>
       <c r="G21" s="32"/>
       <c r="H21" s="26"/>
       <c r="I21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Objectif",I$5&gt;=$F22,I$5&lt;=$F22+$G21-1),2,IF(AND($C21="Jalon",I$5&gt;=$F22,I$5&lt;=$F22+$G21-1),1,""))</f>
+        <f t="shared" ref="I21:AB21" ca="1" si="7">IF(AND($C21="Objectif",I$5&gt;=$F22,I$5&lt;=$F22+$G21-1),2,IF(AND($C21="Jalon",I$5&gt;=$F22,I$5&lt;=$F22+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="J21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Objectif",J$5&gt;=$F22,J$5&lt;=$F22+$G21-1),2,IF(AND($C21="Jalon",J$5&gt;=$F22,J$5&lt;=$F22+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="K21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Objectif",K$5&gt;=$F22,K$5&lt;=$F22+$G21-1),2,IF(AND($C21="Jalon",K$5&gt;=$F22,K$5&lt;=$F22+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Objectif",L$5&gt;=$F22,L$5&lt;=$F22+$G21-1),2,IF(AND($C21="Jalon",L$5&gt;=$F22,L$5&lt;=$F22+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Objectif",M$5&gt;=$F22,M$5&lt;=$F22+$G21-1),2,IF(AND($C21="Jalon",M$5&gt;=$F22,M$5&lt;=$F22+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="N21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Objectif",N$5&gt;=$F22,N$5&lt;=$F22+$G21-1),2,IF(AND($C21="Jalon",N$5&gt;=$F22,N$5&lt;=$F22+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="O21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Objectif",O$5&gt;=$F22,O$5&lt;=$F22+$G21-1),2,IF(AND($C21="Jalon",O$5&gt;=$F22,O$5&lt;=$F22+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="P21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Objectif",P$5&gt;=$F22,P$5&lt;=$F22+$G21-1),2,IF(AND($C21="Jalon",P$5&gt;=$F22,P$5&lt;=$F22+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Q21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Objectif",Q$5&gt;=$F22,Q$5&lt;=$F22+$G21-1),2,IF(AND($C21="Jalon",Q$5&gt;=$F22,Q$5&lt;=$F22+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="R21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Objectif",R$5&gt;=$F22,R$5&lt;=$F22+$G21-1),2,IF(AND($C21="Jalon",R$5&gt;=$F22,R$5&lt;=$F22+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="S21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Objectif",S$5&gt;=$F22,S$5&lt;=$F22+$G21-1),2,IF(AND($C21="Jalon",S$5&gt;=$F22,S$5&lt;=$F22+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="T21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Objectif",T$5&gt;=$F22,T$5&lt;=$F22+$G21-1),2,IF(AND($C21="Jalon",T$5&gt;=$F22,T$5&lt;=$F22+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="U21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Objectif",U$5&gt;=$F22,U$5&lt;=$F22+$G21-1),2,IF(AND($C21="Jalon",U$5&gt;=$F22,U$5&lt;=$F22+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="V21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Objectif",V$5&gt;=$F22,V$5&lt;=$F22+$G21-1),2,IF(AND($C21="Jalon",V$5&gt;=$F22,V$5&lt;=$F22+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="W21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Objectif",W$5&gt;=$F22,W$5&lt;=$F22+$G21-1),2,IF(AND($C21="Jalon",W$5&gt;=$F22,W$5&lt;=$F22+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="X21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Objectif",X$5&gt;=$F22,X$5&lt;=$F22+$G21-1),2,IF(AND($C21="Jalon",X$5&gt;=$F22,X$5&lt;=$F22+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Y21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Objectif",Y$5&gt;=$F22,Y$5&lt;=$F22+$G21-1),2,IF(AND($C21="Jalon",Y$5&gt;=$F22,Y$5&lt;=$F22+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Z21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Objectif",Z$5&gt;=$F22,Z$5&lt;=$F22+$G21-1),2,IF(AND($C21="Jalon",Z$5&gt;=$F22,Z$5&lt;=$F22+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AA21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Objectif",AA$5&gt;=$F22,AA$5&lt;=$F22+$G21-1),2,IF(AND($C21="Jalon",AA$5&gt;=$F22,AA$5&lt;=$F22+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AB21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Objectif",AB$5&gt;=$F22,AB$5&lt;=$F22+$G21-1),2,IF(AND($C21="Jalon",AB$5&gt;=$F22,AB$5&lt;=$F22+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
-      <c r="B22" s="62" t="s">
-        <v>57</v>
+      <c r="B22" s="53" t="s">
+        <v>56</v>
       </c>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
@@ -7743,102 +7750,102 @@
       <c r="AA22" s="37"/>
       <c r="AB22" s="37"/>
     </row>
-    <row r="23" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="30"/>
-      <c r="F23" s="64"/>
+      <c r="F23" s="55"/>
       <c r="G23" s="32"/>
       <c r="H23" s="26"/>
       <c r="I23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",I$5&gt;=$F24,I$5&lt;=$F24+$G23-1),2,IF(AND($C23="Jalon",I$5&gt;=$F24,I$5&lt;=$F24+$G23-1),1,""))</f>
+        <f t="shared" ref="I23:AB23" ca="1" si="8">IF(AND($C23="Objectif",I$5&gt;=$F24,I$5&lt;=$F24+$G23-1),2,IF(AND($C23="Jalon",I$5&gt;=$F24,I$5&lt;=$F24+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="J23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",J$5&gt;=$F24,J$5&lt;=$F24+$G23-1),2,IF(AND($C23="Jalon",J$5&gt;=$F24,J$5&lt;=$F24+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",K$5&gt;=$F24,K$5&lt;=$F24+$G23-1),2,IF(AND($C23="Jalon",K$5&gt;=$F24,K$5&lt;=$F24+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",L$5&gt;=$F24,L$5&lt;=$F24+$G23-1),2,IF(AND($C23="Jalon",L$5&gt;=$F24,L$5&lt;=$F24+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="M23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",M$5&gt;=$F24,M$5&lt;=$F24+$G23-1),2,IF(AND($C23="Jalon",M$5&gt;=$F24,M$5&lt;=$F24+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="N23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",N$5&gt;=$F24,N$5&lt;=$F24+$G23-1),2,IF(AND($C23="Jalon",N$5&gt;=$F24,N$5&lt;=$F24+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="O23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",O$5&gt;=$F24,O$5&lt;=$F24+$G23-1),2,IF(AND($C23="Jalon",O$5&gt;=$F24,O$5&lt;=$F24+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="P23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",P$5&gt;=$F24,P$5&lt;=$F24+$G23-1),2,IF(AND($C23="Jalon",P$5&gt;=$F24,P$5&lt;=$F24+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="Q23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",Q$5&gt;=$F24,Q$5&lt;=$F24+$G23-1),2,IF(AND($C23="Jalon",Q$5&gt;=$F24,Q$5&lt;=$F24+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="R23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",R$5&gt;=$F24,R$5&lt;=$F24+$G23-1),2,IF(AND($C23="Jalon",R$5&gt;=$F24,R$5&lt;=$F24+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="S23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",S$5&gt;=$F24,S$5&lt;=$F24+$G23-1),2,IF(AND($C23="Jalon",S$5&gt;=$F24,S$5&lt;=$F24+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="T23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",T$5&gt;=$F24,T$5&lt;=$F24+$G23-1),2,IF(AND($C23="Jalon",T$5&gt;=$F24,T$5&lt;=$F24+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="U23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",U$5&gt;=$F24,U$5&lt;=$F24+$G23-1),2,IF(AND($C23="Jalon",U$5&gt;=$F24,U$5&lt;=$F24+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="V23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",V$5&gt;=$F24,V$5&lt;=$F24+$G23-1),2,IF(AND($C23="Jalon",V$5&gt;=$F24,V$5&lt;=$F24+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="W23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",W$5&gt;=$F24,W$5&lt;=$F24+$G23-1),2,IF(AND($C23="Jalon",W$5&gt;=$F24,W$5&lt;=$F24+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="X23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",X$5&gt;=$F24,X$5&lt;=$F24+$G23-1),2,IF(AND($C23="Jalon",X$5&gt;=$F24,X$5&lt;=$F24+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="Y23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",Y$5&gt;=$F24,Y$5&lt;=$F24+$G23-1),2,IF(AND($C23="Jalon",Y$5&gt;=$F24,Y$5&lt;=$F24+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="Z23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",Z$5&gt;=$F24,Z$5&lt;=$F24+$G23-1),2,IF(AND($C23="Jalon",Z$5&gt;=$F24,Z$5&lt;=$F24+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AA23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",AA$5&gt;=$F24,AA$5&lt;=$F24+$G23-1),2,IF(AND($C23="Jalon",AA$5&gt;=$F24,AA$5&lt;=$F24+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AB23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",AB$5&gt;=$F24,AB$5&lt;=$F24+$G23-1),2,IF(AND($C23="Jalon",AB$5&gt;=$F24,AB$5&lt;=$F24+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
-      <c r="B24" s="62" t="s">
-        <v>58</v>
+      <c r="B24" s="53" t="s">
+        <v>57</v>
       </c>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
@@ -7873,10 +7880,10 @@
       <c r="AA24" s="37"/>
       <c r="AB24" s="37"/>
     </row>
-    <row r="25" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
-      <c r="B25" s="62" t="s">
-        <v>59</v>
+      <c r="B25" s="53" t="s">
+        <v>58</v>
       </c>
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
@@ -7911,7 +7918,7 @@
       <c r="AA25" s="37"/>
       <c r="AB25" s="37"/>
     </row>
-    <row r="26" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="50" t="s">
         <v>40</v>
@@ -7927,86 +7934,86 @@
         <v/>
       </c>
       <c r="J26" s="37" t="str">
-        <f t="shared" ref="J26:S52" ca="1" si="7">IF(AND($C26="Objectif",J$5&gt;=$F26,J$5&lt;=$F26+$G26-1),2,IF(AND($C26="Jalon",J$5&gt;=$F26,J$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ref="J26:S52" ca="1" si="9">IF(AND($C26="Objectif",J$5&gt;=$F26,J$5&lt;=$F26+$G26-1),2,IF(AND($C26="Jalon",J$5&gt;=$F26,J$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="K26" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L26" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="M26" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N26" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="O26" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P26" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Q26" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="R26" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="S26" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="T26" s="37" t="str">
-        <f t="shared" ref="T26:AB52" ca="1" si="8">IF(AND($C26="Objectif",T$5&gt;=$F26,T$5&lt;=$F26+$G26-1),2,IF(AND($C26="Jalon",T$5&gt;=$F26,T$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ref="T26:AB52" ca="1" si="10">IF(AND($C26="Objectif",T$5&gt;=$F26,T$5&lt;=$F26+$G26-1),2,IF(AND($C26="Jalon",T$5&gt;=$F26,T$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="U26" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="V26" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="W26" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="X26" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Y26" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Z26" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AA26" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AB26" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
-      <c r="B27" s="62" t="s">
-        <v>61</v>
+      <c r="B27" s="53" t="s">
+        <v>60</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
@@ -8041,10 +8048,10 @@
       <c r="AA27" s="37"/>
       <c r="AB27" s="37"/>
     </row>
-    <row r="28" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
-      <c r="B28" s="62" t="s">
-        <v>62</v>
+      <c r="B28" s="53" t="s">
+        <v>61</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
@@ -8079,7 +8086,7 @@
       <c r="AA28" s="37"/>
       <c r="AB28" s="37"/>
     </row>
-    <row r="29" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="50" t="s">
         <v>41</v>
@@ -8101,86 +8108,86 @@
         <v/>
       </c>
       <c r="J29" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K29" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L29" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="M29" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N29" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="O29" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P29" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Q29" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="R29" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="S29" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="T29" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U29" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="V29" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="W29" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="X29" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Y29" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Z29" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AA29" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AB29" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
@@ -8209,10 +8216,10 @@
       <c r="AA30" s="37"/>
       <c r="AB30" s="37"/>
     </row>
-    <row r="31" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
-      <c r="B31" s="62" t="s">
-        <v>52</v>
+      <c r="B31" s="53" t="s">
+        <v>51</v>
       </c>
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
@@ -8231,123 +8238,123 @@
         <v/>
       </c>
       <c r="J31" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K31" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L31" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="M31" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N31" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="O31" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P31" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Q31" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="R31" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="S31" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="T31" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U31" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="V31" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="W31" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="X31" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Y31" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Z31" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AA31" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AB31" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:28" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="65"/>
-      <c r="B32" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="68">
+    <row r="32" spans="1:28" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="56"/>
+      <c r="B32" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="59">
         <v>0</v>
       </c>
-      <c r="F32" s="69">
+      <c r="F32" s="60">
         <v>43894</v>
       </c>
-      <c r="G32" s="70">
+      <c r="G32" s="61">
         <v>2</v>
       </c>
-      <c r="H32" s="71"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="72"/>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="72"/>
-      <c r="W32" s="72"/>
-      <c r="X32" s="72"/>
-      <c r="Y32" s="72"/>
-      <c r="Z32" s="72"/>
-      <c r="AA32" s="72"/>
-      <c r="AB32" s="72"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="63"/>
+      <c r="T32" s="63"/>
+      <c r="U32" s="63"/>
+      <c r="V32" s="63"/>
+      <c r="W32" s="63"/>
+      <c r="X32" s="63"/>
+      <c r="Y32" s="63"/>
+      <c r="Z32" s="63"/>
+      <c r="AA32" s="63"/>
+      <c r="AB32" s="63"/>
     </row>
-    <row r="33" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="54" t="s">
         <v>42</v>
       </c>
       <c r="C33" s="33"/>
@@ -8361,86 +8368,86 @@
         <v/>
       </c>
       <c r="J33" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K33" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L33" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="M33" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N33" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="O33" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P33" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Q33" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="R33" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="S33" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="T33" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U33" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="V33" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="W33" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="X33" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Y33" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Z33" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AA33" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AB33" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
@@ -8475,7 +8482,7 @@
       <c r="AA34" s="37"/>
       <c r="AB34" s="37"/>
     </row>
-    <row r="35" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="50" t="s">
         <v>43</v>
@@ -8487,90 +8494,90 @@
       <c r="G35" s="32"/>
       <c r="H35" s="26"/>
       <c r="I35" s="37" t="str">
-        <f ca="1">IF(AND($C35="Objectif",I$5&gt;=$F36,I$5&lt;=$F36+$G36-1),2,IF(AND($C35="Jalon",I$5&gt;=$F36,I$5&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ref="I35:AB35" ca="1" si="11">IF(AND($C35="Objectif",I$5&gt;=$F36,I$5&lt;=$F36+$G36-1),2,IF(AND($C35="Jalon",I$5&gt;=$F36,I$5&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="J35" s="37" t="str">
-        <f ca="1">IF(AND($C35="Objectif",J$5&gt;=$F36,J$5&lt;=$F36+$G36-1),2,IF(AND($C35="Jalon",J$5&gt;=$F36,J$5&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K35" s="37" t="str">
-        <f ca="1">IF(AND($C35="Objectif",K$5&gt;=$F36,K$5&lt;=$F36+$G36-1),2,IF(AND($C35="Jalon",K$5&gt;=$F36,K$5&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L35" s="37" t="str">
-        <f ca="1">IF(AND($C35="Objectif",L$5&gt;=$F36,L$5&lt;=$F36+$G36-1),2,IF(AND($C35="Jalon",L$5&gt;=$F36,L$5&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M35" s="37" t="str">
-        <f ca="1">IF(AND($C35="Objectif",M$5&gt;=$F36,M$5&lt;=$F36+$G36-1),2,IF(AND($C35="Jalon",M$5&gt;=$F36,M$5&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="N35" s="37" t="str">
-        <f ca="1">IF(AND($C35="Objectif",N$5&gt;=$F36,N$5&lt;=$F36+$G36-1),2,IF(AND($C35="Jalon",N$5&gt;=$F36,N$5&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="O35" s="37" t="str">
-        <f ca="1">IF(AND($C35="Objectif",O$5&gt;=$F36,O$5&lt;=$F36+$G36-1),2,IF(AND($C35="Jalon",O$5&gt;=$F36,O$5&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="P35" s="37" t="str">
-        <f ca="1">IF(AND($C35="Objectif",P$5&gt;=$F36,P$5&lt;=$F36+$G36-1),2,IF(AND($C35="Jalon",P$5&gt;=$F36,P$5&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="Q35" s="37" t="str">
-        <f ca="1">IF(AND($C35="Objectif",Q$5&gt;=$F36,Q$5&lt;=$F36+$G36-1),2,IF(AND($C35="Jalon",Q$5&gt;=$F36,Q$5&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="R35" s="37" t="str">
-        <f ca="1">IF(AND($C35="Objectif",R$5&gt;=$F36,R$5&lt;=$F36+$G36-1),2,IF(AND($C35="Jalon",R$5&gt;=$F36,R$5&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="S35" s="37" t="str">
-        <f ca="1">IF(AND($C35="Objectif",S$5&gt;=$F36,S$5&lt;=$F36+$G36-1),2,IF(AND($C35="Jalon",S$5&gt;=$F36,S$5&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="T35" s="37" t="str">
-        <f ca="1">IF(AND($C35="Objectif",T$5&gt;=$F36,T$5&lt;=$F36+$G36-1),2,IF(AND($C35="Jalon",T$5&gt;=$F36,T$5&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="U35" s="37" t="str">
-        <f ca="1">IF(AND($C35="Objectif",U$5&gt;=$F36,U$5&lt;=$F36+$G36-1),2,IF(AND($C35="Jalon",U$5&gt;=$F36,U$5&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="V35" s="37" t="str">
-        <f ca="1">IF(AND($C35="Objectif",V$5&gt;=$F36,V$5&lt;=$F36+$G36-1),2,IF(AND($C35="Jalon",V$5&gt;=$F36,V$5&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="W35" s="37" t="str">
-        <f ca="1">IF(AND($C35="Objectif",W$5&gt;=$F36,W$5&lt;=$F36+$G36-1),2,IF(AND($C35="Jalon",W$5&gt;=$F36,W$5&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="X35" s="37" t="str">
-        <f ca="1">IF(AND($C35="Objectif",X$5&gt;=$F36,X$5&lt;=$F36+$G36-1),2,IF(AND($C35="Jalon",X$5&gt;=$F36,X$5&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="Y35" s="37" t="str">
-        <f ca="1">IF(AND($C35="Objectif",Y$5&gt;=$F36,Y$5&lt;=$F36+$G36-1),2,IF(AND($C35="Jalon",Y$5&gt;=$F36,Y$5&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="Z35" s="37" t="str">
-        <f ca="1">IF(AND($C35="Objectif",Z$5&gt;=$F36,Z$5&lt;=$F36+$G36-1),2,IF(AND($C35="Jalon",Z$5&gt;=$F36,Z$5&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AA35" s="37" t="str">
-        <f ca="1">IF(AND($C35="Objectif",AA$5&gt;=$F36,AA$5&lt;=$F36+$G36-1),2,IF(AND($C35="Jalon",AA$5&gt;=$F36,AA$5&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AB35" s="37" t="str">
-        <f ca="1">IF(AND($C35="Objectif",AB$5&gt;=$F36,AB$5&lt;=$F36+$G36-1),2,IF(AND($C35="Jalon",AB$5&gt;=$F36,AB$5&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
-      <c r="B36" s="62" t="s">
-        <v>64</v>
+      <c r="B36" s="53" t="s">
+        <v>63</v>
       </c>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
@@ -8605,10 +8612,10 @@
       <c r="AA36" s="37"/>
       <c r="AB36" s="37"/>
     </row>
-    <row r="37" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14"/>
-      <c r="B37" s="62" t="s">
-        <v>65</v>
+      <c r="B37" s="53" t="s">
+        <v>64</v>
       </c>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
@@ -8643,10 +8650,10 @@
       <c r="AA37" s="37"/>
       <c r="AB37" s="37"/>
     </row>
-    <row r="38" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14"/>
-      <c r="B38" s="62" t="s">
-        <v>73</v>
+      <c r="B38" s="53" t="s">
+        <v>72</v>
       </c>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
@@ -8681,7 +8688,7 @@
       <c r="AA38" s="37"/>
       <c r="AB38" s="37"/>
     </row>
-    <row r="39" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
       <c r="B39" s="50" t="s">
         <v>44</v>
@@ -8697,86 +8704,86 @@
         <v/>
       </c>
       <c r="J39" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K39" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L39" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="M39" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N39" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="O39" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P39" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Q39" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="R39" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="S39" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="T39" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U39" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="V39" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="W39" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="X39" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Y39" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Z39" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AA39" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AB39" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
-      <c r="B40" s="62" t="s">
-        <v>66</v>
+      <c r="B40" s="53" t="s">
+        <v>65</v>
       </c>
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
@@ -8811,10 +8818,10 @@
       <c r="AA40" s="37"/>
       <c r="AB40" s="37"/>
     </row>
-    <row r="41" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14"/>
-      <c r="B41" s="62" t="s">
-        <v>67</v>
+      <c r="B41" s="53" t="s">
+        <v>66</v>
       </c>
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
@@ -8849,7 +8856,7 @@
       <c r="AA41" s="37"/>
       <c r="AB41" s="37"/>
     </row>
-    <row r="42" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14"/>
       <c r="B42" s="50" t="s">
         <v>40</v>
@@ -8857,94 +8864,94 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="30"/>
-      <c r="F42" s="64"/>
+      <c r="F42" s="55"/>
       <c r="G42" s="32"/>
       <c r="H42" s="26"/>
       <c r="I42" s="37" t="str">
-        <f ca="1">IF(AND($C42="Objectif",I$5&gt;=$F43,I$5&lt;=$F43+$G42-1),2,IF(AND($C42="Jalon",I$5&gt;=$F43,I$5&lt;=$F43+$G42-1),1,""))</f>
+        <f t="shared" ref="I42:AB42" ca="1" si="12">IF(AND($C42="Objectif",I$5&gt;=$F43,I$5&lt;=$F43+$G42-1),2,IF(AND($C42="Jalon",I$5&gt;=$F43,I$5&lt;=$F43+$G42-1),1,""))</f>
         <v/>
       </c>
       <c r="J42" s="37" t="str">
-        <f ca="1">IF(AND($C42="Objectif",J$5&gt;=$F43,J$5&lt;=$F43+$G42-1),2,IF(AND($C42="Jalon",J$5&gt;=$F43,J$5&lt;=$F43+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="K42" s="37" t="str">
-        <f ca="1">IF(AND($C42="Objectif",K$5&gt;=$F43,K$5&lt;=$F43+$G42-1),2,IF(AND($C42="Jalon",K$5&gt;=$F43,K$5&lt;=$F43+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L42" s="37" t="str">
-        <f ca="1">IF(AND($C42="Objectif",L$5&gt;=$F43,L$5&lt;=$F43+$G42-1),2,IF(AND($C42="Jalon",L$5&gt;=$F43,L$5&lt;=$F43+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="M42" s="37" t="str">
-        <f ca="1">IF(AND($C42="Objectif",M$5&gt;=$F43,M$5&lt;=$F43+$G42-1),2,IF(AND($C42="Jalon",M$5&gt;=$F43,M$5&lt;=$F43+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="N42" s="37" t="str">
-        <f ca="1">IF(AND($C42="Objectif",N$5&gt;=$F43,N$5&lt;=$F43+$G42-1),2,IF(AND($C42="Jalon",N$5&gt;=$F43,N$5&lt;=$F43+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O42" s="37" t="str">
-        <f ca="1">IF(AND($C42="Objectif",O$5&gt;=$F43,O$5&lt;=$F43+$G42-1),2,IF(AND($C42="Jalon",O$5&gt;=$F43,O$5&lt;=$F43+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="P42" s="37" t="str">
-        <f ca="1">IF(AND($C42="Objectif",P$5&gt;=$F43,P$5&lt;=$F43+$G42-1),2,IF(AND($C42="Jalon",P$5&gt;=$F43,P$5&lt;=$F43+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Q42" s="37" t="str">
-        <f ca="1">IF(AND($C42="Objectif",Q$5&gt;=$F43,Q$5&lt;=$F43+$G42-1),2,IF(AND($C42="Jalon",Q$5&gt;=$F43,Q$5&lt;=$F43+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="R42" s="37" t="str">
-        <f ca="1">IF(AND($C42="Objectif",R$5&gt;=$F43,R$5&lt;=$F43+$G42-1),2,IF(AND($C42="Jalon",R$5&gt;=$F43,R$5&lt;=$F43+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="S42" s="37" t="str">
-        <f ca="1">IF(AND($C42="Objectif",S$5&gt;=$F43,S$5&lt;=$F43+$G42-1),2,IF(AND($C42="Jalon",S$5&gt;=$F43,S$5&lt;=$F43+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="T42" s="37" t="str">
-        <f ca="1">IF(AND($C42="Objectif",T$5&gt;=$F43,T$5&lt;=$F43+$G42-1),2,IF(AND($C42="Jalon",T$5&gt;=$F43,T$5&lt;=$F43+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="U42" s="37" t="str">
-        <f ca="1">IF(AND($C42="Objectif",U$5&gt;=$F43,U$5&lt;=$F43+$G42-1),2,IF(AND($C42="Jalon",U$5&gt;=$F43,U$5&lt;=$F43+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="V42" s="37" t="str">
-        <f ca="1">IF(AND($C42="Objectif",V$5&gt;=$F43,V$5&lt;=$F43+$G42-1),2,IF(AND($C42="Jalon",V$5&gt;=$F43,V$5&lt;=$F43+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="W42" s="37" t="str">
-        <f ca="1">IF(AND($C42="Objectif",W$5&gt;=$F43,W$5&lt;=$F43+$G42-1),2,IF(AND($C42="Jalon",W$5&gt;=$F43,W$5&lt;=$F43+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="X42" s="37" t="str">
-        <f ca="1">IF(AND($C42="Objectif",X$5&gt;=$F43,X$5&lt;=$F43+$G42-1),2,IF(AND($C42="Jalon",X$5&gt;=$F43,X$5&lt;=$F43+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Y42" s="37" t="str">
-        <f ca="1">IF(AND($C42="Objectif",Y$5&gt;=$F43,Y$5&lt;=$F43+$G42-1),2,IF(AND($C42="Jalon",Y$5&gt;=$F43,Y$5&lt;=$F43+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Z42" s="37" t="str">
-        <f ca="1">IF(AND($C42="Objectif",Z$5&gt;=$F43,Z$5&lt;=$F43+$G42-1),2,IF(AND($C42="Jalon",Z$5&gt;=$F43,Z$5&lt;=$F43+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AA42" s="37" t="str">
-        <f ca="1">IF(AND($C42="Objectif",AA$5&gt;=$F43,AA$5&lt;=$F43+$G42-1),2,IF(AND($C42="Jalon",AA$5&gt;=$F43,AA$5&lt;=$F43+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AB42" s="37" t="str">
-        <f ca="1">IF(AND($C42="Objectif",AB$5&gt;=$F43,AB$5&lt;=$F43+$G42-1),2,IF(AND($C42="Jalon",AB$5&gt;=$F43,AB$5&lt;=$F43+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14"/>
-      <c r="B43" s="62" t="s">
-        <v>68</v>
+      <c r="B43" s="53" t="s">
+        <v>67</v>
       </c>
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
@@ -8979,10 +8986,10 @@
       <c r="AA43" s="37"/>
       <c r="AB43" s="37"/>
     </row>
-    <row r="44" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14"/>
       <c r="B44" s="50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
@@ -8995,86 +9002,86 @@
         <v/>
       </c>
       <c r="J44" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K44" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L44" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="M44" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N44" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="O44" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P44" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Q44" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="R44" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="S44" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="T44" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U44" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="V44" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="W44" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="X44" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Y44" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Z44" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AA44" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AB44" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14"/>
-      <c r="B45" s="62" t="s">
-        <v>70</v>
+      <c r="B45" s="53" t="s">
+        <v>69</v>
       </c>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
@@ -9109,10 +9116,10 @@
       <c r="AA45" s="37"/>
       <c r="AB45" s="37"/>
     </row>
-    <row r="46" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14"/>
-      <c r="B46" s="62" t="s">
-        <v>71</v>
+      <c r="B46" s="53" t="s">
+        <v>70</v>
       </c>
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
@@ -9147,10 +9154,10 @@
       <c r="AA46" s="37"/>
       <c r="AB46" s="37"/>
     </row>
-    <row r="47" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14"/>
-      <c r="B47" s="62" t="s">
-        <v>72</v>
+      <c r="B47" s="53" t="s">
+        <v>71</v>
       </c>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
@@ -9185,10 +9192,10 @@
       <c r="AA47" s="37"/>
       <c r="AB47" s="37"/>
     </row>
-    <row r="48" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14"/>
-      <c r="B48" s="62" t="s">
-        <v>75</v>
+      <c r="B48" s="53" t="s">
+        <v>74</v>
       </c>
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
@@ -9223,10 +9230,10 @@
       <c r="AA48" s="37"/>
       <c r="AB48" s="37"/>
     </row>
-    <row r="49" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14"/>
-      <c r="B49" s="62" t="s">
-        <v>74</v>
+      <c r="B49" s="53" t="s">
+        <v>73</v>
       </c>
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
@@ -9261,10 +9268,10 @@
       <c r="AA49" s="37"/>
       <c r="AB49" s="37"/>
     </row>
-    <row r="50" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14"/>
-      <c r="B50" s="63" t="s">
-        <v>76</v>
+      <c r="B50" s="54" t="s">
+        <v>75</v>
       </c>
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
@@ -9277,86 +9284,86 @@
         <v/>
       </c>
       <c r="J50" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K50" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L50" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="M50" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N50" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="O50" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P50" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Q50" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="R50" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="S50" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="T50" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U50" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="V50" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="W50" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="X50" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Y50" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Z50" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AA50" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AB50" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14"/>
       <c r="B51" s="50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
@@ -9369,86 +9376,86 @@
         <v/>
       </c>
       <c r="J51" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K51" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L51" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="M51" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N51" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="O51" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P51" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Q51" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="R51" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="S51" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="T51" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U51" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="V51" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="W51" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="X51" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Y51" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Z51" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AA51" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AB51" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14"/>
-      <c r="B52" s="62" t="s">
-        <v>78</v>
+      <c r="B52" s="53" t="s">
+        <v>77</v>
       </c>
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
@@ -9467,86 +9474,86 @@
         <v/>
       </c>
       <c r="J52" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K52" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L52" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="M52" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N52" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="O52" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P52" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Q52" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="R52" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="S52" s="37" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="T52" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U52" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="V52" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="W52" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="X52" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Y52" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Z52" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AA52" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AB52" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14"/>
-      <c r="B53" s="62" t="s">
-        <v>79</v>
+      <c r="B53" s="53" t="s">
+        <v>78</v>
       </c>
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
@@ -9581,102 +9588,102 @@
       <c r="AA53" s="37"/>
       <c r="AB53" s="37"/>
     </row>
-    <row r="54" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14"/>
       <c r="B54" s="50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="30"/>
-      <c r="F54" s="64"/>
+      <c r="F54" s="55"/>
       <c r="G54" s="32"/>
       <c r="H54" s="26"/>
       <c r="I54" s="37" t="str">
-        <f ca="1">IF(AND($C54="Objectif",I$5&gt;=$F55,I$5&lt;=$F55+$G54-1),2,IF(AND($C54="Jalon",I$5&gt;=$F55,I$5&lt;=$F55+$G54-1),1,""))</f>
+        <f t="shared" ref="I54:AB54" ca="1" si="13">IF(AND($C54="Objectif",I$5&gt;=$F55,I$5&lt;=$F55+$G54-1),2,IF(AND($C54="Jalon",I$5&gt;=$F55,I$5&lt;=$F55+$G54-1),1,""))</f>
         <v/>
       </c>
       <c r="J54" s="37" t="str">
-        <f ca="1">IF(AND($C54="Objectif",J$5&gt;=$F55,J$5&lt;=$F55+$G54-1),2,IF(AND($C54="Jalon",J$5&gt;=$F55,J$5&lt;=$F55+$G54-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K54" s="37" t="str">
-        <f ca="1">IF(AND($C54="Objectif",K$5&gt;=$F55,K$5&lt;=$F55+$G54-1),2,IF(AND($C54="Jalon",K$5&gt;=$F55,K$5&lt;=$F55+$G54-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="L54" s="37" t="str">
-        <f ca="1">IF(AND($C54="Objectif",L$5&gt;=$F55,L$5&lt;=$F55+$G54-1),2,IF(AND($C54="Jalon",L$5&gt;=$F55,L$5&lt;=$F55+$G54-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M54" s="37" t="str">
-        <f ca="1">IF(AND($C54="Objectif",M$5&gt;=$F55,M$5&lt;=$F55+$G54-1),2,IF(AND($C54="Jalon",M$5&gt;=$F55,M$5&lt;=$F55+$G54-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="N54" s="37" t="str">
-        <f ca="1">IF(AND($C54="Objectif",N$5&gt;=$F55,N$5&lt;=$F55+$G54-1),2,IF(AND($C54="Jalon",N$5&gt;=$F55,N$5&lt;=$F55+$G54-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="O54" s="37" t="str">
-        <f ca="1">IF(AND($C54="Objectif",O$5&gt;=$F55,O$5&lt;=$F55+$G54-1),2,IF(AND($C54="Jalon",O$5&gt;=$F55,O$5&lt;=$F55+$G54-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="P54" s="37" t="str">
-        <f ca="1">IF(AND($C54="Objectif",P$5&gt;=$F55,P$5&lt;=$F55+$G54-1),2,IF(AND($C54="Jalon",P$5&gt;=$F55,P$5&lt;=$F55+$G54-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Q54" s="37" t="str">
-        <f ca="1">IF(AND($C54="Objectif",Q$5&gt;=$F55,Q$5&lt;=$F55+$G54-1),2,IF(AND($C54="Jalon",Q$5&gt;=$F55,Q$5&lt;=$F55+$G54-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="R54" s="37" t="str">
-        <f ca="1">IF(AND($C54="Objectif",R$5&gt;=$F55,R$5&lt;=$F55+$G54-1),2,IF(AND($C54="Jalon",R$5&gt;=$F55,R$5&lt;=$F55+$G54-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="S54" s="37" t="str">
-        <f ca="1">IF(AND($C54="Objectif",S$5&gt;=$F55,S$5&lt;=$F55+$G54-1),2,IF(AND($C54="Jalon",S$5&gt;=$F55,S$5&lt;=$F55+$G54-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="T54" s="37" t="str">
-        <f ca="1">IF(AND($C54="Objectif",T$5&gt;=$F55,T$5&lt;=$F55+$G54-1),2,IF(AND($C54="Jalon",T$5&gt;=$F55,T$5&lt;=$F55+$G54-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="U54" s="37" t="str">
-        <f ca="1">IF(AND($C54="Objectif",U$5&gt;=$F55,U$5&lt;=$F55+$G54-1),2,IF(AND($C54="Jalon",U$5&gt;=$F55,U$5&lt;=$F55+$G54-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="V54" s="37" t="str">
-        <f ca="1">IF(AND($C54="Objectif",V$5&gt;=$F55,V$5&lt;=$F55+$G54-1),2,IF(AND($C54="Jalon",V$5&gt;=$F55,V$5&lt;=$F55+$G54-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="W54" s="37" t="str">
-        <f ca="1">IF(AND($C54="Objectif",W$5&gt;=$F55,W$5&lt;=$F55+$G54-1),2,IF(AND($C54="Jalon",W$5&gt;=$F55,W$5&lt;=$F55+$G54-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="X54" s="37" t="str">
-        <f ca="1">IF(AND($C54="Objectif",X$5&gt;=$F55,X$5&lt;=$F55+$G54-1),2,IF(AND($C54="Jalon",X$5&gt;=$F55,X$5&lt;=$F55+$G54-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Y54" s="37" t="str">
-        <f ca="1">IF(AND($C54="Objectif",Y$5&gt;=$F55,Y$5&lt;=$F55+$G54-1),2,IF(AND($C54="Jalon",Y$5&gt;=$F55,Y$5&lt;=$F55+$G54-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Z54" s="37" t="str">
-        <f ca="1">IF(AND($C54="Objectif",Z$5&gt;=$F55,Z$5&lt;=$F55+$G54-1),2,IF(AND($C54="Jalon",Z$5&gt;=$F55,Z$5&lt;=$F55+$G54-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AA54" s="37" t="str">
-        <f ca="1">IF(AND($C54="Objectif",AA$5&gt;=$F55,AA$5&lt;=$F55+$G54-1),2,IF(AND($C54="Jalon",AA$5&gt;=$F55,AA$5&lt;=$F55+$G54-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AB54" s="37" t="str">
-        <f ca="1">IF(AND($C54="Objectif",AB$5&gt;=$F55,AB$5&lt;=$F55+$G54-1),2,IF(AND($C54="Jalon",AB$5&gt;=$F55,AB$5&lt;=$F55+$G54-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14"/>
-      <c r="B55" s="62" t="s">
-        <v>80</v>
+      <c r="B55" s="53" t="s">
+        <v>79</v>
       </c>
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
@@ -9711,10 +9718,10 @@
       <c r="AA55" s="37"/>
       <c r="AB55" s="37"/>
     </row>
-    <row r="56" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14"/>
-      <c r="B56" s="62" t="s">
-        <v>82</v>
+      <c r="B56" s="53" t="s">
+        <v>81</v>
       </c>
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
@@ -9749,21 +9756,25 @@
       <c r="AA56" s="37"/>
       <c r="AB56" s="37"/>
     </row>
-    <row r="57" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14"/>
       <c r="B57" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
+      <c r="C57" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="33" t="s">
+        <v>50</v>
+      </c>
       <c r="E57" s="30">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F57" s="51">
         <v>43882</v>
       </c>
       <c r="G57" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H57" s="26"/>
       <c r="I57" s="37"/>
@@ -9787,10 +9798,10 @@
       <c r="AA57" s="37"/>
       <c r="AB57" s="37"/>
     </row>
-    <row r="58" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14"/>
       <c r="B58" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C58" s="33"/>
       <c r="D58" s="33"/>
@@ -9819,10 +9830,10 @@
       <c r="AA58" s="37"/>
       <c r="AB58" s="37"/>
     </row>
-    <row r="59" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14"/>
-      <c r="B59" s="62" t="s">
-        <v>84</v>
+      <c r="B59" s="53" t="s">
+        <v>83</v>
       </c>
       <c r="C59" s="33"/>
       <c r="D59" s="33"/>
@@ -9857,10 +9868,10 @@
       <c r="AA59" s="37"/>
       <c r="AB59" s="37"/>
     </row>
-    <row r="60" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14"/>
-      <c r="B60" s="62" t="s">
-        <v>85</v>
+      <c r="B60" s="53" t="s">
+        <v>84</v>
       </c>
       <c r="C60" s="33"/>
       <c r="D60" s="33"/>
@@ -9895,10 +9906,10 @@
       <c r="AA60" s="37"/>
       <c r="AB60" s="37"/>
     </row>
-    <row r="61" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14"/>
-      <c r="B61" s="62" t="s">
-        <v>86</v>
+      <c r="B61" s="53" t="s">
+        <v>85</v>
       </c>
       <c r="C61" s="33"/>
       <c r="D61" s="33"/>
@@ -9933,10 +9944,10 @@
       <c r="AA61" s="37"/>
       <c r="AB61" s="37"/>
     </row>
-    <row r="62" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14"/>
       <c r="B62" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C62" s="33"/>
       <c r="D62" s="33"/>
@@ -9965,10 +9976,10 @@
       <c r="AA62" s="37"/>
       <c r="AB62" s="37"/>
     </row>
-    <row r="63" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14"/>
-      <c r="B63" s="62" t="s">
-        <v>88</v>
+      <c r="B63" s="53" t="s">
+        <v>87</v>
       </c>
       <c r="C63" s="33"/>
       <c r="D63" s="33"/>
@@ -10003,10 +10014,10 @@
       <c r="AA63" s="37"/>
       <c r="AB63" s="37"/>
     </row>
-    <row r="64" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14"/>
-      <c r="B64" s="62" t="s">
-        <v>89</v>
+      <c r="B64" s="53" t="s">
+        <v>88</v>
       </c>
       <c r="C64" s="33"/>
       <c r="D64" s="33"/>
@@ -10041,7 +10052,7 @@
       <c r="AA64" s="37"/>
       <c r="AB64" s="37"/>
     </row>
-    <row r="65" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14"/>
       <c r="B65" s="50"/>
       <c r="C65" s="33"/>
@@ -10071,7 +10082,7 @@
       <c r="AA65" s="37"/>
       <c r="AB65" s="37"/>
     </row>
-    <row r="66" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>9</v>
       </c>
@@ -10105,12 +10116,12 @@
       <c r="AA66" s="36"/>
       <c r="AB66" s="36"/>
     </row>
-    <row r="67" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D67" s="5"/>
       <c r="G67" s="16"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D68" s="6"/>
     </row>
   </sheetData>
@@ -10139,44 +10150,44 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:AA13 I16:AA16 I18:AA18 I31:AA31 I21:AA21 I23:AA23 I66:AA66">
-    <cfRule type="expression" dxfId="211" priority="613">
+    <cfRule type="expression" dxfId="214" priority="613">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:AB4">
-    <cfRule type="expression" dxfId="210" priority="619">
+    <cfRule type="expression" dxfId="213" priority="619">
       <formula>I$5&lt;=EOMONTH($I$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:AB4">
-    <cfRule type="expression" dxfId="209" priority="615">
+    <cfRule type="expression" dxfId="212" priority="615">
       <formula>AND(J$5&lt;=EOMONTH($I$5,2),J$5&gt;EOMONTH($I$5,0),J$5&gt;EOMONTH($I$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:AB4">
-    <cfRule type="expression" dxfId="208" priority="614">
+    <cfRule type="expression" dxfId="211" priority="614">
       <formula>AND(I$5&lt;=EOMONTH($I$5,1),I$5&gt;EOMONTH($I$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:AB13 I16:AB16 I18:AB18 I26:AB26 I29:AB33 I39:AB39 I44:AB44 I50:AB51 I56:AB57">
-    <cfRule type="expression" dxfId="207" priority="636" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="636" stopIfTrue="1">
       <formula>AND($C8="Risque faible",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="655" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="655" stopIfTrue="1">
       <formula>AND($C8="Risque élevé",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="673" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="673" stopIfTrue="1">
       <formula>AND($C8="En bonne voie",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="674" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="674" stopIfTrue="1">
       <formula>AND($C8="Risque moyen",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="675" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="675" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5:AB13 AB16 AB18 AB31 AB21 AB23 AB66">
-    <cfRule type="expression" dxfId="202" priority="684">
+    <cfRule type="expression" dxfId="205" priority="684">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10209,29 +10220,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:AA14">
-    <cfRule type="expression" dxfId="201" priority="595">
+    <cfRule type="expression" dxfId="204" priority="595">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:AB14">
-    <cfRule type="expression" dxfId="200" priority="597" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="597" stopIfTrue="1">
       <formula>AND($C14="Risque faible",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="598" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="598" stopIfTrue="1">
       <formula>AND($C14="Risque élevé",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="599" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="599" stopIfTrue="1">
       <formula>AND($C14="En bonne voie",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="600" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="600" stopIfTrue="1">
       <formula>AND($C14="Risque moyen",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="601" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="601" stopIfTrue="1">
       <formula>AND(LEN($C14)=0,I$5&gt;=$F14,I$5&lt;=$F14+$G14-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB14">
-    <cfRule type="expression" dxfId="195" priority="602">
+    <cfRule type="expression" dxfId="198" priority="602">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10250,29 +10261,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:AA15">
-    <cfRule type="expression" dxfId="194" priority="586">
+    <cfRule type="expression" dxfId="197" priority="586">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:AB15">
-    <cfRule type="expression" dxfId="193" priority="588" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="588" stopIfTrue="1">
       <formula>AND($C15="Risque faible",I$5&gt;=$F15,I$5&lt;=$F15+$G15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="589" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="589" stopIfTrue="1">
       <formula>AND($C15="Risque élevé",I$5&gt;=$F15,I$5&lt;=$F15+$G15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="590" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="590" stopIfTrue="1">
       <formula>AND($C15="En bonne voie",I$5&gt;=$F15,I$5&lt;=$F15+$G15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="591" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="591" stopIfTrue="1">
       <formula>AND($C15="Risque moyen",I$5&gt;=$F15,I$5&lt;=$F15+$G15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="592" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="592" stopIfTrue="1">
       <formula>AND(LEN($C15)=0,I$5&gt;=$F15,I$5&lt;=$F15+$G15-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB15">
-    <cfRule type="expression" dxfId="188" priority="593">
+    <cfRule type="expression" dxfId="191" priority="593">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10291,29 +10302,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:AA17">
-    <cfRule type="expression" dxfId="187" priority="577">
+    <cfRule type="expression" dxfId="190" priority="577">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:AB17">
-    <cfRule type="expression" dxfId="186" priority="579" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="579" stopIfTrue="1">
       <formula>AND($C17="Risque faible",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="580" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="580" stopIfTrue="1">
       <formula>AND($C17="Risque élevé",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="581" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="581" stopIfTrue="1">
       <formula>AND($C17="En bonne voie",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="582" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="582" stopIfTrue="1">
       <formula>AND($C17="Risque moyen",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="583" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="583" stopIfTrue="1">
       <formula>AND(LEN($C17)=0,I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB17">
-    <cfRule type="expression" dxfId="181" priority="584">
+    <cfRule type="expression" dxfId="184" priority="584">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10332,12 +10343,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:AA26">
-    <cfRule type="expression" dxfId="180" priority="568">
+    <cfRule type="expression" dxfId="183" priority="568">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB26">
-    <cfRule type="expression" dxfId="179" priority="575">
+    <cfRule type="expression" dxfId="182" priority="575">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10356,12 +10367,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:AA29">
-    <cfRule type="expression" dxfId="178" priority="559">
+    <cfRule type="expression" dxfId="181" priority="559">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB29">
-    <cfRule type="expression" dxfId="177" priority="566">
+    <cfRule type="expression" dxfId="180" priority="566">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10380,42 +10391,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:AA33">
-    <cfRule type="expression" dxfId="176" priority="550">
+    <cfRule type="expression" dxfId="179" priority="550">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB33">
-    <cfRule type="expression" dxfId="175" priority="557">
+    <cfRule type="expression" dxfId="178" priority="557">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:AA39 I42:AA42 I44:AA44">
-    <cfRule type="expression" dxfId="174" priority="532">
+    <cfRule type="expression" dxfId="177" priority="532">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB39 AB42 AB44">
-    <cfRule type="expression" dxfId="173" priority="539">
+    <cfRule type="expression" dxfId="176" priority="539">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:AA54">
-    <cfRule type="expression" dxfId="172" priority="514">
+    <cfRule type="expression" dxfId="175" priority="514">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB54">
-    <cfRule type="expression" dxfId="171" priority="521">
+    <cfRule type="expression" dxfId="174" priority="521">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57:AA57">
-    <cfRule type="expression" dxfId="170" priority="505">
+    <cfRule type="expression" dxfId="173" priority="505">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB57">
-    <cfRule type="expression" dxfId="169" priority="512">
+    <cfRule type="expression" dxfId="172" priority="512">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10504,22 +10515,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50:AA50">
-    <cfRule type="expression" dxfId="168" priority="489">
+    <cfRule type="expression" dxfId="171" priority="489">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB50">
-    <cfRule type="expression" dxfId="167" priority="496">
+    <cfRule type="expression" dxfId="170" priority="496">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:AA51">
-    <cfRule type="expression" dxfId="166" priority="481">
+    <cfRule type="expression" dxfId="169" priority="481">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB51">
-    <cfRule type="expression" dxfId="165" priority="487">
+    <cfRule type="expression" dxfId="168" priority="487">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10552,12 +10563,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:AA30">
-    <cfRule type="expression" dxfId="164" priority="471">
+    <cfRule type="expression" dxfId="167" priority="471">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB30">
-    <cfRule type="expression" dxfId="163" priority="478">
+    <cfRule type="expression" dxfId="166" priority="478">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10576,12 +10587,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:AA32">
-    <cfRule type="expression" dxfId="162" priority="462">
+    <cfRule type="expression" dxfId="165" priority="462">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB32">
-    <cfRule type="expression" dxfId="161" priority="469">
+    <cfRule type="expression" dxfId="164" priority="469">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10600,46 +10611,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:AA19">
-    <cfRule type="expression" dxfId="160" priority="453">
+    <cfRule type="expression" dxfId="163" priority="453">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:AB19">
-    <cfRule type="expression" dxfId="159" priority="455" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="455" stopIfTrue="1">
       <formula>AND($C19="Risque faible",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="456" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="456" stopIfTrue="1">
       <formula>AND($C19="Risque élevé",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="457" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="457" stopIfTrue="1">
       <formula>AND($C19="En bonne voie",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="458" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="458" stopIfTrue="1">
       <formula>AND($C19="Risque moyen",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="459" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="459" stopIfTrue="1">
       <formula>AND(LEN($C19)=0,I$5&gt;=$F19,I$5&lt;=$F19+$G19-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB19">
-    <cfRule type="expression" dxfId="154" priority="460">
+    <cfRule type="expression" dxfId="157" priority="460">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:AB21 I23:AB23 I42:AB42 I54:AB54">
-    <cfRule type="expression" dxfId="153" priority="738" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="738" stopIfTrue="1">
       <formula>AND($C21="Risque faible",I$5&gt;=$F22,I$5&lt;=$F22+$G21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="739" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="739" stopIfTrue="1">
       <formula>AND($C21="Risque élevé",I$5&gt;=$F22,I$5&lt;=$F22+$G21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="740" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="740" stopIfTrue="1">
       <formula>AND($C21="En bonne voie",I$5&gt;=$F22,I$5&lt;=$F22+$G21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="741" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="741" stopIfTrue="1">
       <formula>AND($C21="Risque moyen",I$5&gt;=$F22,I$5&lt;=$F22+$G21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="742" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="742" stopIfTrue="1">
       <formula>AND(LEN($C21)=0,I$5&gt;=$F22,I$5&lt;=$F22+$G21-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10658,29 +10669,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:AA34">
-    <cfRule type="expression" dxfId="148" priority="381">
+    <cfRule type="expression" dxfId="151" priority="381">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:AB34">
-    <cfRule type="expression" dxfId="147" priority="383" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="383" stopIfTrue="1">
       <formula>AND($C34="Risque faible",I$5&gt;=$F34,I$5&lt;=$F34+$G34-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="384" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="384" stopIfTrue="1">
       <formula>AND($C34="Risque élevé",I$5&gt;=$F34,I$5&lt;=$F34+$G34-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="385" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="385" stopIfTrue="1">
       <formula>AND($C34="En bonne voie",I$5&gt;=$F34,I$5&lt;=$F34+$G34-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="386" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="386" stopIfTrue="1">
       <formula>AND($C34="Risque moyen",I$5&gt;=$F34,I$5&lt;=$F34+$G34-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="387" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="387" stopIfTrue="1">
       <formula>AND(LEN($C34)=0,I$5&gt;=$F34,I$5&lt;=$F34+$G34-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB34">
-    <cfRule type="expression" dxfId="142" priority="388">
+    <cfRule type="expression" dxfId="145" priority="388">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10699,7 +10710,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:AA22">
-    <cfRule type="expression" dxfId="141" priority="335">
+    <cfRule type="expression" dxfId="144" priority="335">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10718,29 +10729,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:AA28">
-    <cfRule type="expression" dxfId="140" priority="353">
+    <cfRule type="expression" dxfId="143" priority="353">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:AB28">
-    <cfRule type="expression" dxfId="139" priority="355" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="355" stopIfTrue="1">
       <formula>AND($C27="Risque faible",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="356" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="356" stopIfTrue="1">
       <formula>AND($C27="Risque élevé",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="357" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="357" stopIfTrue="1">
       <formula>AND($C27="En bonne voie",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="358" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="358" stopIfTrue="1">
       <formula>AND($C27="Risque moyen",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="359" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="359" stopIfTrue="1">
       <formula>AND(LEN($C27)=0,I$5&gt;=$F27,I$5&lt;=$F27+$G27-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB27:AB28">
-    <cfRule type="expression" dxfId="134" priority="360">
+    <cfRule type="expression" dxfId="137" priority="360">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10759,51 +10770,51 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:AA25">
-    <cfRule type="expression" dxfId="133" priority="344">
+    <cfRule type="expression" dxfId="136" priority="344">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:AB25">
-    <cfRule type="expression" dxfId="132" priority="346" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="346" stopIfTrue="1">
       <formula>AND($C24="Risque faible",I$5&gt;=$F24,I$5&lt;=$F24+$G24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="347" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="347" stopIfTrue="1">
       <formula>AND($C24="Risque élevé",I$5&gt;=$F24,I$5&lt;=$F24+$G24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="348" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="348" stopIfTrue="1">
       <formula>AND($C24="En bonne voie",I$5&gt;=$F24,I$5&lt;=$F24+$G24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="349" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="349" stopIfTrue="1">
       <formula>AND($C24="Risque moyen",I$5&gt;=$F24,I$5&lt;=$F24+$G24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="350" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="350" stopIfTrue="1">
       <formula>AND(LEN($C24)=0,I$5&gt;=$F24,I$5&lt;=$F24+$G24-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB24:AB25">
-    <cfRule type="expression" dxfId="127" priority="351">
+    <cfRule type="expression" dxfId="130" priority="351">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:AB22">
-    <cfRule type="expression" dxfId="126" priority="337" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="337" stopIfTrue="1">
       <formula>AND($C22="Risque faible",I$5&gt;=$F22,I$5&lt;=$F22+$G22-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="338" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="338" stopIfTrue="1">
       <formula>AND($C22="Risque élevé",I$5&gt;=$F22,I$5&lt;=$F22+$G22-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="339" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="339" stopIfTrue="1">
       <formula>AND($C22="En bonne voie",I$5&gt;=$F22,I$5&lt;=$F22+$G22-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="340" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="340" stopIfTrue="1">
       <formula>AND($C22="Risque moyen",I$5&gt;=$F22,I$5&lt;=$F22+$G22-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="341" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="341" stopIfTrue="1">
       <formula>AND(LEN($C22)=0,I$5&gt;=$F22,I$5&lt;=$F22+$G22-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB22">
-    <cfRule type="expression" dxfId="121" priority="342">
+    <cfRule type="expression" dxfId="124" priority="342">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10822,29 +10833,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:AA20">
-    <cfRule type="expression" dxfId="120" priority="326">
+    <cfRule type="expression" dxfId="123" priority="326">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:AB20">
-    <cfRule type="expression" dxfId="119" priority="328" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="328" stopIfTrue="1">
       <formula>AND($C20="Risque faible",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="329" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="329" stopIfTrue="1">
       <formula>AND($C20="Risque élevé",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="330" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="330" stopIfTrue="1">
       <formula>AND($C20="En bonne voie",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="331" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="331" stopIfTrue="1">
       <formula>AND($C20="Risque moyen",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="332" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="332" stopIfTrue="1">
       <formula>AND(LEN($C20)=0,I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB20">
-    <cfRule type="expression" dxfId="114" priority="333">
+    <cfRule type="expression" dxfId="117" priority="333">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10863,7 +10874,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:AA41">
-    <cfRule type="expression" dxfId="113" priority="263">
+    <cfRule type="expression" dxfId="116" priority="263">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10882,29 +10893,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:AA43">
-    <cfRule type="expression" dxfId="112" priority="290">
+    <cfRule type="expression" dxfId="115" priority="290">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:AB43">
-    <cfRule type="expression" dxfId="111" priority="292" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="292" stopIfTrue="1">
       <formula>AND($C43="Risque faible",I$5&gt;=$F43,I$5&lt;=$F43+$G43-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="293" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="293" stopIfTrue="1">
       <formula>AND($C43="Risque élevé",I$5&gt;=$F43,I$5&lt;=$F43+$G43-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="294" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="294" stopIfTrue="1">
       <formula>AND($C43="En bonne voie",I$5&gt;=$F43,I$5&lt;=$F43+$G43-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="295" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="295" stopIfTrue="1">
       <formula>AND($C43="Risque moyen",I$5&gt;=$F43,I$5&lt;=$F43+$G43-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="296" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="296" stopIfTrue="1">
       <formula>AND(LEN($C43)=0,I$5&gt;=$F43,I$5&lt;=$F43+$G43-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB43">
-    <cfRule type="expression" dxfId="106" priority="297">
+    <cfRule type="expression" dxfId="109" priority="297">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10923,51 +10934,51 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:AA37">
-    <cfRule type="expression" dxfId="105" priority="281">
+    <cfRule type="expression" dxfId="108" priority="281">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:AB37">
-    <cfRule type="expression" dxfId="104" priority="283" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="283" stopIfTrue="1">
       <formula>AND($C36="Risque faible",I$5&gt;=$F36,I$5&lt;=$F36+$G36-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="284" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="284" stopIfTrue="1">
       <formula>AND($C36="Risque élevé",I$5&gt;=$F36,I$5&lt;=$F36+$G36-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="285" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="285" stopIfTrue="1">
       <formula>AND($C36="En bonne voie",I$5&gt;=$F36,I$5&lt;=$F36+$G36-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="286" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="286" stopIfTrue="1">
       <formula>AND($C36="Risque moyen",I$5&gt;=$F36,I$5&lt;=$F36+$G36-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="287" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="287" stopIfTrue="1">
       <formula>AND(LEN($C36)=0,I$5&gt;=$F36,I$5&lt;=$F36+$G36-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB36:AB37">
-    <cfRule type="expression" dxfId="99" priority="288">
+    <cfRule type="expression" dxfId="102" priority="288">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:AB41">
-    <cfRule type="expression" dxfId="98" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="265" stopIfTrue="1">
       <formula>AND($C40="Risque faible",I$5&gt;=$F40,I$5&lt;=$F40+$G40-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="266" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="266" stopIfTrue="1">
       <formula>AND($C40="Risque élevé",I$5&gt;=$F40,I$5&lt;=$F40+$G40-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="267" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="267" stopIfTrue="1">
       <formula>AND($C40="En bonne voie",I$5&gt;=$F40,I$5&lt;=$F40+$G40-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="268" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="268" stopIfTrue="1">
       <formula>AND($C40="Risque moyen",I$5&gt;=$F40,I$5&lt;=$F40+$G40-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="269" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="269" stopIfTrue="1">
       <formula>AND(LEN($C40)=0,I$5&gt;=$F40,I$5&lt;=$F40+$G40-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB40:AB41">
-    <cfRule type="expression" dxfId="93" priority="270">
+    <cfRule type="expression" dxfId="96" priority="270">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10986,56 +10997,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:AA47">
-    <cfRule type="expression" dxfId="92" priority="254">
+    <cfRule type="expression" dxfId="95" priority="254">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:AB47">
-    <cfRule type="expression" dxfId="91" priority="256" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="256" stopIfTrue="1">
       <formula>AND($C45="Risque faible",I$5&gt;=$F45,I$5&lt;=$F45+$G45-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="257" stopIfTrue="1">
       <formula>AND($C45="Risque élevé",I$5&gt;=$F45,I$5&lt;=$F45+$G45-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="258" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="258" stopIfTrue="1">
       <formula>AND($C45="En bonne voie",I$5&gt;=$F45,I$5&lt;=$F45+$G45-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="259" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="259" stopIfTrue="1">
       <formula>AND($C45="Risque moyen",I$5&gt;=$F45,I$5&lt;=$F45+$G45-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="260" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="260" stopIfTrue="1">
       <formula>AND(LEN($C45)=0,I$5&gt;=$F45,I$5&lt;=$F45+$G45-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB45:AB47">
-    <cfRule type="expression" dxfId="86" priority="261">
+    <cfRule type="expression" dxfId="89" priority="261">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:AB35">
-    <cfRule type="expression" dxfId="85" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="240" stopIfTrue="1">
       <formula>AND($C35="Risque faible",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="241" stopIfTrue="1">
       <formula>AND($C35="Risque élevé",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="242" stopIfTrue="1">
       <formula>AND($C35="En bonne voie",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="243" stopIfTrue="1">
       <formula>AND($C35="Risque moyen",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="244" stopIfTrue="1">
       <formula>AND(LEN($C35)=0,I$5&gt;=$F35,I$5&lt;=$F35+$G35-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:AA35">
-    <cfRule type="expression" dxfId="80" priority="237">
+    <cfRule type="expression" dxfId="83" priority="237">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB35">
-    <cfRule type="expression" dxfId="79" priority="238">
+    <cfRule type="expression" dxfId="82" priority="238">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11068,29 +11079,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:AA38">
-    <cfRule type="expression" dxfId="78" priority="227">
+    <cfRule type="expression" dxfId="81" priority="227">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:AB38">
-    <cfRule type="expression" dxfId="77" priority="229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="229" stopIfTrue="1">
       <formula>AND($C38="Risque faible",I$5&gt;=$F38,I$5&lt;=$F38+$G38-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="230" stopIfTrue="1">
       <formula>AND($C38="Risque élevé",I$5&gt;=$F38,I$5&lt;=$F38+$G38-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="231" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="231" stopIfTrue="1">
       <formula>AND($C38="En bonne voie",I$5&gt;=$F38,I$5&lt;=$F38+$G38-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="232" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="232" stopIfTrue="1">
       <formula>AND($C38="Risque moyen",I$5&gt;=$F38,I$5&lt;=$F38+$G38-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="233" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="233" stopIfTrue="1">
       <formula>AND(LEN($C38)=0,I$5&gt;=$F38,I$5&lt;=$F38+$G38-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB38">
-    <cfRule type="expression" dxfId="72" priority="234">
+    <cfRule type="expression" dxfId="75" priority="234">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11109,29 +11120,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48:AA49">
-    <cfRule type="expression" dxfId="71" priority="209">
+    <cfRule type="expression" dxfId="74" priority="209">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48:AB49">
-    <cfRule type="expression" dxfId="70" priority="211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="211" stopIfTrue="1">
       <formula>AND($C48="Risque faible",I$5&gt;=$F48,I$5&lt;=$F48+$G48-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="212" stopIfTrue="1">
       <formula>AND($C48="Risque élevé",I$5&gt;=$F48,I$5&lt;=$F48+$G48-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="213" stopIfTrue="1">
       <formula>AND($C48="En bonne voie",I$5&gt;=$F48,I$5&lt;=$F48+$G48-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="214" stopIfTrue="1">
       <formula>AND($C48="Risque moyen",I$5&gt;=$F48,I$5&lt;=$F48+$G48-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="215" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="215" stopIfTrue="1">
       <formula>AND(LEN($C48)=0,I$5&gt;=$F48,I$5&lt;=$F48+$G48-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB48:AB49">
-    <cfRule type="expression" dxfId="65" priority="216">
+    <cfRule type="expression" dxfId="68" priority="216">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11150,29 +11161,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52:AA53">
-    <cfRule type="expression" dxfId="64" priority="200">
+    <cfRule type="expression" dxfId="67" priority="200">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52:AB53">
-    <cfRule type="expression" dxfId="63" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="202" stopIfTrue="1">
       <formula>AND($C52="Risque faible",I$5&gt;=$F52,I$5&lt;=$F52+$G52-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="203" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="203" stopIfTrue="1">
       <formula>AND($C52="Risque élevé",I$5&gt;=$F52,I$5&lt;=$F52+$G52-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="204" stopIfTrue="1">
       <formula>AND($C52="En bonne voie",I$5&gt;=$F52,I$5&lt;=$F52+$G52-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="205" stopIfTrue="1">
       <formula>AND($C52="Risque moyen",I$5&gt;=$F52,I$5&lt;=$F52+$G52-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="206" stopIfTrue="1">
       <formula>AND(LEN($C52)=0,I$5&gt;=$F52,I$5&lt;=$F52+$G52-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB52:AB53">
-    <cfRule type="expression" dxfId="58" priority="207">
+    <cfRule type="expression" dxfId="61" priority="207">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11191,7 +11202,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55:AA55">
-    <cfRule type="expression" dxfId="57" priority="145">
+    <cfRule type="expression" dxfId="60" priority="145">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11210,61 +11221,61 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56:AA56">
-    <cfRule type="expression" dxfId="56" priority="154">
+    <cfRule type="expression" dxfId="59" priority="154">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB56">
-    <cfRule type="expression" dxfId="55" priority="161">
+    <cfRule type="expression" dxfId="58" priority="161">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55:AB55">
-    <cfRule type="expression" dxfId="54" priority="149" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="149" stopIfTrue="1">
       <formula>AND($C55="Risque faible",I$5&gt;=$F55,I$5&lt;=$F55+$G55-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="150" stopIfTrue="1">
       <formula>AND($C55="Risque élevé",I$5&gt;=$F55,I$5&lt;=$F55+$G55-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="151" stopIfTrue="1">
       <formula>AND($C55="En bonne voie",I$5&gt;=$F55,I$5&lt;=$F55+$G55-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="152" stopIfTrue="1">
       <formula>AND($C55="Risque moyen",I$5&gt;=$F55,I$5&lt;=$F55+$G55-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="153" stopIfTrue="1">
       <formula>AND(LEN($C55)=0,I$5&gt;=$F55,I$5&lt;=$F55+$G55-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB55">
-    <cfRule type="expression" dxfId="49" priority="147">
+    <cfRule type="expression" dxfId="52" priority="147">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB58">
-    <cfRule type="expression" dxfId="48" priority="93">
+    <cfRule type="expression" dxfId="51" priority="93">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:AB58">
-    <cfRule type="expression" dxfId="47" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="95" stopIfTrue="1">
       <formula>AND($C58="Risque faible",I$5&gt;=$F58,I$5&lt;=$F58+$G58-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="96" stopIfTrue="1">
       <formula>AND($C58="Risque élevé",I$5&gt;=$F58,I$5&lt;=$F58+$G58-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="97" stopIfTrue="1">
       <formula>AND($C58="En bonne voie",I$5&gt;=$F58,I$5&lt;=$F58+$G58-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="98" stopIfTrue="1">
       <formula>AND($C58="Risque moyen",I$5&gt;=$F58,I$5&lt;=$F58+$G58-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="99" stopIfTrue="1">
       <formula>AND(LEN($C58)=0,I$5&gt;=$F58,I$5&lt;=$F58+$G58-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:AA58">
-    <cfRule type="expression" dxfId="42" priority="92">
+    <cfRule type="expression" dxfId="45" priority="92">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11297,22 +11308,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59:AA60">
-    <cfRule type="expression" dxfId="41" priority="46">
+    <cfRule type="expression" dxfId="44" priority="46">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB59:AB60">
-    <cfRule type="expression" dxfId="40" priority="48">
+    <cfRule type="expression" dxfId="43" priority="48">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I62:AA62">
-    <cfRule type="expression" dxfId="39" priority="29">
+    <cfRule type="expression" dxfId="42" priority="29">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB61">
-    <cfRule type="expression" dxfId="38" priority="39">
+    <cfRule type="expression" dxfId="41" priority="39">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11345,80 +11356,80 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61:AA61">
-    <cfRule type="expression" dxfId="37" priority="37">
+    <cfRule type="expression" dxfId="40" priority="37">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59:AB60">
-    <cfRule type="expression" dxfId="36" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="50" stopIfTrue="1">
       <formula>AND($C59="Risque faible",I$5&gt;=$F59,I$5&lt;=$F59+$G59-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="51" stopIfTrue="1">
       <formula>AND($C59="Risque élevé",I$5&gt;=$F59,I$5&lt;=$F59+$G59-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="52" stopIfTrue="1">
       <formula>AND($C59="En bonne voie",I$5&gt;=$F59,I$5&lt;=$F59+$G59-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="53" stopIfTrue="1">
       <formula>AND($C59="Risque moyen",I$5&gt;=$F59,I$5&lt;=$F59+$G59-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="54" stopIfTrue="1">
       <formula>AND(LEN($C59)=0,I$5&gt;=$F59,I$5&lt;=$F59+$G59-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61:AB61">
-    <cfRule type="expression" dxfId="31" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="41" stopIfTrue="1">
       <formula>AND($C61="Risque faible",I$5&gt;=$F61,I$5&lt;=$F61+$G61-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="42" stopIfTrue="1">
       <formula>AND($C61="Risque élevé",I$5&gt;=$F61,I$5&lt;=$F61+$G61-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="43" stopIfTrue="1">
       <formula>AND($C61="En bonne voie",I$5&gt;=$F61,I$5&lt;=$F61+$G61-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="44" stopIfTrue="1">
       <formula>AND($C61="Risque moyen",I$5&gt;=$F61,I$5&lt;=$F61+$G61-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="45" stopIfTrue="1">
       <formula>AND(LEN($C61)=0,I$5&gt;=$F61,I$5&lt;=$F61+$G61-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB62">
-    <cfRule type="expression" dxfId="26" priority="30">
+    <cfRule type="expression" dxfId="29" priority="30">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I62:AB62">
-    <cfRule type="expression" dxfId="25" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="32" stopIfTrue="1">
       <formula>AND($C62="Risque faible",I$5&gt;=$F62,I$5&lt;=$F62+$G62-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="33" stopIfTrue="1">
       <formula>AND($C62="Risque élevé",I$5&gt;=$F62,I$5&lt;=$F62+$G62-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="34" stopIfTrue="1">
       <formula>AND($C62="En bonne voie",I$5&gt;=$F62,I$5&lt;=$F62+$G62-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="35" stopIfTrue="1">
       <formula>AND($C62="Risque moyen",I$5&gt;=$F62,I$5&lt;=$F62+$G62-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="36" stopIfTrue="1">
       <formula>AND(LEN($C62)=0,I$5&gt;=$F62,I$5&lt;=$F62+$G62-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63:AB63">
-    <cfRule type="expression" dxfId="20" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="23" stopIfTrue="1">
       <formula>AND($C63="Risque faible",I$5&gt;=$F63,I$5&lt;=$F63+$G63-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="24" stopIfTrue="1">
       <formula>AND($C63="Risque élevé",I$5&gt;=$F63,I$5&lt;=$F63+$G63-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="25" stopIfTrue="1">
       <formula>AND($C63="En bonne voie",I$5&gt;=$F63,I$5&lt;=$F63+$G63-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="26" stopIfTrue="1">
       <formula>AND($C63="Risque moyen",I$5&gt;=$F63,I$5&lt;=$F63+$G63-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="27" stopIfTrue="1">
       <formula>AND(LEN($C63)=0,I$5&gt;=$F63,I$5&lt;=$F63+$G63-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11437,29 +11448,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63:AA63">
-    <cfRule type="expression" dxfId="15" priority="19">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB63">
-    <cfRule type="expression" dxfId="14" priority="21">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64:AB64">
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="14" stopIfTrue="1">
       <formula>AND($C64="Risque faible",I$5&gt;=$F64,I$5&lt;=$F64+$G64-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
       <formula>AND($C64="Risque élevé",I$5&gt;=$F64,I$5&lt;=$F64+$G64-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
       <formula>AND($C64="En bonne voie",I$5&gt;=$F64,I$5&lt;=$F64+$G64-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="17" stopIfTrue="1">
       <formula>AND($C64="Risque moyen",I$5&gt;=$F64,I$5&lt;=$F64+$G64-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="18" stopIfTrue="1">
       <formula>AND(LEN($C64)=0,I$5&gt;=$F64,I$5&lt;=$F64+$G64-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11478,17 +11489,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64:AA64">
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB64">
-    <cfRule type="expression" dxfId="7" priority="12">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65:AA65">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11507,24 +11518,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB65">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65:AB65">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
       <formula>AND($C65="Risque faible",I$5&gt;=$F65,I$5&lt;=$F65+$G65-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
       <formula>AND($C65="Risque élevé",I$5&gt;=$F65,I$5&lt;=$F65+$G65-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
       <formula>AND($C65="En bonne voie",I$5&gt;=$F65,I$5&lt;=$F65+$G65-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
       <formula>AND($C65="Risque moyen",I$5&gt;=$F65,I$5&lt;=$F65+$G65-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="9" stopIfTrue="1">
       <formula>AND(LEN($C65)=0,I$5&gt;=$F65,I$5&lt;=$F65+$G65-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11774,6 +11785,381 @@
           <xm:sqref>E51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B7458B1E-89A7-4035-AAD0-B4EF57EC5395}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C5648DCB-335E-4B0D-A272-6F74C3F9FC93}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{55FDD253-E1AD-46E7-B4B2-049EF2039EEC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{088C9F7E-CA69-4E46-AE57-65AB9C1B43F2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2A646182-6DCD-41D3-B1FC-FD0BD97E7EB4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{07BB0CFE-FBB6-4943-8C1E-48527304A5A5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E27:E28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{897BEF3A-AB81-43B7-A43E-B08908C1AA19}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E24:E25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7FBA420F-936F-4508-A0AD-94C2EC401FB3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B64FBEBF-B38B-4E23-AAA1-91D0ED618B42}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E40:E41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7ECBC1F5-86CA-42A4-874C-8C94FE680DD8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4B6A1F15-41AD-46DB-A0E2-CC6291CEB3B9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E36:E37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E50629AE-4ED2-45DA-B67C-3CEE49679E5F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E45:E47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{60857565-07DD-43B4-A08A-A9316D4E4223}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F397BBBD-F9C4-49C1-9309-39EACB50A4EC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{12C5A9C6-10DB-49E8-9E4B-D2B7F47D4CF9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E48:E49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C06F97DA-CE73-4EC6-A05B-B1FB73BB5B34}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E52:E53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6D0B9FB5-F9CE-42AC-9D63-CA5848E39A6E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5956CA58-EF61-4E17-99E7-3B18CA15DB7F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C0E29D5B-20CB-4D30-948E-E90BE31F636D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7BA5B507-194D-462E-8E0D-BA9490DDCB82}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E59:E60</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EE2A084F-CD4E-443B-9F05-519A4985B074}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{55E82E44-C53D-446A-B47E-A546B864BBFA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E61</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FDCCC79C-CD8C-4140-A8D0-A0ED96E46894}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D0DD4C81-866F-4BBC-9627-C8F89D3E1C16}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E64</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C019EDF8-0993-4E6F-BBC6-62A4A373AC33}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E65</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="714" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -12002,21 +12388,6 @@
           <xm:sqref>I51:AB51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B7458B1E-89A7-4035-AAD0-B4EF57EC5395}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="479" id="{28E3D5FF-7874-452A-A900-6AEA95466C37}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -12036,21 +12407,6 @@
           <xm:sqref>I30:AB30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C5648DCB-335E-4B0D-A272-6F74C3F9FC93}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="470" id="{EC388F78-FEFF-4C31-A322-84A70D95C998}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -12070,21 +12426,6 @@
           <xm:sqref>I32:AB32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{55FDD253-E1AD-46E7-B4B2-049EF2039EEC}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E19</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="461" id="{771D04B8-E599-4047-9D2C-0D8164B3B415}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -12104,21 +12445,6 @@
           <xm:sqref>I19:AB19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{088C9F7E-CA69-4E46-AE57-65AB9C1B43F2}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="389" id="{86F81114-0858-46FD-89A5-B77B20D08E09}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -12138,36 +12464,6 @@
           <xm:sqref>I34:AB34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2A646182-6DCD-41D3-B1FC-FD0BD97E7EB4}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E22</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{07BB0CFE-FBB6-4943-8C1E-48527304A5A5}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E27:E28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="361" id="{B37227A7-F3EB-494D-BE63-027ED68866C7}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -12185,21 +12481,6 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>I27:AB28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{897BEF3A-AB81-43B7-A43E-B08908C1AA19}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E24:E25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="352" id="{11F29DBB-9C3A-40BB-A8C9-DD464C4407DD}">
@@ -12240,21 +12521,6 @@
           <xm:sqref>I22:AB22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7FBA420F-936F-4508-A0AD-94C2EC401FB3}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="334" id="{3EB16589-8FA1-40F5-9A1D-03F367216E76}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -12274,36 +12540,6 @@
           <xm:sqref>I20:AB20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B64FBEBF-B38B-4E23-AAA1-91D0ED618B42}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E40:E41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7ECBC1F5-86CA-42A4-874C-8C94FE680DD8}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="298" id="{9703D153-F9D2-4539-959D-39C677DE5E46}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -12321,21 +12557,6 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>I43:AB43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4B6A1F15-41AD-46DB-A0E2-CC6291CEB3B9}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E36:E37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="289" id="{3C8C73C2-5882-4D50-A619-E8929324CEEC}">
@@ -12376,21 +12597,6 @@
           <xm:sqref>I40:AB41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E50629AE-4ED2-45DA-B67C-3CEE49679E5F}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E45:E47</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="262" id="{472C0571-07BE-40E4-9871-D2A65C7AE928}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -12410,21 +12616,6 @@
           <xm:sqref>I45:AB47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{60857565-07DD-43B4-A08A-A9316D4E4223}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="239" id="{3BE21401-6C53-4176-97B2-58F16FBEE64E}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -12444,21 +12635,6 @@
           <xm:sqref>I35:AB35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F397BBBD-F9C4-49C1-9309-39EACB50A4EC}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E38</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="235" id="{5854C059-CE8A-46A8-9DE3-850FF95EEC5D}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -12478,21 +12654,6 @@
           <xm:sqref>I38:AB38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{12C5A9C6-10DB-49E8-9E4B-D2B7F47D4CF9}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E48:E49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="217" id="{35F291B0-AC08-4DEC-AC71-E2527C6395F3}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -12510,21 +12671,6 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>I48:AB49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C06F97DA-CE73-4EC6-A05B-B1FB73BB5B34}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E52:E53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="208" id="{63E239F2-C90C-4923-A631-FDFBBBCB6804}">
@@ -12584,36 +12730,6 @@
           <xm:sqref>I57:AB57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6D0B9FB5-F9CE-42AC-9D63-CA5848E39A6E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E55</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5956CA58-EF61-4E17-99E7-3B18CA15DB7F}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E56</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="162" id="{1BF54B70-B0A3-451B-82EE-99FB2164159D}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -12652,21 +12768,6 @@
           <xm:sqref>I55:AB55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C0E29D5B-20CB-4D30-948E-E90BE31F636D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E58</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="94" id="{19020CA2-A634-4E23-B0F2-6254842B5EB1}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -12684,51 +12785,6 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>I58:AB58</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7BA5B507-194D-462E-8E0D-BA9490DDCB82}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E59:E60</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EE2A084F-CD4E-443B-9F05-519A4985B074}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E62</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{55E82E44-C53D-446A-B47E-A546B864BBFA}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="49" id="{6235C1BF-8B2E-4174-B0E6-53AF00330DAD}">
@@ -12788,21 +12844,6 @@
           <xm:sqref>I62:AB62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FDCCC79C-CD8C-4140-A8D0-A0ED96E46894}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E63</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="22" id="{17BED863-7B80-4A47-B388-C01464071AEA}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -12822,21 +12863,6 @@
           <xm:sqref>I63:AB63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D0DD4C81-866F-4BBC-9627-C8F89D3E1C16}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E64</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="13" id="{8987036F-3AE1-4CD0-A7FA-9E6DCDF640DB}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -12854,21 +12880,6 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>I64:AB64</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C019EDF8-0993-4E6F-BBC6-62A4A373AC33}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="4" id="{E5E94B63-5356-481B-8A1F-AA218FFD91A9}">
@@ -12901,13 +12912,13 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.140625" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="87.1640625" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
@@ -12922,7 +12933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>27</v>
       </c>

--- a/Diagramme_de_Gantt.xlsx
+++ b/Diagramme_de_Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160018D5-DE59-8746-AFCD-303ABBAB6B33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE017EEC-5021-3540-A4A3-9883D7ADA76A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -6157,8 +6157,8 @@
   </sheetPr>
   <dimension ref="A1:AB68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7170,7 +7170,7 @@
         <v>50</v>
       </c>
       <c r="E15" s="30">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="F15" s="51">
         <v>43882</v>
@@ -7266,9 +7266,11 @@
         <v>36</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="33"/>
+        <v>16</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>50</v>
+      </c>
       <c r="E16" s="30">
         <v>0</v>
       </c>
@@ -9981,8 +9983,12 @@
       <c r="B63" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
+      <c r="C63" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="33" t="s">
+        <v>46</v>
+      </c>
       <c r="E63" s="30">
         <v>0</v>
       </c>

--- a/Diagramme_de_Gantt.xlsx
+++ b/Diagramme_de_Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE017EEC-5021-3540-A4A3-9883D7ADA76A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B26D91-869D-9D4D-943F-32A3125FC1BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6157,7 +6157,7 @@
   </sheetPr>
   <dimension ref="A1:AB68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
@@ -7272,7 +7272,7 @@
         <v>50</v>
       </c>
       <c r="E16" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="51">
         <v>43882</v>
@@ -9764,7 +9764,7 @@
         <v>45</v>
       </c>
       <c r="C57" s="33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D57" s="33" t="s">
         <v>50</v>
@@ -9984,13 +9984,13 @@
         <v>87</v>
       </c>
       <c r="C63" s="33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D63" s="33" t="s">
         <v>46</v>
       </c>
       <c r="E63" s="30">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F63" s="51">
         <v>43885</v>

--- a/Diagramme_de_Gantt.xlsx
+++ b/Diagramme_de_Gantt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B26D91-869D-9D4D-943F-32A3125FC1BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91645568-42BF-8F42-A0AE-BDA85DCFCFF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28820" yWindow="460" windowWidth="28500" windowHeight="21140" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t>Ajouter sons selon situations</t>
+  </si>
+  <si>
+    <t>caroline</t>
   </si>
 </sst>
 </file>
@@ -6157,8 +6160,8 @@
   </sheetPr>
   <dimension ref="A1:AB68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7551,10 +7554,14 @@
       <c r="B19" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+      <c r="C19" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>50</v>
+      </c>
       <c r="E19" s="30">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F19" s="31">
         <v>43886</v>
@@ -7589,7 +7596,9 @@
       <c r="B20" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="33"/>
+      <c r="C20" s="33" t="s">
+        <v>15</v>
+      </c>
       <c r="D20" s="33"/>
       <c r="E20" s="30">
         <v>0</v>
@@ -7719,7 +7728,9 @@
       <c r="B22" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="33"/>
+      <c r="C22" s="33" t="s">
+        <v>15</v>
+      </c>
       <c r="D22" s="33"/>
       <c r="E22" s="30">
         <v>0</v>
@@ -7849,7 +7860,9 @@
       <c r="B24" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="33"/>
+      <c r="C24" s="33" t="s">
+        <v>15</v>
+      </c>
       <c r="D24" s="33"/>
       <c r="E24" s="30">
         <v>0</v>
@@ -7887,7 +7900,9 @@
       <c r="B25" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="33"/>
+      <c r="C25" s="33" t="s">
+        <v>15</v>
+      </c>
       <c r="D25" s="33"/>
       <c r="E25" s="30">
         <v>0</v>
@@ -8017,7 +8032,9 @@
       <c r="B27" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="33"/>
+      <c r="C27" s="33" t="s">
+        <v>15</v>
+      </c>
       <c r="D27" s="33"/>
       <c r="E27" s="30">
         <v>0</v>
@@ -8055,7 +8072,9 @@
       <c r="B28" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="33"/>
+      <c r="C28" s="33" t="s">
+        <v>15</v>
+      </c>
       <c r="D28" s="33"/>
       <c r="E28" s="30">
         <v>0</v>
@@ -8093,7 +8112,9 @@
       <c r="B29" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="33"/>
+      <c r="C29" s="33" t="s">
+        <v>15</v>
+      </c>
       <c r="D29" s="33"/>
       <c r="E29" s="30">
         <v>0</v>
@@ -9875,10 +9896,14 @@
       <c r="B60" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
+      <c r="C60" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="33" t="s">
+        <v>89</v>
+      </c>
       <c r="E60" s="30">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F60" s="31">
         <v>43886</v>

--- a/Diagramme_de_Gantt.xlsx
+++ b/Diagramme_de_Gantt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91645568-42BF-8F42-A0AE-BDA85DCFCFF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECF8607-7370-E64F-8271-EF1883869D4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28820" yWindow="460" windowWidth="28500" windowHeight="21140" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -326,7 +326,7 @@
     <t>Ajouter sons selon situations</t>
   </si>
   <si>
-    <t>caroline</t>
+    <t>Caroline et Émil</t>
   </si>
 </sst>
 </file>
@@ -6160,8 +6160,8 @@
   </sheetPr>
   <dimension ref="A1:AB68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7555,13 +7555,13 @@
         <v>54</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="E19" s="30">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F19" s="31">
         <v>43886</v>
@@ -7597,11 +7597,13 @@
         <v>55</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="33"/>
+        <v>16</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>46</v>
+      </c>
       <c r="E20" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="31">
         <v>43886</v>
@@ -7729,11 +7731,13 @@
         <v>56</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="33"/>
+        <v>16</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>46</v>
+      </c>
       <c r="E22" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="31">
         <v>43886</v>
@@ -7861,11 +7865,13 @@
         <v>57</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="33"/>
+        <v>16</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>46</v>
+      </c>
       <c r="E24" s="30">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F24" s="31">
         <v>43888</v>
@@ -8033,11 +8039,13 @@
         <v>60</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="33"/>
+        <v>16</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>46</v>
+      </c>
       <c r="E27" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="31">
         <v>43887</v>
@@ -8073,11 +8081,13 @@
         <v>61</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="33"/>
+        <v>16</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>46</v>
+      </c>
       <c r="E28" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="31">
         <v>43887</v>
@@ -8113,11 +8123,13 @@
         <v>41</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="33"/>
+        <v>16</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>46</v>
+      </c>
       <c r="E29" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="31">
         <v>43888</v>
@@ -8472,10 +8484,14 @@
       <c r="B34" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
+      <c r="C34" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>89</v>
+      </c>
       <c r="E34" s="30">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F34" s="31">
         <v>43892</v>
@@ -9480,10 +9496,14 @@
       <c r="B52" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
+      <c r="C52" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>46</v>
+      </c>
       <c r="E52" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="31">
         <v>43896</v>
@@ -9578,10 +9598,14 @@
       <c r="B53" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
+      <c r="C53" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>46</v>
+      </c>
       <c r="E53" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="31">
         <v>43894</v>
@@ -9746,7 +9770,9 @@
       <c r="B56" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="33"/>
+      <c r="C56" s="33" t="s">
+        <v>14</v>
+      </c>
       <c r="D56" s="33"/>
       <c r="E56" s="30">
         <v>0</v>
@@ -9785,13 +9811,13 @@
         <v>45</v>
       </c>
       <c r="C57" s="33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D57" s="33" t="s">
         <v>50</v>
       </c>
       <c r="E57" s="30">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F57" s="51">
         <v>43882</v>
@@ -9858,10 +9884,14 @@
       <c r="B59" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
+      <c r="C59" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>46</v>
+      </c>
       <c r="E59" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="31">
         <v>43897</v>
@@ -9897,13 +9927,13 @@
         <v>84</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D60" s="33" t="s">
         <v>89</v>
       </c>
       <c r="E60" s="30">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F60" s="31">
         <v>43886</v>
@@ -10009,13 +10039,13 @@
         <v>87</v>
       </c>
       <c r="C63" s="33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D63" s="33" t="s">
         <v>46</v>
       </c>
       <c r="E63" s="30">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F63" s="51">
         <v>43885</v>
@@ -10050,10 +10080,14 @@
       <c r="B64" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
+      <c r="C64" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="33" t="s">
+        <v>46</v>
+      </c>
       <c r="E64" s="30">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="F64" s="31">
         <v>43894</v>

--- a/Diagramme_de_Gantt.xlsx
+++ b/Diagramme_de_Gantt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECF8607-7370-E64F-8271-EF1883869D4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DF66BF-256F-C84C-B2E6-71A0FA137C45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="90">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -1356,125 +1356,7 @@
     <cellStyle name="Vérification" xfId="21" builtinId="23" customBuiltin="1"/>
     <cellStyle name="zTexteMasqué" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
-  <dxfs count="227">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="241">
     <dxf>
       <font>
         <b/>
@@ -1493,6 +1375,115 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1527,6 +1518,115 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1687,224 +1787,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1922,224 +1804,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2157,6 +1821,115 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2191,6 +1964,224 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2208,6 +2199,224 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2242,115 +2451,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2385,115 +2485,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2528,6 +2519,115 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2705,115 +2805,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2991,6 +2982,115 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3008,115 +3108,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3277,115 +3268,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3529,6 +3411,115 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3546,115 +3537,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3672,6 +3554,115 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3689,6 +3680,115 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3706,115 +3806,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3832,6 +3823,115 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3849,115 +3949,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3975,115 +3966,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4101,6 +3983,115 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4118,115 +4109,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4244,6 +4126,115 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4261,6 +4252,115 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4278,115 +4378,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4530,115 +4521,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4673,6 +4555,115 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4690,6 +4681,115 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4707,6 +4807,115 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -5013,115 +5222,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -5156,115 +5256,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -5551,53 +5542,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -5615,6 +5559,348 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -5759,20 +6045,20 @@
   </dxfs>
   <tableStyles count="2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Style de tableau Gantt" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="226"/>
-      <tableStyleElement type="headerRow" dxfId="225"/>
-      <tableStyleElement type="firstRowStripe" dxfId="224"/>
+      <tableStyleElement type="wholeTable" dxfId="240"/>
+      <tableStyleElement type="headerRow" dxfId="239"/>
+      <tableStyleElement type="firstRowStripe" dxfId="238"/>
     </tableStyle>
     <tableStyle name="ListeTâches" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="223"/>
-      <tableStyleElement type="headerRow" dxfId="222"/>
-      <tableStyleElement type="totalRow" dxfId="221"/>
-      <tableStyleElement type="firstColumn" dxfId="220"/>
-      <tableStyleElement type="lastColumn" dxfId="219"/>
-      <tableStyleElement type="firstRowStripe" dxfId="218"/>
-      <tableStyleElement type="secondRowStripe" dxfId="217"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="216"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="215"/>
+      <tableStyleElement type="wholeTable" dxfId="237"/>
+      <tableStyleElement type="headerRow" dxfId="236"/>
+      <tableStyleElement type="totalRow" dxfId="235"/>
+      <tableStyleElement type="firstColumn" dxfId="234"/>
+      <tableStyleElement type="lastColumn" dxfId="233"/>
+      <tableStyleElement type="firstRowStripe" dxfId="232"/>
+      <tableStyleElement type="secondRowStripe" dxfId="231"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="230"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="229"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -5876,9 +6162,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Catégorie" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon" dataDxfId="228"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Catégorie" dataDxfId="227"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à" dataDxfId="226"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Début" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nombre de jours"/>
@@ -6160,8 +6446,8 @@
   </sheetPr>
   <dimension ref="A1:AB68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B15" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8256,7 +8542,9 @@
       <c r="B31" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="33"/>
+      <c r="C31" s="33" t="s">
+        <v>15</v>
+      </c>
       <c r="D31" s="33"/>
       <c r="E31" s="30">
         <v>0</v>
@@ -8354,7 +8642,9 @@
       <c r="B32" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="58"/>
+      <c r="C32" s="58" t="s">
+        <v>15</v>
+      </c>
       <c r="D32" s="58"/>
       <c r="E32" s="59">
         <v>0</v>
@@ -8618,7 +8908,9 @@
       <c r="B36" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="33"/>
+      <c r="C36" s="33" t="s">
+        <v>15</v>
+      </c>
       <c r="D36" s="33"/>
       <c r="E36" s="30">
         <v>0</v>
@@ -8656,7 +8948,9 @@
       <c r="B37" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="33"/>
+      <c r="C37" s="33" t="s">
+        <v>15</v>
+      </c>
       <c r="D37" s="33"/>
       <c r="E37" s="30">
         <v>0</v>
@@ -8694,7 +8988,9 @@
       <c r="B38" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="33"/>
+      <c r="C38" s="33" t="s">
+        <v>15</v>
+      </c>
       <c r="D38" s="33"/>
       <c r="E38" s="30">
         <v>0</v>
@@ -8992,7 +9288,9 @@
       <c r="B43" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="33"/>
+      <c r="C43" s="33" t="s">
+        <v>15</v>
+      </c>
       <c r="D43" s="33"/>
       <c r="E43" s="30">
         <v>0</v>
@@ -9037,83 +9335,83 @@
       <c r="G44" s="32"/>
       <c r="H44" s="26"/>
       <c r="I44" s="37" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C44="Objectif",I$5&gt;=$F44,I$5&lt;=$F44+$G44-1),2,IF(AND($C44="Jalon",I$5&gt;=$F44,I$5&lt;=$F44+$G44-1),1,""))</f>
         <v/>
       </c>
       <c r="J44" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C44="Objectif",J$5&gt;=$F44,J$5&lt;=$F44+$G44-1),2,IF(AND($C44="Jalon",J$5&gt;=$F44,J$5&lt;=$F44+$G44-1),1,""))</f>
         <v/>
       </c>
       <c r="K44" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C44="Objectif",K$5&gt;=$F44,K$5&lt;=$F44+$G44-1),2,IF(AND($C44="Jalon",K$5&gt;=$F44,K$5&lt;=$F44+$G44-1),1,""))</f>
         <v/>
       </c>
       <c r="L44" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C44="Objectif",L$5&gt;=$F44,L$5&lt;=$F44+$G44-1),2,IF(AND($C44="Jalon",L$5&gt;=$F44,L$5&lt;=$F44+$G44-1),1,""))</f>
         <v/>
       </c>
       <c r="M44" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C44="Objectif",M$5&gt;=$F44,M$5&lt;=$F44+$G44-1),2,IF(AND($C44="Jalon",M$5&gt;=$F44,M$5&lt;=$F44+$G44-1),1,""))</f>
         <v/>
       </c>
       <c r="N44" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C44="Objectif",N$5&gt;=$F44,N$5&lt;=$F44+$G44-1),2,IF(AND($C44="Jalon",N$5&gt;=$F44,N$5&lt;=$F44+$G44-1),1,""))</f>
         <v/>
       </c>
       <c r="O44" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C44="Objectif",O$5&gt;=$F44,O$5&lt;=$F44+$G44-1),2,IF(AND($C44="Jalon",O$5&gt;=$F44,O$5&lt;=$F44+$G44-1),1,""))</f>
         <v/>
       </c>
       <c r="P44" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C44="Objectif",P$5&gt;=$F44,P$5&lt;=$F44+$G44-1),2,IF(AND($C44="Jalon",P$5&gt;=$F44,P$5&lt;=$F44+$G44-1),1,""))</f>
         <v/>
       </c>
       <c r="Q44" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C44="Objectif",Q$5&gt;=$F44,Q$5&lt;=$F44+$G44-1),2,IF(AND($C44="Jalon",Q$5&gt;=$F44,Q$5&lt;=$F44+$G44-1),1,""))</f>
         <v/>
       </c>
       <c r="R44" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C44="Objectif",R$5&gt;=$F44,R$5&lt;=$F44+$G44-1),2,IF(AND($C44="Jalon",R$5&gt;=$F44,R$5&lt;=$F44+$G44-1),1,""))</f>
         <v/>
       </c>
       <c r="S44" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C44="Objectif",S$5&gt;=$F44,S$5&lt;=$F44+$G44-1),2,IF(AND($C44="Jalon",S$5&gt;=$F44,S$5&lt;=$F44+$G44-1),1,""))</f>
         <v/>
       </c>
       <c r="T44" s="37" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C44="Objectif",T$5&gt;=$F44,T$5&lt;=$F44+$G44-1),2,IF(AND($C44="Jalon",T$5&gt;=$F44,T$5&lt;=$F44+$G44-1),1,""))</f>
         <v/>
       </c>
       <c r="U44" s="37" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C44="Objectif",U$5&gt;=$F44,U$5&lt;=$F44+$G44-1),2,IF(AND($C44="Jalon",U$5&gt;=$F44,U$5&lt;=$F44+$G44-1),1,""))</f>
         <v/>
       </c>
       <c r="V44" s="37" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C44="Objectif",V$5&gt;=$F44,V$5&lt;=$F44+$G44-1),2,IF(AND($C44="Jalon",V$5&gt;=$F44,V$5&lt;=$F44+$G44-1),1,""))</f>
         <v/>
       </c>
       <c r="W44" s="37" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C44="Objectif",W$5&gt;=$F44,W$5&lt;=$F44+$G44-1),2,IF(AND($C44="Jalon",W$5&gt;=$F44,W$5&lt;=$F44+$G44-1),1,""))</f>
         <v/>
       </c>
       <c r="X44" s="37" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C44="Objectif",X$5&gt;=$F44,X$5&lt;=$F44+$G44-1),2,IF(AND($C44="Jalon",X$5&gt;=$F44,X$5&lt;=$F44+$G44-1),1,""))</f>
         <v/>
       </c>
       <c r="Y44" s="37" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C44="Objectif",Y$5&gt;=$F44,Y$5&lt;=$F44+$G44-1),2,IF(AND($C44="Jalon",Y$5&gt;=$F44,Y$5&lt;=$F44+$G44-1),1,""))</f>
         <v/>
       </c>
       <c r="Z44" s="37" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C44="Objectif",Z$5&gt;=$F44,Z$5&lt;=$F44+$G44-1),2,IF(AND($C44="Jalon",Z$5&gt;=$F44,Z$5&lt;=$F44+$G44-1),1,""))</f>
         <v/>
       </c>
       <c r="AA44" s="37" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C44="Objectif",AA$5&gt;=$F44,AA$5&lt;=$F44+$G44-1),2,IF(AND($C44="Jalon",AA$5&gt;=$F44,AA$5&lt;=$F44+$G44-1),1,""))</f>
         <v/>
       </c>
       <c r="AB44" s="37" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C44="Objectif",AB$5&gt;=$F44,AB$5&lt;=$F44+$G44-1),2,IF(AND($C44="Jalon",AB$5&gt;=$F44,AB$5&lt;=$F44+$G44-1),1,""))</f>
         <v/>
       </c>
     </row>
@@ -10201,7 +10499,7 @@
     <mergeCell ref="U2:Y2"/>
   </mergeCells>
   <conditionalFormatting sqref="E11:E13 E16 E18 E31 E7:E9 E21 E23">
-    <cfRule type="dataBar" priority="620">
+    <cfRule type="dataBar" priority="638">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10215,49 +10513,49 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:AA13 I16:AA16 I18:AA18 I31:AA31 I21:AA21 I23:AA23 I66:AA66">
-    <cfRule type="expression" dxfId="214" priority="613">
+    <cfRule type="expression" dxfId="225" priority="631">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:AB4">
-    <cfRule type="expression" dxfId="213" priority="619">
+    <cfRule type="expression" dxfId="224" priority="637">
       <formula>I$5&lt;=EOMONTH($I$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:AB4">
-    <cfRule type="expression" dxfId="212" priority="615">
+    <cfRule type="expression" dxfId="223" priority="633">
       <formula>AND(J$5&lt;=EOMONTH($I$5,2),J$5&gt;EOMONTH($I$5,0),J$5&gt;EOMONTH($I$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:AB4">
-    <cfRule type="expression" dxfId="211" priority="614">
+    <cfRule type="expression" dxfId="222" priority="632">
       <formula>AND(I$5&lt;=EOMONTH($I$5,1),I$5&gt;EOMONTH($I$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:AB13 I16:AB16 I18:AB18 I26:AB26 I29:AB33 I39:AB39 I44:AB44 I50:AB51 I56:AB57">
-    <cfRule type="expression" dxfId="210" priority="636" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="654" stopIfTrue="1">
       <formula>AND($C8="Risque faible",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="655" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="673" stopIfTrue="1">
       <formula>AND($C8="Risque élevé",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="673" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="691" stopIfTrue="1">
       <formula>AND($C8="En bonne voie",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="674" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="692" stopIfTrue="1">
       <formula>AND($C8="Risque moyen",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="675" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="693" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5:AB13 AB16 AB18 AB31 AB21 AB23 AB66">
-    <cfRule type="expression" dxfId="205" priority="684">
+    <cfRule type="expression" dxfId="216" priority="702">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="dataBar" priority="605">
+    <cfRule type="dataBar" priority="623">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10271,7 +10569,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="dataBar" priority="596">
+    <cfRule type="dataBar" priority="614">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10285,34 +10583,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:AA14">
-    <cfRule type="expression" dxfId="204" priority="595">
+    <cfRule type="expression" dxfId="215" priority="613">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:AB14">
-    <cfRule type="expression" dxfId="203" priority="597" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="615" stopIfTrue="1">
       <formula>AND($C14="Risque faible",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="598" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="616" stopIfTrue="1">
       <formula>AND($C14="Risque élevé",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="599" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="617" stopIfTrue="1">
       <formula>AND($C14="En bonne voie",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="600" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="618" stopIfTrue="1">
       <formula>AND($C14="Risque moyen",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="601" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="619" stopIfTrue="1">
       <formula>AND(LEN($C14)=0,I$5&gt;=$F14,I$5&lt;=$F14+$G14-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB14">
-    <cfRule type="expression" dxfId="198" priority="602">
+    <cfRule type="expression" dxfId="209" priority="620">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="dataBar" priority="587">
+    <cfRule type="dataBar" priority="605">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10326,34 +10624,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:AA15">
-    <cfRule type="expression" dxfId="197" priority="586">
+    <cfRule type="expression" dxfId="208" priority="604">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:AB15">
-    <cfRule type="expression" dxfId="196" priority="588" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="606" stopIfTrue="1">
       <formula>AND($C15="Risque faible",I$5&gt;=$F15,I$5&lt;=$F15+$G15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="589" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="607" stopIfTrue="1">
       <formula>AND($C15="Risque élevé",I$5&gt;=$F15,I$5&lt;=$F15+$G15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="590" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="608" stopIfTrue="1">
       <formula>AND($C15="En bonne voie",I$5&gt;=$F15,I$5&lt;=$F15+$G15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="591" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="609" stopIfTrue="1">
       <formula>AND($C15="Risque moyen",I$5&gt;=$F15,I$5&lt;=$F15+$G15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="592" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="610" stopIfTrue="1">
       <formula>AND(LEN($C15)=0,I$5&gt;=$F15,I$5&lt;=$F15+$G15-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB15">
-    <cfRule type="expression" dxfId="191" priority="593">
+    <cfRule type="expression" dxfId="202" priority="611">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="dataBar" priority="578">
+    <cfRule type="dataBar" priority="596">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10367,34 +10665,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:AA17">
-    <cfRule type="expression" dxfId="190" priority="577">
+    <cfRule type="expression" dxfId="201" priority="595">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:AB17">
-    <cfRule type="expression" dxfId="189" priority="579" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="597" stopIfTrue="1">
       <formula>AND($C17="Risque faible",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="580" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="598" stopIfTrue="1">
       <formula>AND($C17="Risque élevé",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="581" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="599" stopIfTrue="1">
       <formula>AND($C17="En bonne voie",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="582" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="600" stopIfTrue="1">
       <formula>AND($C17="Risque moyen",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="583" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="601" stopIfTrue="1">
       <formula>AND(LEN($C17)=0,I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB17">
-    <cfRule type="expression" dxfId="184" priority="584">
+    <cfRule type="expression" dxfId="195" priority="602">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="dataBar" priority="569">
+    <cfRule type="dataBar" priority="587">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10408,17 +10706,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:AA26">
-    <cfRule type="expression" dxfId="183" priority="568">
+    <cfRule type="expression" dxfId="194" priority="586">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB26">
-    <cfRule type="expression" dxfId="182" priority="575">
+    <cfRule type="expression" dxfId="193" priority="593">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="dataBar" priority="560">
+    <cfRule type="dataBar" priority="578">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10432,17 +10730,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:AA29">
-    <cfRule type="expression" dxfId="181" priority="559">
+    <cfRule type="expression" dxfId="192" priority="577">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB29">
-    <cfRule type="expression" dxfId="180" priority="566">
+    <cfRule type="expression" dxfId="191" priority="584">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="dataBar" priority="551">
+    <cfRule type="dataBar" priority="569">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10456,47 +10754,47 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:AA33">
-    <cfRule type="expression" dxfId="179" priority="550">
+    <cfRule type="expression" dxfId="190" priority="568">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB33">
-    <cfRule type="expression" dxfId="178" priority="557">
+    <cfRule type="expression" dxfId="189" priority="575">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:AA39 I42:AA42 I44:AA44">
-    <cfRule type="expression" dxfId="177" priority="532">
+    <cfRule type="expression" dxfId="188" priority="550">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB39 AB42 AB44">
-    <cfRule type="expression" dxfId="176" priority="539">
+    <cfRule type="expression" dxfId="187" priority="557">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:AA54">
-    <cfRule type="expression" dxfId="175" priority="514">
+    <cfRule type="expression" dxfId="186" priority="532">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB54">
-    <cfRule type="expression" dxfId="174" priority="521">
+    <cfRule type="expression" dxfId="185" priority="539">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57:AA57">
-    <cfRule type="expression" dxfId="173" priority="505">
+    <cfRule type="expression" dxfId="184" priority="523">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB57">
-    <cfRule type="expression" dxfId="172" priority="512">
+    <cfRule type="expression" dxfId="183" priority="530">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="dataBar" priority="504">
+    <cfRule type="dataBar" priority="522">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10510,7 +10808,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="dataBar" priority="503">
+    <cfRule type="dataBar" priority="521">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10524,7 +10822,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="dataBar" priority="502">
+    <cfRule type="dataBar" priority="520">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10538,7 +10836,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="dataBar" priority="499">
+    <cfRule type="dataBar" priority="517">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10552,7 +10850,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="dataBar" priority="498">
+    <cfRule type="dataBar" priority="516">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10566,7 +10864,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="dataBar" priority="490">
+    <cfRule type="dataBar" priority="508">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10580,27 +10878,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50:AA50">
-    <cfRule type="expression" dxfId="171" priority="489">
+    <cfRule type="expression" dxfId="182" priority="507">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB50">
-    <cfRule type="expression" dxfId="170" priority="496">
+    <cfRule type="expression" dxfId="181" priority="514">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:AA51">
-    <cfRule type="expression" dxfId="169" priority="481">
+    <cfRule type="expression" dxfId="180" priority="499">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB51">
-    <cfRule type="expression" dxfId="168" priority="487">
+    <cfRule type="expression" dxfId="179" priority="505">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="dataBar" priority="480">
+    <cfRule type="dataBar" priority="498">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10614,7 +10912,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="dataBar" priority="472">
+    <cfRule type="dataBar" priority="490">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10628,17 +10926,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:AA30">
-    <cfRule type="expression" dxfId="167" priority="471">
+    <cfRule type="expression" dxfId="178" priority="489">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB30">
-    <cfRule type="expression" dxfId="166" priority="478">
+    <cfRule type="expression" dxfId="177" priority="496">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="dataBar" priority="463">
+    <cfRule type="dataBar" priority="481">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10652,17 +10950,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:AA32">
-    <cfRule type="expression" dxfId="165" priority="462">
+    <cfRule type="expression" dxfId="176" priority="480">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB32">
-    <cfRule type="expression" dxfId="164" priority="469">
+    <cfRule type="expression" dxfId="175" priority="487">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="dataBar" priority="454">
+    <cfRule type="dataBar" priority="472">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10676,51 +10974,51 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:AA19">
-    <cfRule type="expression" dxfId="163" priority="453">
+    <cfRule type="expression" dxfId="174" priority="471">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:AB19">
-    <cfRule type="expression" dxfId="162" priority="455" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="473" stopIfTrue="1">
       <formula>AND($C19="Risque faible",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="456" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="474" stopIfTrue="1">
       <formula>AND($C19="Risque élevé",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="457" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="475" stopIfTrue="1">
       <formula>AND($C19="En bonne voie",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="458" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="476" stopIfTrue="1">
       <formula>AND($C19="Risque moyen",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="459" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="477" stopIfTrue="1">
       <formula>AND(LEN($C19)=0,I$5&gt;=$F19,I$5&lt;=$F19+$G19-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB19">
-    <cfRule type="expression" dxfId="157" priority="460">
+    <cfRule type="expression" dxfId="168" priority="478">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:AB21 I23:AB23 I42:AB42 I54:AB54">
-    <cfRule type="expression" dxfId="156" priority="738" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="756" stopIfTrue="1">
       <formula>AND($C21="Risque faible",I$5&gt;=$F22,I$5&lt;=$F22+$G21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="739" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="757" stopIfTrue="1">
       <formula>AND($C21="Risque élevé",I$5&gt;=$F22,I$5&lt;=$F22+$G21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="740" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="758" stopIfTrue="1">
       <formula>AND($C21="En bonne voie",I$5&gt;=$F22,I$5&lt;=$F22+$G21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="741" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="759" stopIfTrue="1">
       <formula>AND($C21="Risque moyen",I$5&gt;=$F22,I$5&lt;=$F22+$G21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="742" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="760" stopIfTrue="1">
       <formula>AND(LEN($C21)=0,I$5&gt;=$F22,I$5&lt;=$F22+$G21-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="dataBar" priority="382">
+    <cfRule type="dataBar" priority="400">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10734,34 +11032,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:AA34">
-    <cfRule type="expression" dxfId="151" priority="381">
+    <cfRule type="expression" dxfId="162" priority="399">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:AB34">
-    <cfRule type="expression" dxfId="150" priority="383" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="401" stopIfTrue="1">
       <formula>AND($C34="Risque faible",I$5&gt;=$F34,I$5&lt;=$F34+$G34-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="384" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="402" stopIfTrue="1">
       <formula>AND($C34="Risque élevé",I$5&gt;=$F34,I$5&lt;=$F34+$G34-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="385" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="403" stopIfTrue="1">
       <formula>AND($C34="En bonne voie",I$5&gt;=$F34,I$5&lt;=$F34+$G34-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="386" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="404" stopIfTrue="1">
       <formula>AND($C34="Risque moyen",I$5&gt;=$F34,I$5&lt;=$F34+$G34-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="387" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="405" stopIfTrue="1">
       <formula>AND(LEN($C34)=0,I$5&gt;=$F34,I$5&lt;=$F34+$G34-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB34">
-    <cfRule type="expression" dxfId="145" priority="388">
+    <cfRule type="expression" dxfId="156" priority="406">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="dataBar" priority="336">
+    <cfRule type="dataBar" priority="354">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10775,12 +11073,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:AA22">
-    <cfRule type="expression" dxfId="144" priority="335">
+    <cfRule type="expression" dxfId="155" priority="353">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:E28">
-    <cfRule type="dataBar" priority="354">
+    <cfRule type="dataBar" priority="372">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10794,34 +11092,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:AA28">
-    <cfRule type="expression" dxfId="143" priority="353">
+    <cfRule type="expression" dxfId="154" priority="371">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:AB28">
-    <cfRule type="expression" dxfId="142" priority="355" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="373" stopIfTrue="1">
       <formula>AND($C27="Risque faible",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="356" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="374" stopIfTrue="1">
       <formula>AND($C27="Risque élevé",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="357" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="375" stopIfTrue="1">
       <formula>AND($C27="En bonne voie",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="358" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="376" stopIfTrue="1">
       <formula>AND($C27="Risque moyen",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="359" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="377" stopIfTrue="1">
       <formula>AND(LEN($C27)=0,I$5&gt;=$F27,I$5&lt;=$F27+$G27-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB27:AB28">
-    <cfRule type="expression" dxfId="137" priority="360">
+    <cfRule type="expression" dxfId="148" priority="378">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E25">
-    <cfRule type="dataBar" priority="345">
+    <cfRule type="dataBar" priority="363">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10835,56 +11133,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:AA25">
-    <cfRule type="expression" dxfId="136" priority="344">
+    <cfRule type="expression" dxfId="147" priority="362">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:AB25">
-    <cfRule type="expression" dxfId="135" priority="346" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="364" stopIfTrue="1">
       <formula>AND($C24="Risque faible",I$5&gt;=$F24,I$5&lt;=$F24+$G24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="347" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="365" stopIfTrue="1">
       <formula>AND($C24="Risque élevé",I$5&gt;=$F24,I$5&lt;=$F24+$G24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="348" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="366" stopIfTrue="1">
       <formula>AND($C24="En bonne voie",I$5&gt;=$F24,I$5&lt;=$F24+$G24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="349" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="367" stopIfTrue="1">
       <formula>AND($C24="Risque moyen",I$5&gt;=$F24,I$5&lt;=$F24+$G24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="350" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="368" stopIfTrue="1">
       <formula>AND(LEN($C24)=0,I$5&gt;=$F24,I$5&lt;=$F24+$G24-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB24:AB25">
-    <cfRule type="expression" dxfId="130" priority="351">
+    <cfRule type="expression" dxfId="141" priority="369">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:AB22">
-    <cfRule type="expression" dxfId="129" priority="337" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="355" stopIfTrue="1">
       <formula>AND($C22="Risque faible",I$5&gt;=$F22,I$5&lt;=$F22+$G22-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="338" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="356" stopIfTrue="1">
       <formula>AND($C22="Risque élevé",I$5&gt;=$F22,I$5&lt;=$F22+$G22-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="339" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="357" stopIfTrue="1">
       <formula>AND($C22="En bonne voie",I$5&gt;=$F22,I$5&lt;=$F22+$G22-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="340" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="358" stopIfTrue="1">
       <formula>AND($C22="Risque moyen",I$5&gt;=$F22,I$5&lt;=$F22+$G22-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="341" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="359" stopIfTrue="1">
       <formula>AND(LEN($C22)=0,I$5&gt;=$F22,I$5&lt;=$F22+$G22-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB22">
-    <cfRule type="expression" dxfId="124" priority="342">
+    <cfRule type="expression" dxfId="135" priority="360">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="dataBar" priority="327">
+    <cfRule type="dataBar" priority="345">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10898,34 +11196,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:AA20">
-    <cfRule type="expression" dxfId="123" priority="326">
+    <cfRule type="expression" dxfId="134" priority="344">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:AB20">
-    <cfRule type="expression" dxfId="122" priority="328" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="346" stopIfTrue="1">
       <formula>AND($C20="Risque faible",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="329" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="347" stopIfTrue="1">
       <formula>AND($C20="Risque élevé",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="330" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="348" stopIfTrue="1">
       <formula>AND($C20="En bonne voie",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="331" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="349" stopIfTrue="1">
       <formula>AND($C20="Risque moyen",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="332" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="350" stopIfTrue="1">
       <formula>AND(LEN($C20)=0,I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB20">
-    <cfRule type="expression" dxfId="117" priority="333">
+    <cfRule type="expression" dxfId="128" priority="351">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:E41">
-    <cfRule type="dataBar" priority="264">
+    <cfRule type="dataBar" priority="282">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10939,53 +11237,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:AA41">
-    <cfRule type="expression" dxfId="116" priority="263">
+    <cfRule type="expression" dxfId="127" priority="281">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="dataBar" priority="291">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7ECBC1F5-86CA-42A4-874C-8C94FE680DD8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:AA43">
-    <cfRule type="expression" dxfId="115" priority="290">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:AB43">
-    <cfRule type="expression" dxfId="114" priority="292" stopIfTrue="1">
-      <formula>AND($C43="Risque faible",I$5&gt;=$F43,I$5&lt;=$F43+$G43-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="113" priority="293" stopIfTrue="1">
-      <formula>AND($C43="Risque élevé",I$5&gt;=$F43,I$5&lt;=$F43+$G43-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="294" stopIfTrue="1">
-      <formula>AND($C43="En bonne voie",I$5&gt;=$F43,I$5&lt;=$F43+$G43-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="295" stopIfTrue="1">
-      <formula>AND($C43="Risque moyen",I$5&gt;=$F43,I$5&lt;=$F43+$G43-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="296" stopIfTrue="1">
-      <formula>AND(LEN($C43)=0,I$5&gt;=$F43,I$5&lt;=$F43+$G43-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB43">
-    <cfRule type="expression" dxfId="109" priority="297">
-      <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E36:E37">
-    <cfRule type="dataBar" priority="282">
+    <cfRule type="dataBar" priority="300">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10999,56 +11256,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:AA37">
-    <cfRule type="expression" dxfId="108" priority="281">
+    <cfRule type="expression" dxfId="119" priority="299">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:AB37">
-    <cfRule type="expression" dxfId="107" priority="283" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="301" stopIfTrue="1">
       <formula>AND($C36="Risque faible",I$5&gt;=$F36,I$5&lt;=$F36+$G36-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="284" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="302" stopIfTrue="1">
       <formula>AND($C36="Risque élevé",I$5&gt;=$F36,I$5&lt;=$F36+$G36-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="285" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="303" stopIfTrue="1">
       <formula>AND($C36="En bonne voie",I$5&gt;=$F36,I$5&lt;=$F36+$G36-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="286" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="304" stopIfTrue="1">
       <formula>AND($C36="Risque moyen",I$5&gt;=$F36,I$5&lt;=$F36+$G36-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="287" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="305" stopIfTrue="1">
       <formula>AND(LEN($C36)=0,I$5&gt;=$F36,I$5&lt;=$F36+$G36-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB36:AB37">
-    <cfRule type="expression" dxfId="102" priority="288">
+    <cfRule type="expression" dxfId="113" priority="306">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:AB41">
-    <cfRule type="expression" dxfId="101" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="283" stopIfTrue="1">
       <formula>AND($C40="Risque faible",I$5&gt;=$F40,I$5&lt;=$F40+$G40-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="266" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="284" stopIfTrue="1">
       <formula>AND($C40="Risque élevé",I$5&gt;=$F40,I$5&lt;=$F40+$G40-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="267" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="285" stopIfTrue="1">
       <formula>AND($C40="En bonne voie",I$5&gt;=$F40,I$5&lt;=$F40+$G40-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="268" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="286" stopIfTrue="1">
       <formula>AND($C40="Risque moyen",I$5&gt;=$F40,I$5&lt;=$F40+$G40-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="269" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="287" stopIfTrue="1">
       <formula>AND(LEN($C40)=0,I$5&gt;=$F40,I$5&lt;=$F40+$G40-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB40:AB41">
-    <cfRule type="expression" dxfId="96" priority="270">
+    <cfRule type="expression" dxfId="107" priority="288">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:E47">
-    <cfRule type="dataBar" priority="255">
+    <cfRule type="dataBar" priority="273">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11062,61 +11319,61 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:AA47">
-    <cfRule type="expression" dxfId="95" priority="254">
+    <cfRule type="expression" dxfId="106" priority="272">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:AB47">
-    <cfRule type="expression" dxfId="94" priority="256" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="274" stopIfTrue="1">
       <formula>AND($C45="Risque faible",I$5&gt;=$F45,I$5&lt;=$F45+$G45-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="275" stopIfTrue="1">
       <formula>AND($C45="Risque élevé",I$5&gt;=$F45,I$5&lt;=$F45+$G45-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="258" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="276" stopIfTrue="1">
       <formula>AND($C45="En bonne voie",I$5&gt;=$F45,I$5&lt;=$F45+$G45-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="259" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="277" stopIfTrue="1">
       <formula>AND($C45="Risque moyen",I$5&gt;=$F45,I$5&lt;=$F45+$G45-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="260" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="278" stopIfTrue="1">
       <formula>AND(LEN($C45)=0,I$5&gt;=$F45,I$5&lt;=$F45+$G45-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB45:AB47">
-    <cfRule type="expression" dxfId="89" priority="261">
+    <cfRule type="expression" dxfId="100" priority="279">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:AB35">
-    <cfRule type="expression" dxfId="88" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="258" stopIfTrue="1">
       <formula>AND($C35="Risque faible",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="259" stopIfTrue="1">
       <formula>AND($C35="Risque élevé",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="260" stopIfTrue="1">
       <formula>AND($C35="En bonne voie",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="261" stopIfTrue="1">
       <formula>AND($C35="Risque moyen",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="262" stopIfTrue="1">
       <formula>AND(LEN($C35)=0,I$5&gt;=$F35,I$5&lt;=$F35+$G35-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:AA35">
-    <cfRule type="expression" dxfId="83" priority="237">
+    <cfRule type="expression" dxfId="94" priority="255">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB35">
-    <cfRule type="expression" dxfId="82" priority="238">
+    <cfRule type="expression" dxfId="93" priority="256">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="dataBar" priority="236">
+    <cfRule type="dataBar" priority="254">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11130,7 +11387,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="dataBar" priority="228">
+    <cfRule type="dataBar" priority="246">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11144,34 +11401,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:AA38">
-    <cfRule type="expression" dxfId="81" priority="227">
+    <cfRule type="expression" dxfId="92" priority="245">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:AB38">
-    <cfRule type="expression" dxfId="80" priority="229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="247" stopIfTrue="1">
       <formula>AND($C38="Risque faible",I$5&gt;=$F38,I$5&lt;=$F38+$G38-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="248" stopIfTrue="1">
       <formula>AND($C38="Risque élevé",I$5&gt;=$F38,I$5&lt;=$F38+$G38-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="231" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="249" stopIfTrue="1">
       <formula>AND($C38="En bonne voie",I$5&gt;=$F38,I$5&lt;=$F38+$G38-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="232" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="250" stopIfTrue="1">
       <formula>AND($C38="Risque moyen",I$5&gt;=$F38,I$5&lt;=$F38+$G38-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="233" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="251" stopIfTrue="1">
       <formula>AND(LEN($C38)=0,I$5&gt;=$F38,I$5&lt;=$F38+$G38-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB38">
-    <cfRule type="expression" dxfId="75" priority="234">
+    <cfRule type="expression" dxfId="86" priority="252">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48:E49">
-    <cfRule type="dataBar" priority="210">
+    <cfRule type="dataBar" priority="228">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11185,34 +11442,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48:AA49">
-    <cfRule type="expression" dxfId="74" priority="209">
+    <cfRule type="expression" dxfId="85" priority="227">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48:AB49">
-    <cfRule type="expression" dxfId="73" priority="211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="229" stopIfTrue="1">
       <formula>AND($C48="Risque faible",I$5&gt;=$F48,I$5&lt;=$F48+$G48-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="230" stopIfTrue="1">
       <formula>AND($C48="Risque élevé",I$5&gt;=$F48,I$5&lt;=$F48+$G48-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="231" stopIfTrue="1">
       <formula>AND($C48="En bonne voie",I$5&gt;=$F48,I$5&lt;=$F48+$G48-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="232" stopIfTrue="1">
       <formula>AND($C48="Risque moyen",I$5&gt;=$F48,I$5&lt;=$F48+$G48-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="215" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="233" stopIfTrue="1">
       <formula>AND(LEN($C48)=0,I$5&gt;=$F48,I$5&lt;=$F48+$G48-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB48:AB49">
-    <cfRule type="expression" dxfId="68" priority="216">
+    <cfRule type="expression" dxfId="79" priority="234">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52:E53">
-    <cfRule type="dataBar" priority="201">
+    <cfRule type="dataBar" priority="219">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11226,34 +11483,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52:AA53">
-    <cfRule type="expression" dxfId="67" priority="200">
+    <cfRule type="expression" dxfId="78" priority="218">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52:AB53">
-    <cfRule type="expression" dxfId="66" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="220" stopIfTrue="1">
       <formula>AND($C52="Risque faible",I$5&gt;=$F52,I$5&lt;=$F52+$G52-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="203" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="221" stopIfTrue="1">
       <formula>AND($C52="Risque élevé",I$5&gt;=$F52,I$5&lt;=$F52+$G52-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="222" stopIfTrue="1">
       <formula>AND($C52="En bonne voie",I$5&gt;=$F52,I$5&lt;=$F52+$G52-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="223" stopIfTrue="1">
       <formula>AND($C52="Risque moyen",I$5&gt;=$F52,I$5&lt;=$F52+$G52-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="224" stopIfTrue="1">
       <formula>AND(LEN($C52)=0,I$5&gt;=$F52,I$5&lt;=$F52+$G52-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB52:AB53">
-    <cfRule type="expression" dxfId="61" priority="207">
+    <cfRule type="expression" dxfId="72" priority="225">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="dataBar" priority="146">
+    <cfRule type="dataBar" priority="164">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11267,12 +11524,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55:AA55">
-    <cfRule type="expression" dxfId="60" priority="145">
+    <cfRule type="expression" dxfId="71" priority="163">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="dataBar" priority="155">
+    <cfRule type="dataBar" priority="173">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11286,66 +11543,66 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56:AA56">
-    <cfRule type="expression" dxfId="59" priority="154">
+    <cfRule type="expression" dxfId="70" priority="172">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB56">
-    <cfRule type="expression" dxfId="58" priority="161">
+    <cfRule type="expression" dxfId="69" priority="179">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55:AB55">
-    <cfRule type="expression" dxfId="57" priority="149" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="167" stopIfTrue="1">
       <formula>AND($C55="Risque faible",I$5&gt;=$F55,I$5&lt;=$F55+$G55-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="168" stopIfTrue="1">
       <formula>AND($C55="Risque élevé",I$5&gt;=$F55,I$5&lt;=$F55+$G55-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="169" stopIfTrue="1">
       <formula>AND($C55="En bonne voie",I$5&gt;=$F55,I$5&lt;=$F55+$G55-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="170" stopIfTrue="1">
       <formula>AND($C55="Risque moyen",I$5&gt;=$F55,I$5&lt;=$F55+$G55-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="171" stopIfTrue="1">
       <formula>AND(LEN($C55)=0,I$5&gt;=$F55,I$5&lt;=$F55+$G55-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB55">
-    <cfRule type="expression" dxfId="52" priority="147">
+    <cfRule type="expression" dxfId="63" priority="165">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB58">
-    <cfRule type="expression" dxfId="51" priority="93">
+    <cfRule type="expression" dxfId="62" priority="111">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:AB58">
-    <cfRule type="expression" dxfId="50" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="113" stopIfTrue="1">
       <formula>AND($C58="Risque faible",I$5&gt;=$F58,I$5&lt;=$F58+$G58-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="114" stopIfTrue="1">
       <formula>AND($C58="Risque élevé",I$5&gt;=$F58,I$5&lt;=$F58+$G58-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="115" stopIfTrue="1">
       <formula>AND($C58="En bonne voie",I$5&gt;=$F58,I$5&lt;=$F58+$G58-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="116" stopIfTrue="1">
       <formula>AND($C58="Risque moyen",I$5&gt;=$F58,I$5&lt;=$F58+$G58-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="117" stopIfTrue="1">
       <formula>AND(LEN($C58)=0,I$5&gt;=$F58,I$5&lt;=$F58+$G58-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:AA58">
-    <cfRule type="expression" dxfId="45" priority="92">
+    <cfRule type="expression" dxfId="56" priority="110">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="dataBar" priority="91">
+    <cfRule type="dataBar" priority="109">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11359,7 +11616,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59:E60">
-    <cfRule type="dataBar" priority="47">
+    <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11373,27 +11630,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59:AA60">
-    <cfRule type="expression" dxfId="44" priority="46">
+    <cfRule type="expression" dxfId="55" priority="64">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB59:AB60">
-    <cfRule type="expression" dxfId="43" priority="48">
+    <cfRule type="expression" dxfId="54" priority="66">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I62:AA62">
-    <cfRule type="expression" dxfId="42" priority="29">
+    <cfRule type="expression" dxfId="53" priority="47">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB61">
-    <cfRule type="expression" dxfId="41" priority="39">
+    <cfRule type="expression" dxfId="52" priority="57">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="dataBar" priority="28">
+    <cfRule type="dataBar" priority="46">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11407,7 +11664,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="dataBar" priority="38">
+    <cfRule type="dataBar" priority="56">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11421,85 +11678,85 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61:AA61">
-    <cfRule type="expression" dxfId="40" priority="37">
+    <cfRule type="expression" dxfId="51" priority="55">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59:AB60">
+    <cfRule type="expression" dxfId="50" priority="68" stopIfTrue="1">
+      <formula>AND($C59="Risque faible",I$5&gt;=$F59,I$5&lt;=$F59+$G59-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="69" stopIfTrue="1">
+      <formula>AND($C59="Risque élevé",I$5&gt;=$F59,I$5&lt;=$F59+$G59-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="70" stopIfTrue="1">
+      <formula>AND($C59="En bonne voie",I$5&gt;=$F59,I$5&lt;=$F59+$G59-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="71" stopIfTrue="1">
+      <formula>AND($C59="Risque moyen",I$5&gt;=$F59,I$5&lt;=$F59+$G59-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="72" stopIfTrue="1">
+      <formula>AND(LEN($C59)=0,I$5&gt;=$F59,I$5&lt;=$F59+$G59-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61:AB61">
+    <cfRule type="expression" dxfId="45" priority="59" stopIfTrue="1">
+      <formula>AND($C61="Risque faible",I$5&gt;=$F61,I$5&lt;=$F61+$G61-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="60" stopIfTrue="1">
+      <formula>AND($C61="Risque élevé",I$5&gt;=$F61,I$5&lt;=$F61+$G61-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="61" stopIfTrue="1">
+      <formula>AND($C61="En bonne voie",I$5&gt;=$F61,I$5&lt;=$F61+$G61-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="62" stopIfTrue="1">
+      <formula>AND($C61="Risque moyen",I$5&gt;=$F61,I$5&lt;=$F61+$G61-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="63" stopIfTrue="1">
+      <formula>AND(LEN($C61)=0,I$5&gt;=$F61,I$5&lt;=$F61+$G61-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB62">
+    <cfRule type="expression" dxfId="40" priority="48">
+      <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62:AB62">
     <cfRule type="expression" dxfId="39" priority="50" stopIfTrue="1">
-      <formula>AND($C59="Risque faible",I$5&gt;=$F59,I$5&lt;=$F59+$G59-1)</formula>
+      <formula>AND($C62="Risque faible",I$5&gt;=$F62,I$5&lt;=$F62+$G62-1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="38" priority="51" stopIfTrue="1">
-      <formula>AND($C59="Risque élevé",I$5&gt;=$F59,I$5&lt;=$F59+$G59-1)</formula>
+      <formula>AND($C62="Risque élevé",I$5&gt;=$F62,I$5&lt;=$F62+$G62-1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="37" priority="52" stopIfTrue="1">
-      <formula>AND($C59="En bonne voie",I$5&gt;=$F59,I$5&lt;=$F59+$G59-1)</formula>
+      <formula>AND($C62="En bonne voie",I$5&gt;=$F62,I$5&lt;=$F62+$G62-1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="36" priority="53" stopIfTrue="1">
-      <formula>AND($C59="Risque moyen",I$5&gt;=$F59,I$5&lt;=$F59+$G59-1)</formula>
+      <formula>AND($C62="Risque moyen",I$5&gt;=$F62,I$5&lt;=$F62+$G62-1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="35" priority="54" stopIfTrue="1">
-      <formula>AND(LEN($C59)=0,I$5&gt;=$F59,I$5&lt;=$F59+$G59-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I61:AB61">
+      <formula>AND(LEN($C62)=0,I$5&gt;=$F62,I$5&lt;=$F62+$G62-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63:AB63">
     <cfRule type="expression" dxfId="34" priority="41" stopIfTrue="1">
-      <formula>AND($C61="Risque faible",I$5&gt;=$F61,I$5&lt;=$F61+$G61-1)</formula>
+      <formula>AND($C63="Risque faible",I$5&gt;=$F63,I$5&lt;=$F63+$G63-1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="33" priority="42" stopIfTrue="1">
-      <formula>AND($C61="Risque élevé",I$5&gt;=$F61,I$5&lt;=$F61+$G61-1)</formula>
+      <formula>AND($C63="Risque élevé",I$5&gt;=$F63,I$5&lt;=$F63+$G63-1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="32" priority="43" stopIfTrue="1">
-      <formula>AND($C61="En bonne voie",I$5&gt;=$F61,I$5&lt;=$F61+$G61-1)</formula>
+      <formula>AND($C63="En bonne voie",I$5&gt;=$F63,I$5&lt;=$F63+$G63-1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="31" priority="44" stopIfTrue="1">
-      <formula>AND($C61="Risque moyen",I$5&gt;=$F61,I$5&lt;=$F61+$G61-1)</formula>
+      <formula>AND($C63="Risque moyen",I$5&gt;=$F63,I$5&lt;=$F63+$G63-1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="30" priority="45" stopIfTrue="1">
-      <formula>AND(LEN($C61)=0,I$5&gt;=$F61,I$5&lt;=$F61+$G61-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB62">
-    <cfRule type="expression" dxfId="29" priority="30">
-      <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I62:AB62">
-    <cfRule type="expression" dxfId="28" priority="32" stopIfTrue="1">
-      <formula>AND($C62="Risque faible",I$5&gt;=$F62,I$5&lt;=$F62+$G62-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="33" stopIfTrue="1">
-      <formula>AND($C62="Risque élevé",I$5&gt;=$F62,I$5&lt;=$F62+$G62-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="34" stopIfTrue="1">
-      <formula>AND($C62="En bonne voie",I$5&gt;=$F62,I$5&lt;=$F62+$G62-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="35" stopIfTrue="1">
-      <formula>AND($C62="Risque moyen",I$5&gt;=$F62,I$5&lt;=$F62+$G62-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="36" stopIfTrue="1">
-      <formula>AND(LEN($C62)=0,I$5&gt;=$F62,I$5&lt;=$F62+$G62-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:AB63">
-    <cfRule type="expression" dxfId="23" priority="23" stopIfTrue="1">
-      <formula>AND($C63="Risque faible",I$5&gt;=$F63,I$5&lt;=$F63+$G63-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24" stopIfTrue="1">
-      <formula>AND($C63="Risque élevé",I$5&gt;=$F63,I$5&lt;=$F63+$G63-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="25" stopIfTrue="1">
-      <formula>AND($C63="En bonne voie",I$5&gt;=$F63,I$5&lt;=$F63+$G63-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="26" stopIfTrue="1">
-      <formula>AND($C63="Risque moyen",I$5&gt;=$F63,I$5&lt;=$F63+$G63-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="27" stopIfTrue="1">
       <formula>AND(LEN($C63)=0,I$5&gt;=$F63,I$5&lt;=$F63+$G63-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="dataBar" priority="20">
+    <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11513,34 +11770,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63:AA63">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="29" priority="37">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB63">
-    <cfRule type="expression" dxfId="17" priority="21">
+    <cfRule type="expression" dxfId="28" priority="39">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64:AB64">
-    <cfRule type="expression" dxfId="16" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="32" stopIfTrue="1">
       <formula>AND($C64="Risque faible",I$5&gt;=$F64,I$5&lt;=$F64+$G64-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="33" stopIfTrue="1">
       <formula>AND($C64="Risque élevé",I$5&gt;=$F64,I$5&lt;=$F64+$G64-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="34" stopIfTrue="1">
       <formula>AND($C64="En bonne voie",I$5&gt;=$F64,I$5&lt;=$F64+$G64-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="35" stopIfTrue="1">
       <formula>AND($C64="Risque moyen",I$5&gt;=$F64,I$5&lt;=$F64+$G64-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="36" stopIfTrue="1">
       <formula>AND(LEN($C64)=0,I$5&gt;=$F64,I$5&lt;=$F64+$G64-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11554,22 +11811,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64:AA64">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="22" priority="28">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB64">
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="21" priority="30">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65:AA65">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="20" priority="20">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11583,32 +11840,73 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB65">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65:AB65">
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="23" stopIfTrue="1">
       <formula>AND($C65="Risque faible",I$5&gt;=$F65,I$5&lt;=$F65+$G65-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="24" stopIfTrue="1">
       <formula>AND($C65="Risque élevé",I$5&gt;=$F65,I$5&lt;=$F65+$G65-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="25" stopIfTrue="1">
       <formula>AND($C65="En bonne voie",I$5&gt;=$F65,I$5&lt;=$F65+$G65-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="26" stopIfTrue="1">
       <formula>AND($C65="Risque moyen",I$5&gt;=$F65,I$5&lt;=$F65+$G65-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="27" stopIfTrue="1">
       <formula>AND(LEN($C65)=0,I$5&gt;=$F65,I$5&lt;=$F65+$G65-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{389BAB7B-E22B-E94B-8141-EDDECFB85A8B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:AA43">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:AB43">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+      <formula>AND($C43="Risque faible",I$5&gt;=$F43,I$5&lt;=$F43+$G43-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+      <formula>AND($C43="Risque élevé",I$5&gt;=$F43,I$5&lt;=$F43+$G43-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+      <formula>AND($C43="En bonne voie",I$5&gt;=$F43,I$5&lt;=$F43+$G43-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+      <formula>AND($C43="Risque moyen",I$5&gt;=$F43,I$5&lt;=$F43+$G43-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+      <formula>AND(LEN($C43)=0,I$5&gt;=$F43,I$5&lt;=$F43+$G43-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB43">
+    <cfRule type="expression" dxfId="0" priority="8">
+      <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="F4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C41 C44:C65" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43:C65 C9:C41" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Objectif,Jalon,En bonne voie, Risque faible, Risque moyen, Risque élevé"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11985,21 +12283,6 @@
           <xm:sqref>E40:E41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7ECBC1F5-86CA-42A4-874C-8C94FE680DD8}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4B6A1F15-41AD-46DB-A0E2-CC6291CEB3B9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -12225,7 +12508,7 @@
           <xm:sqref>E65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="714" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="iconSet" priority="732" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12244,7 +12527,7 @@
           <xm:sqref>I66:AB66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="722" id="{509C0C8D-ECE2-4639-AAFB-0202F8036D5F}">
+          <x14:cfRule type="iconSet" priority="740" id="{509C0C8D-ECE2-4639-AAFB-0202F8036D5F}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12263,7 +12546,7 @@
           <xm:sqref>I10:AB10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="603" id="{E20B9330-3E7D-467D-BB97-4945220E838E}">
+          <x14:cfRule type="iconSet" priority="621" id="{E20B9330-3E7D-467D-BB97-4945220E838E}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12282,7 +12565,7 @@
           <xm:sqref>I14:AB14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="594" id="{4D81ECB6-03E5-4CF0-997D-711C08D14695}">
+          <x14:cfRule type="iconSet" priority="612" id="{4D81ECB6-03E5-4CF0-997D-711C08D14695}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12301,7 +12584,7 @@
           <xm:sqref>I15:AB15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="585" id="{B496B112-22A1-48FA-A15D-192841B88000}">
+          <x14:cfRule type="iconSet" priority="603" id="{B496B112-22A1-48FA-A15D-192841B88000}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12320,7 +12603,7 @@
           <xm:sqref>I17:AB17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="576" id="{38C89652-7123-4200-AE3B-B4E0CE5A4B63}">
+          <x14:cfRule type="iconSet" priority="594" id="{38C89652-7123-4200-AE3B-B4E0CE5A4B63}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12339,7 +12622,7 @@
           <xm:sqref>I26:AB26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="567" id="{6E69B1FD-A566-4AF6-B066-C49084DAB989}">
+          <x14:cfRule type="iconSet" priority="585" id="{6E69B1FD-A566-4AF6-B066-C49084DAB989}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12358,7 +12641,7 @@
           <xm:sqref>I29:AB29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="558" id="{8720D01A-918D-4DAD-A31E-5B3AE4AC4A58}">
+          <x14:cfRule type="iconSet" priority="576" id="{8720D01A-918D-4DAD-A31E-5B3AE4AC4A58}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12377,7 +12660,7 @@
           <xm:sqref>I33:AB33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="540" id="{B4E75299-C05E-442C-B2C9-B5ED5412E9F6}">
+          <x14:cfRule type="iconSet" priority="558" id="{B4E75299-C05E-442C-B2C9-B5ED5412E9F6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12396,7 +12679,7 @@
           <xm:sqref>I39:AB39 I42:AB42 I44:AB44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="522" id="{7CDB34B2-0FC0-4B9A-9E69-81735F7220E2}">
+          <x14:cfRule type="iconSet" priority="540" id="{7CDB34B2-0FC0-4B9A-9E69-81735F7220E2}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12415,7 +12698,7 @@
           <xm:sqref>I54:AB54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="497" id="{31C8FE75-F59F-D342-AEE2-B66278EFCAC1}">
+          <x14:cfRule type="iconSet" priority="515" id="{31C8FE75-F59F-D342-AEE2-B66278EFCAC1}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12434,7 +12717,7 @@
           <xm:sqref>I50:AB50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="488" id="{1DF787E2-8065-3546-9AF4-433C120E8B43}">
+          <x14:cfRule type="iconSet" priority="506" id="{1DF787E2-8065-3546-9AF4-433C120E8B43}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12453,7 +12736,7 @@
           <xm:sqref>I51:AB51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="479" id="{28E3D5FF-7874-452A-A900-6AEA95466C37}">
+          <x14:cfRule type="iconSet" priority="497" id="{28E3D5FF-7874-452A-A900-6AEA95466C37}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12472,7 +12755,7 @@
           <xm:sqref>I30:AB30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="470" id="{EC388F78-FEFF-4C31-A322-84A70D95C998}">
+          <x14:cfRule type="iconSet" priority="488" id="{EC388F78-FEFF-4C31-A322-84A70D95C998}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12491,7 +12774,7 @@
           <xm:sqref>I32:AB32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="461" id="{771D04B8-E599-4047-9D2C-0D8164B3B415}">
+          <x14:cfRule type="iconSet" priority="479" id="{771D04B8-E599-4047-9D2C-0D8164B3B415}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12510,7 +12793,7 @@
           <xm:sqref>I19:AB19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="389" id="{86F81114-0858-46FD-89A5-B77B20D08E09}">
+          <x14:cfRule type="iconSet" priority="407" id="{86F81114-0858-46FD-89A5-B77B20D08E09}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12529,7 +12812,7 @@
           <xm:sqref>I34:AB34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="361" id="{B37227A7-F3EB-494D-BE63-027ED68866C7}">
+          <x14:cfRule type="iconSet" priority="379" id="{B37227A7-F3EB-494D-BE63-027ED68866C7}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12548,7 +12831,7 @@
           <xm:sqref>I27:AB28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="352" id="{11F29DBB-9C3A-40BB-A8C9-DD464C4407DD}">
+          <x14:cfRule type="iconSet" priority="370" id="{11F29DBB-9C3A-40BB-A8C9-DD464C4407DD}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12567,7 +12850,7 @@
           <xm:sqref>I24:AB25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="343" id="{A651CFAC-274C-4A2B-9831-B1A6280A02F5}">
+          <x14:cfRule type="iconSet" priority="361" id="{A651CFAC-274C-4A2B-9831-B1A6280A02F5}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12586,7 +12869,7 @@
           <xm:sqref>I22:AB22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="334" id="{3EB16589-8FA1-40F5-9A1D-03F367216E76}">
+          <x14:cfRule type="iconSet" priority="352" id="{3EB16589-8FA1-40F5-9A1D-03F367216E76}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12605,26 +12888,7 @@
           <xm:sqref>I20:AB20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="298" id="{9703D153-F9D2-4539-959D-39C677DE5E46}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I43:AB43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="289" id="{3C8C73C2-5882-4D50-A619-E8929324CEEC}">
+          <x14:cfRule type="iconSet" priority="307" id="{3C8C73C2-5882-4D50-A619-E8929324CEEC}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12643,7 +12907,7 @@
           <xm:sqref>I36:AB37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="271" id="{7E74A7BE-42A4-4086-9DC6-241A23E184DD}">
+          <x14:cfRule type="iconSet" priority="289" id="{7E74A7BE-42A4-4086-9DC6-241A23E184DD}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12662,7 +12926,7 @@
           <xm:sqref>I40:AB41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="262" id="{472C0571-07BE-40E4-9871-D2A65C7AE928}">
+          <x14:cfRule type="iconSet" priority="280" id="{472C0571-07BE-40E4-9871-D2A65C7AE928}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12681,7 +12945,7 @@
           <xm:sqref>I45:AB47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="239" id="{3BE21401-6C53-4176-97B2-58F16FBEE64E}">
+          <x14:cfRule type="iconSet" priority="257" id="{3BE21401-6C53-4176-97B2-58F16FBEE64E}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12700,7 +12964,7 @@
           <xm:sqref>I35:AB35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="235" id="{5854C059-CE8A-46A8-9DE3-850FF95EEC5D}">
+          <x14:cfRule type="iconSet" priority="253" id="{5854C059-CE8A-46A8-9DE3-850FF95EEC5D}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12719,7 +12983,7 @@
           <xm:sqref>I38:AB38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="217" id="{35F291B0-AC08-4DEC-AC71-E2527C6395F3}">
+          <x14:cfRule type="iconSet" priority="235" id="{35F291B0-AC08-4DEC-AC71-E2527C6395F3}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12738,7 +13002,7 @@
           <xm:sqref>I48:AB49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="208" id="{63E239F2-C90C-4923-A631-FDFBBBCB6804}">
+          <x14:cfRule type="iconSet" priority="226" id="{63E239F2-C90C-4923-A631-FDFBBBCB6804}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12757,7 +13021,7 @@
           <xm:sqref>I52:AB53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="750" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="iconSet" priority="768" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12776,7 +13040,7 @@
           <xm:sqref>I8:AB9 I11:AB13 I16:AB16 I18:AB18 I31:AB31 I21:AB21 I23:AB23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="757" id="{FCA8B08D-F57A-48A9-A135-03AEE1B0E4C5}">
+          <x14:cfRule type="iconSet" priority="775" id="{FCA8B08D-F57A-48A9-A135-03AEE1B0E4C5}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12795,7 +13059,7 @@
           <xm:sqref>I57:AB57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="162" id="{1BF54B70-B0A3-451B-82EE-99FB2164159D}">
+          <x14:cfRule type="iconSet" priority="180" id="{1BF54B70-B0A3-451B-82EE-99FB2164159D}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12814,7 +13078,7 @@
           <xm:sqref>I56:AB56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="148" id="{3E51AEFB-2819-456C-B5A5-4FB3826FC475}">
+          <x14:cfRule type="iconSet" priority="166" id="{3E51AEFB-2819-456C-B5A5-4FB3826FC475}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12833,7 +13097,7 @@
           <xm:sqref>I55:AB55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="94" id="{19020CA2-A634-4E23-B0F2-6254842B5EB1}">
+          <x14:cfRule type="iconSet" priority="112" id="{19020CA2-A634-4E23-B0F2-6254842B5EB1}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12852,7 +13116,7 @@
           <xm:sqref>I58:AB58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="49" id="{6235C1BF-8B2E-4174-B0E6-53AF00330DAD}">
+          <x14:cfRule type="iconSet" priority="67" id="{6235C1BF-8B2E-4174-B0E6-53AF00330DAD}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12871,7 +13135,7 @@
           <xm:sqref>I59:AB60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="40" id="{92356BE9-F220-4F5F-8C52-37BFD8ADA4D0}">
+          <x14:cfRule type="iconSet" priority="58" id="{92356BE9-F220-4F5F-8C52-37BFD8ADA4D0}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12890,7 +13154,7 @@
           <xm:sqref>I61:AB61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="31" id="{094C2F2E-15C4-4206-8A4A-A249309459C8}">
+          <x14:cfRule type="iconSet" priority="49" id="{094C2F2E-15C4-4206-8A4A-A249309459C8}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12909,7 +13173,7 @@
           <xm:sqref>I62:AB62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{17BED863-7B80-4A47-B388-C01464071AEA}">
+          <x14:cfRule type="iconSet" priority="40" id="{17BED863-7B80-4A47-B388-C01464071AEA}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12928,7 +13192,7 @@
           <xm:sqref>I63:AB63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{8987036F-3AE1-4CD0-A7FA-9E6DCDF640DB}">
+          <x14:cfRule type="iconSet" priority="31" id="{8987036F-3AE1-4CD0-A7FA-9E6DCDF640DB}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12947,7 +13211,7 @@
           <xm:sqref>I64:AB64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{E5E94B63-5356-481B-8A1F-AA218FFD91A9}">
+          <x14:cfRule type="iconSet" priority="22" id="{E5E94B63-5356-481B-8A1F-AA218FFD91A9}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12964,6 +13228,40 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>I65:AB65</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{389BAB7B-E22B-E94B-8141-EDDECFB85A8B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="9" id="{7B97A23B-8B89-DC40-9F44-1E113CE2352E}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I43:AB43</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Diagramme_de_Gantt.xlsx
+++ b/Diagramme_de_Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E56CD8C-B0FD-6F49-945C-2E7BB2E5D8DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ADA830-82B2-FB46-A647-20D7D37A553B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="94">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -333,6 +333,12 @@
   </si>
   <si>
     <t>Animation pour creuser trous</t>
+  </si>
+  <si>
+    <t>Animation lorsqu'ils  bougent</t>
+  </si>
+  <si>
+    <t>Animation lorsqu'il bouge</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1368,75 @@
     <cellStyle name="Vérification" xfId="21" builtinId="23" customBuiltin="1"/>
     <cellStyle name="zTexteMasqué" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
-  <dxfs count="163">
+  <dxfs count="128">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1507,6 +1581,754 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
@@ -1630,1585 +2452,6 @@
         </right>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -4341,20 +3584,20 @@
   </dxfs>
   <tableStyles count="2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Style de tableau Gantt" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="162"/>
-      <tableStyleElement type="headerRow" dxfId="161"/>
-      <tableStyleElement type="firstRowStripe" dxfId="160"/>
+      <tableStyleElement type="wholeTable" dxfId="127"/>
+      <tableStyleElement type="headerRow" dxfId="126"/>
+      <tableStyleElement type="firstRowStripe" dxfId="125"/>
     </tableStyle>
     <tableStyle name="ListeTâches" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="159"/>
-      <tableStyleElement type="headerRow" dxfId="158"/>
-      <tableStyleElement type="totalRow" dxfId="157"/>
-      <tableStyleElement type="firstColumn" dxfId="156"/>
-      <tableStyleElement type="lastColumn" dxfId="155"/>
-      <tableStyleElement type="firstRowStripe" dxfId="154"/>
-      <tableStyleElement type="secondRowStripe" dxfId="153"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="152"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="151"/>
+      <tableStyleElement type="wholeTable" dxfId="124"/>
+      <tableStyleElement type="headerRow" dxfId="123"/>
+      <tableStyleElement type="totalRow" dxfId="122"/>
+      <tableStyleElement type="firstColumn" dxfId="121"/>
+      <tableStyleElement type="lastColumn" dxfId="120"/>
+      <tableStyleElement type="firstRowStripe" dxfId="119"/>
+      <tableStyleElement type="secondRowStripe" dxfId="118"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="117"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="116"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4448,8 +3691,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B7:G66" totalsRowShown="0">
-  <autoFilter ref="B7:G66" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B7:G68" totalsRowShown="0">
+  <autoFilter ref="B7:G68" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -4458,9 +3701,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon" dataDxfId="150"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Catégorie" dataDxfId="149"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à" dataDxfId="148"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon" dataDxfId="115"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Catégorie" dataDxfId="114"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à" dataDxfId="113"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Début" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nombre de jours"/>
@@ -4740,10 +3983,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB69"/>
+  <dimension ref="A1:AB71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B16" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A37" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5265,7 +4508,7 @@
       <c r="G10" s="20"/>
       <c r="H10" s="26"/>
       <c r="I10" s="37" t="str">
-        <f t="shared" ref="I10:I53" ca="1" si="4">IF(AND($C10="Objectif",I$5&gt;=$F10,I$5&lt;=$F10+$G10-1),2,IF(AND($C10="Jalon",I$5&gt;=$F10,I$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ref="I10:I55" ca="1" si="4">IF(AND($C10="Objectif",I$5&gt;=$F10,I$5&lt;=$F10+$G10-1),2,IF(AND($C10="Jalon",I$5&gt;=$F10,I$5&lt;=$F10+$G10-1),1,""))</f>
         <v/>
       </c>
       <c r="J10" s="37" t="str">
@@ -6361,83 +5604,83 @@
       <c r="G23" s="32"/>
       <c r="H23" s="26"/>
       <c r="I23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",I$5&gt;=$F25,I$5&lt;=$F25+$G23-1),2,IF(AND($C23="Jalon",I$5&gt;=$F25,I$5&lt;=$F25+$G23-1),1,""))</f>
+        <f t="shared" ref="I23:AB23" ca="1" si="8">IF(AND($C23="Objectif",I$5&gt;=$F25,I$5&lt;=$F25+$G23-1),2,IF(AND($C23="Jalon",I$5&gt;=$F25,I$5&lt;=$F25+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="J23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",J$5&gt;=$F25,J$5&lt;=$F25+$G23-1),2,IF(AND($C23="Jalon",J$5&gt;=$F25,J$5&lt;=$F25+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",K$5&gt;=$F25,K$5&lt;=$F25+$G23-1),2,IF(AND($C23="Jalon",K$5&gt;=$F25,K$5&lt;=$F25+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",L$5&gt;=$F25,L$5&lt;=$F25+$G23-1),2,IF(AND($C23="Jalon",L$5&gt;=$F25,L$5&lt;=$F25+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="M23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",M$5&gt;=$F25,M$5&lt;=$F25+$G23-1),2,IF(AND($C23="Jalon",M$5&gt;=$F25,M$5&lt;=$F25+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="N23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",N$5&gt;=$F25,N$5&lt;=$F25+$G23-1),2,IF(AND($C23="Jalon",N$5&gt;=$F25,N$5&lt;=$F25+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="O23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",O$5&gt;=$F25,O$5&lt;=$F25+$G23-1),2,IF(AND($C23="Jalon",O$5&gt;=$F25,O$5&lt;=$F25+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="P23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",P$5&gt;=$F25,P$5&lt;=$F25+$G23-1),2,IF(AND($C23="Jalon",P$5&gt;=$F25,P$5&lt;=$F25+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="Q23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",Q$5&gt;=$F25,Q$5&lt;=$F25+$G23-1),2,IF(AND($C23="Jalon",Q$5&gt;=$F25,Q$5&lt;=$F25+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="R23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",R$5&gt;=$F25,R$5&lt;=$F25+$G23-1),2,IF(AND($C23="Jalon",R$5&gt;=$F25,R$5&lt;=$F25+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="S23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",S$5&gt;=$F25,S$5&lt;=$F25+$G23-1),2,IF(AND($C23="Jalon",S$5&gt;=$F25,S$5&lt;=$F25+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="T23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",T$5&gt;=$F25,T$5&lt;=$F25+$G23-1),2,IF(AND($C23="Jalon",T$5&gt;=$F25,T$5&lt;=$F25+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="U23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",U$5&gt;=$F25,U$5&lt;=$F25+$G23-1),2,IF(AND($C23="Jalon",U$5&gt;=$F25,U$5&lt;=$F25+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="V23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",V$5&gt;=$F25,V$5&lt;=$F25+$G23-1),2,IF(AND($C23="Jalon",V$5&gt;=$F25,V$5&lt;=$F25+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="W23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",W$5&gt;=$F25,W$5&lt;=$F25+$G23-1),2,IF(AND($C23="Jalon",W$5&gt;=$F25,W$5&lt;=$F25+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="X23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",X$5&gt;=$F25,X$5&lt;=$F25+$G23-1),2,IF(AND($C23="Jalon",X$5&gt;=$F25,X$5&lt;=$F25+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="Y23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",Y$5&gt;=$F25,Y$5&lt;=$F25+$G23-1),2,IF(AND($C23="Jalon",Y$5&gt;=$F25,Y$5&lt;=$F25+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="Z23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",Z$5&gt;=$F25,Z$5&lt;=$F25+$G23-1),2,IF(AND($C23="Jalon",Z$5&gt;=$F25,Z$5&lt;=$F25+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AA23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",AA$5&gt;=$F25,AA$5&lt;=$F25+$G23-1),2,IF(AND($C23="Jalon",AA$5&gt;=$F25,AA$5&lt;=$F25+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AB23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Objectif",AB$5&gt;=$F25,AB$5&lt;=$F25+$G23-1),2,IF(AND($C23="Jalon",AB$5&gt;=$F25,AB$5&lt;=$F25+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
@@ -6583,79 +5826,79 @@
         <v/>
       </c>
       <c r="J27" s="37" t="str">
-        <f t="shared" ref="J27:S53" ca="1" si="8">IF(AND($C27="Objectif",J$5&gt;=$F27,J$5&lt;=$F27+$G27-1),2,IF(AND($C27="Jalon",J$5&gt;=$F27,J$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ref="J27:S55" ca="1" si="9">IF(AND($C27="Objectif",J$5&gt;=$F27,J$5&lt;=$F27+$G27-1),2,IF(AND($C27="Jalon",J$5&gt;=$F27,J$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="K27" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L27" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="M27" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N27" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="O27" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P27" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Q27" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="R27" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="S27" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="T27" s="37" t="str">
-        <f t="shared" ref="T27:AB53" ca="1" si="9">IF(AND($C27="Objectif",T$5&gt;=$F27,T$5&lt;=$F27+$G27-1),2,IF(AND($C27="Jalon",T$5&gt;=$F27,T$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ref="T27:AB55" ca="1" si="10">IF(AND($C27="Objectif",T$5&gt;=$F27,T$5&lt;=$F27+$G27-1),2,IF(AND($C27="Jalon",T$5&gt;=$F27,T$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="U27" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="V27" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="W27" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="X27" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Y27" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Z27" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AA27" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AB27" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
@@ -6769,79 +6012,79 @@
         <v/>
       </c>
       <c r="J30" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K30" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L30" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="M30" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N30" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="O30" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P30" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Q30" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="R30" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="S30" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="T30" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U30" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="V30" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="W30" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="X30" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Y30" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Z30" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AA30" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AB30" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
@@ -6903,79 +6146,79 @@
         <v/>
       </c>
       <c r="J32" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K32" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L32" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="M32" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N32" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="O32" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P32" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Q32" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="R32" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="S32" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="T32" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U32" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="V32" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="W32" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="X32" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Y32" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Z32" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AA32" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AB32" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
@@ -6985,11 +6228,13 @@
         <v>53</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="58"/>
+        <v>16</v>
+      </c>
+      <c r="D33" s="58" t="s">
+        <v>46</v>
+      </c>
       <c r="E33" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="60">
         <v>43894</v>
@@ -7021,285 +6266,285 @@
     </row>
     <row r="34" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
-      <c r="B34" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
+      <c r="B34" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="30">
+        <v>1</v>
+      </c>
+      <c r="F34" s="31">
+        <v>43892</v>
+      </c>
+      <c r="G34" s="32">
+        <v>3</v>
+      </c>
       <c r="H34" s="26"/>
-      <c r="I34" s="37" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="J34" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="K34" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="L34" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="M34" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="N34" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="O34" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="P34" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="Q34" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="R34" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="S34" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="T34" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="U34" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="V34" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="W34" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="X34" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="Y34" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="Z34" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AA34" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AB34" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="37"/>
+      <c r="AA34" s="37"/>
+      <c r="AB34" s="37"/>
     </row>
     <row r="35" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
-      <c r="B35" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="30">
-        <v>0.95</v>
-      </c>
-      <c r="F35" s="31">
-        <v>43892</v>
-      </c>
-      <c r="G35" s="32">
-        <v>2</v>
-      </c>
+      <c r="B35" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
       <c r="H35" s="26"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="37"/>
-      <c r="AA35" s="37"/>
-      <c r="AB35" s="37"/>
+      <c r="I35" s="37" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J35" s="37" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="K35" s="37" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="L35" s="37" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="M35" s="37" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="N35" s="37" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="O35" s="37" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="P35" s="37" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="Q35" s="37" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="R35" s="37" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="S35" s="37" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="T35" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="U35" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="V35" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="W35" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="X35" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Y35" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Z35" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AA35" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AB35" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="36" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="F36" s="31">
+        <v>43892</v>
+      </c>
+      <c r="G36" s="32">
+        <v>2</v>
+      </c>
+      <c r="H36" s="26"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
+    </row>
+    <row r="37" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="14"/>
+      <c r="B37" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="37" t="str">
-        <f t="shared" ref="I36:AB36" ca="1" si="10">IF(AND($C36="Objectif",I$5&gt;=$F37,I$5&lt;=$F37+$G37-1),2,IF(AND($C36="Jalon",I$5&gt;=$F37,I$5&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="J36" s="37" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="K36" s="37" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="L36" s="37" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="M36" s="37" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="N36" s="37" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="O36" s="37" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="P36" s="37" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="Q36" s="37" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="R36" s="37" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="S36" s="37" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="T36" s="37" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="U36" s="37" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="V36" s="37" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="W36" s="37" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="X36" s="37" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="Y36" s="37" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="Z36" s="37" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AA36" s="37" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AB36" s="37" t="str">
-        <f t="shared" ca="1" si="10"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="37" t="str">
+        <f t="shared" ref="I37:AB37" ca="1" si="11">IF(AND($C37="Objectif",I$5&gt;=$F38,I$5&lt;=$F38+$G38-1),2,IF(AND($C37="Jalon",I$5&gt;=$F38,I$5&lt;=$F38+$G38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="J37" s="37" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="K37" s="37" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="L37" s="37" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="M37" s="37" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="N37" s="37" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="O37" s="37" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="P37" s="37" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="Q37" s="37" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="R37" s="37" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="S37" s="37" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="T37" s="37" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="U37" s="37" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="V37" s="37" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="W37" s="37" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="X37" s="37" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="Y37" s="37" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="Z37" s="37" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AA37" s="37" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AB37" s="37" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="30">
-        <v>0</v>
-      </c>
-      <c r="F37" s="31">
-        <v>43892</v>
-      </c>
-      <c r="G37" s="32">
-        <v>2</v>
-      </c>
-      <c r="H37" s="26"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
-    </row>
-    <row r="38" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14"/>
       <c r="B38" s="53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D38" s="33" t="s">
         <v>46</v>
       </c>
       <c r="E38" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="31">
         <v>43892</v>
@@ -7332,16 +6577,16 @@
     <row r="39" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
       <c r="B39" s="53" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D39" s="33" t="s">
         <v>46</v>
       </c>
       <c r="E39" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="31">
         <v>43892</v>
@@ -7373,143 +6618,151 @@
     </row>
     <row r="40" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="30">
+        <v>1</v>
+      </c>
+      <c r="F40" s="31">
+        <v>43892</v>
+      </c>
+      <c r="G40" s="32">
+        <v>2</v>
+      </c>
+      <c r="H40" s="26"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="37"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="37"/>
+      <c r="Y40" s="37"/>
+      <c r="Z40" s="37"/>
+      <c r="AA40" s="37"/>
+      <c r="AB40" s="37"/>
+    </row>
+    <row r="41" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="14"/>
+      <c r="B41" s="50" t="s">
         <v>44</v>
-      </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="37" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="J40" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="K40" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="L40" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="M40" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="N40" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="O40" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="P40" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="Q40" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="R40" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="S40" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="T40" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="U40" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="V40" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="W40" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="X40" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="Y40" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="Z40" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AA40" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AB40" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="53" t="s">
-        <v>65</v>
       </c>
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
-      <c r="E41" s="30">
-        <v>0</v>
-      </c>
-      <c r="F41" s="31">
-        <v>43894</v>
-      </c>
-      <c r="G41" s="32">
-        <v>2</v>
-      </c>
+      <c r="E41" s="30"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="32"/>
       <c r="H41" s="26"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="37"/>
-      <c r="U41" s="37"/>
-      <c r="V41" s="37"/>
-      <c r="W41" s="37"/>
-      <c r="X41" s="37"/>
-      <c r="Y41" s="37"/>
-      <c r="Z41" s="37"/>
-      <c r="AA41" s="37"/>
-      <c r="AB41" s="37"/>
+      <c r="I41" s="37" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J41" s="37" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="K41" s="37" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="L41" s="37" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="M41" s="37" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="N41" s="37" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="O41" s="37" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="P41" s="37" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="Q41" s="37" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="R41" s="37" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="S41" s="37" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="T41" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="U41" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="V41" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="W41" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="X41" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Y41" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Z41" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AA41" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AB41" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="42" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14"/>
       <c r="B42" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
+        <v>65</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>46</v>
+      </c>
       <c r="E42" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="31">
         <v>43894</v>
@@ -7539,277 +6792,283 @@
       <c r="AA42" s="37"/>
       <c r="AB42" s="37"/>
     </row>
-    <row r="43" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14"/>
-      <c r="B43" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="33"/>
+      <c r="B43" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>14</v>
+      </c>
       <c r="D43" s="33"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="32"/>
+      <c r="E43" s="30">
+        <v>0</v>
+      </c>
+      <c r="F43" s="31">
+        <v>43894</v>
+      </c>
+      <c r="G43" s="32">
+        <v>2</v>
+      </c>
       <c r="H43" s="26"/>
-      <c r="I43" s="37" t="str">
-        <f t="shared" ref="I43:AB43" ca="1" si="11">IF(AND($C43="Objectif",I$5&gt;=$F44,I$5&lt;=$F44+$G43-1),2,IF(AND($C43="Jalon",I$5&gt;=$F44,I$5&lt;=$F44+$G43-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="J43" s="37" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="K43" s="37" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="L43" s="37" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="M43" s="37" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="N43" s="37" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="O43" s="37" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="P43" s="37" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="Q43" s="37" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="R43" s="37" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="S43" s="37" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="T43" s="37" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="U43" s="37" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="V43" s="37" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="W43" s="37" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="X43" s="37" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="Y43" s="37" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="Z43" s="37" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AA43" s="37" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AB43" s="37" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="37"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="37"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="37"/>
+      <c r="Y43" s="37"/>
+      <c r="Z43" s="37"/>
+      <c r="AA43" s="37"/>
+      <c r="AB43" s="37"/>
     </row>
     <row r="44" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14"/>
-      <c r="B44" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>15</v>
-      </c>
+      <c r="B44" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="33"/>
       <c r="D44" s="33"/>
-      <c r="E44" s="30">
-        <v>0</v>
-      </c>
-      <c r="F44" s="31">
-        <v>43892</v>
-      </c>
-      <c r="G44" s="32">
-        <v>2</v>
-      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="32"/>
       <c r="H44" s="26"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="37"/>
-      <c r="U44" s="37"/>
-      <c r="V44" s="37"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="37"/>
-      <c r="Y44" s="37"/>
-      <c r="Z44" s="37"/>
-      <c r="AA44" s="37"/>
-      <c r="AB44" s="37"/>
+      <c r="I44" s="37" t="str">
+        <f t="shared" ref="I44:AB44" ca="1" si="12">IF(AND($C44="Objectif",I$5&gt;=$F45,I$5&lt;=$F45+$G44-1),2,IF(AND($C44="Jalon",I$5&gt;=$F45,I$5&lt;=$F45+$G44-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="J44" s="37" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="K44" s="37" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="L44" s="37" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="M44" s="37" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="N44" s="37" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="O44" s="37" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="P44" s="37" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="Q44" s="37" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="R44" s="37" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="S44" s="37" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="T44" s="37" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="U44" s="37" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="V44" s="37" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="W44" s="37" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="X44" s="37" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="Y44" s="37" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="Z44" s="37" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AA44" s="37" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AB44" s="37" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
     </row>
     <row r="45" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14"/>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="33"/>
+      <c r="E45" s="30">
+        <v>0</v>
+      </c>
+      <c r="F45" s="31">
+        <v>43892</v>
+      </c>
+      <c r="G45" s="32">
+        <v>2</v>
+      </c>
+      <c r="H45" s="26"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="37"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="37"/>
+      <c r="Y45" s="37"/>
+      <c r="Z45" s="37"/>
+      <c r="AA45" s="37"/>
+      <c r="AB45" s="37"/>
+    </row>
+    <row r="46" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="14"/>
+      <c r="B46" s="50" t="s">
         <v>68</v>
-      </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="37" t="str">
-        <f t="shared" ref="I45:AB45" ca="1" si="12">IF(AND($C45="Objectif",I$5&gt;=$F45,I$5&lt;=$F45+$G45-1),2,IF(AND($C45="Jalon",I$5&gt;=$F45,I$5&lt;=$F45+$G45-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="J45" s="37" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="K45" s="37" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="L45" s="37" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="M45" s="37" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="N45" s="37" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="O45" s="37" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="P45" s="37" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="Q45" s="37" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="R45" s="37" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="S45" s="37" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="T45" s="37" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="U45" s="37" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="V45" s="37" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="W45" s="37" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="X45" s="37" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="Y45" s="37" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="Z45" s="37" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AA45" s="37" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AB45" s="37" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
-      <c r="B46" s="53" t="s">
-        <v>69</v>
       </c>
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
-      <c r="E46" s="30">
-        <v>0</v>
-      </c>
-      <c r="F46" s="31">
-        <v>43896</v>
-      </c>
-      <c r="G46" s="32">
-        <v>2</v>
-      </c>
+      <c r="E46" s="30"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="32"/>
       <c r="H46" s="26"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="37"/>
-      <c r="S46" s="37"/>
-      <c r="T46" s="37"/>
-      <c r="U46" s="37"/>
-      <c r="V46" s="37"/>
-      <c r="W46" s="37"/>
-      <c r="X46" s="37"/>
-      <c r="Y46" s="37"/>
-      <c r="Z46" s="37"/>
-      <c r="AA46" s="37"/>
-      <c r="AB46" s="37"/>
+      <c r="I46" s="37" t="str">
+        <f t="shared" ref="I46:AB46" ca="1" si="13">IF(AND($C46="Objectif",I$5&gt;=$F46,I$5&lt;=$F46+$G46-1),2,IF(AND($C46="Jalon",I$5&gt;=$F46,I$5&lt;=$F46+$G46-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="J46" s="37" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="K46" s="37" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="L46" s="37" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="M46" s="37" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="N46" s="37" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="O46" s="37" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="P46" s="37" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="Q46" s="37" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="R46" s="37" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="S46" s="37" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="T46" s="37" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="U46" s="37" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="V46" s="37" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="W46" s="37" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="X46" s="37" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="Y46" s="37" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="Z46" s="37" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AA46" s="37" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AB46" s="37" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
     </row>
     <row r="47" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14"/>
       <c r="B47" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
+        <v>69</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>46</v>
+      </c>
       <c r="E47" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="31">
         <v>43896</v>
@@ -7842,12 +7101,16 @@
     <row r="48" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14"/>
       <c r="B48" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
+        <v>70</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>46</v>
+      </c>
       <c r="E48" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="31">
         <v>43896</v>
@@ -7880,9 +7143,11 @@
     <row r="49" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14"/>
       <c r="B49" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="33"/>
+        <v>71</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>15</v>
+      </c>
       <c r="D49" s="33"/>
       <c r="E49" s="30">
         <v>0</v>
@@ -7918,9 +7183,11 @@
     <row r="50" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14"/>
       <c r="B50" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="33"/>
+        <v>74</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>15</v>
+      </c>
       <c r="D50" s="33"/>
       <c r="E50" s="30">
         <v>0</v>
@@ -7953,435 +7220,387 @@
       <c r="AA50" s="37"/>
       <c r="AB50" s="37"/>
     </row>
-    <row r="51" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14"/>
-      <c r="B51" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" s="33"/>
+      <c r="B51" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>15</v>
+      </c>
       <c r="D51" s="33"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
+      <c r="E51" s="30">
+        <v>0</v>
+      </c>
+      <c r="F51" s="31">
+        <v>43896</v>
+      </c>
+      <c r="G51" s="32">
+        <v>2</v>
+      </c>
       <c r="H51" s="26"/>
-      <c r="I51" s="37" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="J51" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="K51" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="L51" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="M51" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="N51" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="O51" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="P51" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="Q51" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="R51" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="S51" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="T51" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="U51" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="V51" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="W51" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="X51" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="Y51" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="Z51" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AA51" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AB51" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="37"/>
+      <c r="P51" s="37"/>
+      <c r="Q51" s="37"/>
+      <c r="R51" s="37"/>
+      <c r="S51" s="37"/>
+      <c r="T51" s="37"/>
+      <c r="U51" s="37"/>
+      <c r="V51" s="37"/>
+      <c r="W51" s="37"/>
+      <c r="X51" s="37"/>
+      <c r="Y51" s="37"/>
+      <c r="Z51" s="37"/>
+      <c r="AA51" s="37"/>
+      <c r="AB51" s="37"/>
     </row>
     <row r="52" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14"/>
       <c r="B52" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="32"/>
+        <v>92</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" s="30">
+        <v>1</v>
+      </c>
+      <c r="F52" s="31">
+        <v>43892</v>
+      </c>
+      <c r="G52" s="32">
+        <v>2</v>
+      </c>
       <c r="H52" s="26"/>
-      <c r="I52" s="37" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="J52" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="K52" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="L52" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="M52" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="N52" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="O52" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="P52" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="Q52" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="R52" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="S52" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="T52" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="U52" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="V52" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="W52" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="X52" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="Y52" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="Z52" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AA52" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AB52" s="37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="37"/>
+      <c r="S52" s="37"/>
+      <c r="T52" s="37"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="37"/>
+      <c r="W52" s="37"/>
+      <c r="X52" s="37"/>
+      <c r="Y52" s="37"/>
+      <c r="Z52" s="37"/>
+      <c r="AA52" s="37"/>
+      <c r="AB52" s="37"/>
     </row>
-    <row r="53" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14"/>
-      <c r="B53" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E53" s="30">
-        <v>1</v>
-      </c>
-      <c r="F53" s="31">
-        <v>43896</v>
-      </c>
-      <c r="G53" s="32">
-        <v>1</v>
-      </c>
+      <c r="B53" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
       <c r="H53" s="26"/>
       <c r="I53" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J53" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K53" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L53" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="M53" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N53" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="O53" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P53" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Q53" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="R53" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="S53" s="37" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="T53" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="U53" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="V53" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="W53" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="X53" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Y53" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Z53" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AA53" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AB53" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="14"/>
+      <c r="B54" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="37" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J54" s="37" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="U53" s="37" t="str">
+      <c r="K54" s="37" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="V53" s="37" t="str">
+      <c r="L54" s="37" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="W53" s="37" t="str">
+      <c r="M54" s="37" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="X53" s="37" t="str">
+      <c r="N54" s="37" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="Y53" s="37" t="str">
+      <c r="O54" s="37" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="Z53" s="37" t="str">
+      <c r="P54" s="37" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AA53" s="37" t="str">
+      <c r="Q54" s="37" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AB53" s="37" t="str">
+      <c r="R54" s="37" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
+      <c r="S54" s="37" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="T54" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="U54" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="V54" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="W54" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="X54" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Y54" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Z54" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AA54" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AB54" s="37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
     </row>
-    <row r="54" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="14"/>
-      <c r="B54" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="33" t="s">
+    <row r="55" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="14"/>
+      <c r="B55" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="33" t="s">
+      <c r="D55" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E54" s="30">
+      <c r="E55" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="F55" s="31">
+        <v>43896</v>
+      </c>
+      <c r="G55" s="32">
         <v>1</v>
       </c>
-      <c r="F54" s="31">
-        <v>43894</v>
-      </c>
-      <c r="G54" s="32">
-        <v>1</v>
-      </c>
-      <c r="H54" s="26"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="37"/>
-      <c r="S54" s="37"/>
-      <c r="T54" s="37"/>
-      <c r="U54" s="37"/>
-      <c r="V54" s="37"/>
-      <c r="W54" s="37"/>
-      <c r="X54" s="37"/>
-      <c r="Y54" s="37"/>
-      <c r="Z54" s="37"/>
-      <c r="AA54" s="37"/>
-      <c r="AB54" s="37"/>
-    </row>
-    <row r="55" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="32"/>
       <c r="H55" s="26"/>
       <c r="I55" s="37" t="str">
-        <f t="shared" ref="I55:AB55" ca="1" si="13">IF(AND($C55="Objectif",I$5&gt;=$F56,I$5&lt;=$F56+$G55-1),2,IF(AND($C55="Jalon",I$5&gt;=$F56,I$5&lt;=$F56+$G55-1),1,""))</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J55" s="37" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K55" s="37" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L55" s="37" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="M55" s="37" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N55" s="37" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="O55" s="37" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P55" s="37" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Q55" s="37" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="R55" s="37" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="S55" s="37" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="T55" s="37" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U55" s="37" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="V55" s="37" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="W55" s="37" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="X55" s="37" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Y55" s="37" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Z55" s="37" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AA55" s="37" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AB55" s="37" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14"/>
       <c r="B56" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
+        <v>78</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>46</v>
+      </c>
       <c r="E56" s="30">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F56" s="31">
         <v>43894</v>
@@ -8411,67 +7630,115 @@
       <c r="AA56" s="37"/>
       <c r="AB56" s="37"/>
     </row>
-    <row r="57" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14"/>
-      <c r="B57" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E57" s="30">
+      <c r="B57" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="37" t="str">
+        <f t="shared" ref="I57:AB57" ca="1" si="14">IF(AND($C57="Objectif",I$5&gt;=$F58,I$5&lt;=$F58+$G57-1),2,IF(AND($C57="Jalon",I$5&gt;=$F58,I$5&lt;=$F58+$G57-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="J57" s="37" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="K57" s="37" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="L57" s="37" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="M57" s="37" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="N57" s="37" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="O57" s="37" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="P57" s="37" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="Q57" s="37" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="R57" s="37" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="S57" s="37" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="T57" s="37" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="U57" s="37" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="V57" s="37" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="W57" s="37" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="X57" s="37" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="Y57" s="37" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="Z57" s="37" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AA57" s="37" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AB57" s="37" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="14"/>
+      <c r="B58" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="33"/>
+      <c r="E58" s="30">
+        <v>0</v>
+      </c>
+      <c r="F58" s="31">
+        <v>43894</v>
+      </c>
+      <c r="G58" s="32">
         <v>1</v>
-      </c>
-      <c r="F57" s="31">
-        <v>43894</v>
-      </c>
-      <c r="G57" s="32">
-        <v>1</v>
-      </c>
-      <c r="H57" s="26"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="37"/>
-      <c r="P57" s="37"/>
-      <c r="Q57" s="37"/>
-      <c r="R57" s="37"/>
-      <c r="S57" s="37"/>
-      <c r="T57" s="37"/>
-      <c r="U57" s="37"/>
-      <c r="V57" s="37"/>
-      <c r="W57" s="37"/>
-      <c r="X57" s="37"/>
-      <c r="Y57" s="37"/>
-      <c r="Z57" s="37"/>
-      <c r="AA57" s="37"/>
-      <c r="AB57" s="37"/>
-    </row>
-    <row r="58" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="E58" s="30">
-        <v>1</v>
-      </c>
-      <c r="F58" s="51">
-        <v>43882</v>
-      </c>
-      <c r="G58" s="32">
-        <v>3</v>
       </c>
       <c r="H58" s="26"/>
       <c r="I58" s="37"/>
@@ -8495,16 +7762,26 @@
       <c r="AA58" s="37"/>
       <c r="AB58" s="37"/>
     </row>
-    <row r="59" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14"/>
-      <c r="B59" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="32"/>
+      <c r="B59" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" s="30">
+        <v>1</v>
+      </c>
+      <c r="F59" s="31">
+        <v>43894</v>
+      </c>
+      <c r="G59" s="32">
+        <v>1</v>
+      </c>
       <c r="H59" s="26"/>
       <c r="I59" s="37"/>
       <c r="J59" s="37"/>
@@ -8527,25 +7804,25 @@
       <c r="AA59" s="37"/>
       <c r="AB59" s="37"/>
     </row>
-    <row r="60" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14"/>
-      <c r="B60" s="53" t="s">
-        <v>83</v>
+      <c r="B60" s="50" t="s">
+        <v>45</v>
       </c>
       <c r="C60" s="33" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E60" s="30">
         <v>1</v>
       </c>
-      <c r="F60" s="31">
-        <v>43897</v>
+      <c r="F60" s="51">
+        <v>43882</v>
       </c>
       <c r="G60" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H60" s="26"/>
       <c r="I60" s="37"/>
@@ -8569,26 +7846,16 @@
       <c r="AA60" s="37"/>
       <c r="AB60" s="37"/>
     </row>
-    <row r="61" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14"/>
-      <c r="B61" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="E61" s="30">
-        <v>1</v>
-      </c>
-      <c r="F61" s="31">
-        <v>43886</v>
-      </c>
-      <c r="G61" s="32">
-        <v>1</v>
-      </c>
+      <c r="B61" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="32"/>
       <c r="H61" s="26"/>
       <c r="I61" s="37"/>
       <c r="J61" s="37"/>
@@ -8614,12 +7881,16 @@
     <row r="62" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14"/>
       <c r="B62" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
+        <v>83</v>
+      </c>
+      <c r="C62" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>46</v>
+      </c>
       <c r="E62" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="31">
         <v>43897</v>
@@ -8649,16 +7920,26 @@
       <c r="AA62" s="37"/>
       <c r="AB62" s="37"/>
     </row>
-    <row r="63" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14"/>
-      <c r="B63" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="32"/>
+      <c r="B63" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E63" s="30">
+        <v>1</v>
+      </c>
+      <c r="F63" s="31">
+        <v>43886</v>
+      </c>
+      <c r="G63" s="32">
+        <v>1</v>
+      </c>
       <c r="H63" s="26"/>
       <c r="I63" s="37"/>
       <c r="J63" s="37"/>
@@ -8684,22 +7965,20 @@
     <row r="64" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14"/>
       <c r="B64" s="53" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C64" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="33" t="s">
-        <v>46</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D64" s="33"/>
       <c r="E64" s="30">
+        <v>0</v>
+      </c>
+      <c r="F64" s="31">
+        <v>43897</v>
+      </c>
+      <c r="G64" s="32">
         <v>1</v>
-      </c>
-      <c r="F64" s="51">
-        <v>43885</v>
-      </c>
-      <c r="G64" s="32">
-        <v>2</v>
       </c>
       <c r="H64" s="26"/>
       <c r="I64" s="37"/>
@@ -8723,26 +8002,16 @@
       <c r="AA64" s="37"/>
       <c r="AB64" s="37"/>
     </row>
-    <row r="65" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14"/>
-      <c r="B65" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="C65" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E65" s="30">
-        <v>0.35</v>
-      </c>
-      <c r="F65" s="31">
-        <v>43894</v>
-      </c>
-      <c r="G65" s="32">
-        <v>2</v>
-      </c>
+      <c r="B65" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="32"/>
       <c r="H65" s="26"/>
       <c r="I65" s="37"/>
       <c r="J65" s="37"/>
@@ -8765,14 +8034,26 @@
       <c r="AA65" s="37"/>
       <c r="AB65" s="37"/>
     </row>
-    <row r="66" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14"/>
-      <c r="B66" s="50"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="32"/>
+      <c r="B66" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" s="30">
+        <v>1</v>
+      </c>
+      <c r="F66" s="51">
+        <v>43885</v>
+      </c>
+      <c r="G66" s="32">
+        <v>2</v>
+      </c>
       <c r="H66" s="26"/>
       <c r="I66" s="37"/>
       <c r="J66" s="37"/>
@@ -8795,47 +8076,119 @@
       <c r="AA66" s="37"/>
       <c r="AB66" s="37"/>
     </row>
-    <row r="67" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="15" t="s">
+    <row r="67" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="14"/>
+      <c r="B67" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="F67" s="31">
+        <v>43894</v>
+      </c>
+      <c r="G67" s="32">
+        <v>2</v>
+      </c>
+      <c r="H67" s="26"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="37"/>
+      <c r="R67" s="37"/>
+      <c r="S67" s="37"/>
+      <c r="T67" s="37"/>
+      <c r="U67" s="37"/>
+      <c r="V67" s="37"/>
+      <c r="W67" s="37"/>
+      <c r="X67" s="37"/>
+      <c r="Y67" s="37"/>
+      <c r="Z67" s="37"/>
+      <c r="AA67" s="37"/>
+      <c r="AB67" s="37"/>
+    </row>
+    <row r="68" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="14"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="37"/>
+      <c r="R68" s="37"/>
+      <c r="S68" s="37"/>
+      <c r="T68" s="37"/>
+      <c r="U68" s="37"/>
+      <c r="V68" s="37"/>
+      <c r="W68" s="37"/>
+      <c r="X68" s="37"/>
+      <c r="Y68" s="37"/>
+      <c r="Z68" s="37"/>
+      <c r="AA68" s="37"/>
+      <c r="AB68" s="37"/>
+    </row>
+    <row r="69" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="B69" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="36"/>
-      <c r="L67" s="36"/>
-      <c r="M67" s="36"/>
-      <c r="N67" s="36"/>
-      <c r="O67" s="36"/>
-      <c r="P67" s="36"/>
-      <c r="Q67" s="36"/>
-      <c r="R67" s="36"/>
-      <c r="S67" s="36"/>
-      <c r="T67" s="36"/>
-      <c r="U67" s="36"/>
-      <c r="V67" s="36"/>
-      <c r="W67" s="36"/>
-      <c r="X67" s="36"/>
-      <c r="Y67" s="36"/>
-      <c r="Z67" s="36"/>
-      <c r="AA67" s="36"/>
-      <c r="AB67" s="36"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="36"/>
+      <c r="O69" s="36"/>
+      <c r="P69" s="36"/>
+      <c r="Q69" s="36"/>
+      <c r="R69" s="36"/>
+      <c r="S69" s="36"/>
+      <c r="T69" s="36"/>
+      <c r="U69" s="36"/>
+      <c r="V69" s="36"/>
+      <c r="W69" s="36"/>
+      <c r="X69" s="36"/>
+      <c r="Y69" s="36"/>
+      <c r="Z69" s="36"/>
+      <c r="AA69" s="36"/>
+      <c r="AB69" s="36"/>
     </row>
-    <row r="68" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D68" s="5"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="4"/>
+    <row r="70" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D70" s="5"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="4"/>
     </row>
-    <row r="69" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D69" s="6"/>
+    <row r="71" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D71" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8849,7 +8202,7 @@
     <mergeCell ref="U2:Y2"/>
   </mergeCells>
   <conditionalFormatting sqref="E11:E13 E16 E18 E32 E7:E9 E21 E23">
-    <cfRule type="dataBar" priority="665">
+    <cfRule type="dataBar" priority="692">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8862,50 +8215,50 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:AA13 I16:AA16 I18:AA18 I32:AA32 I21:AA21 I23:AA23 I67:AA67">
-    <cfRule type="expression" dxfId="147" priority="658">
+  <conditionalFormatting sqref="I5:AA13 I16:AA16 I18:AA18 I32:AA32 I21:AA21 I23:AA23 I69:AA69">
+    <cfRule type="expression" dxfId="112" priority="685">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:AB4">
-    <cfRule type="expression" dxfId="146" priority="664">
+    <cfRule type="expression" dxfId="111" priority="691">
       <formula>I$5&lt;=EOMONTH($I$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:AB4">
-    <cfRule type="expression" dxfId="145" priority="660">
+    <cfRule type="expression" dxfId="110" priority="687">
       <formula>AND(J$5&lt;=EOMONTH($I$5,2),J$5&gt;EOMONTH($I$5,0),J$5&gt;EOMONTH($I$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:AB4">
-    <cfRule type="expression" dxfId="144" priority="659">
+    <cfRule type="expression" dxfId="109" priority="686">
       <formula>AND(I$5&lt;=EOMONTH($I$5,1),I$5&gt;EOMONTH($I$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:AB13 I16:AB16 I18:AB18 I26:AB42 I56:AB66 I44:AB54">
-    <cfRule type="expression" dxfId="143" priority="681" stopIfTrue="1">
+  <conditionalFormatting sqref="I8:AB13 I16:AB16 I22:AB22 I18:AB20 I58:AB68 I24:AB43 I45:AB56">
+    <cfRule type="expression" dxfId="108" priority="708" stopIfTrue="1">
       <formula>AND($C8="Risque faible",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="700" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="727" stopIfTrue="1">
       <formula>AND($C8="Risque élevé",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="718" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="745" stopIfTrue="1">
       <formula>AND($C8="En bonne voie",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="719" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="746" stopIfTrue="1">
       <formula>AND($C8="Risque moyen",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="720" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="747" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB5:AB13 AB16 AB18 AB32 AB21 AB23 AB67">
-    <cfRule type="expression" dxfId="138" priority="729">
+  <conditionalFormatting sqref="AB5:AB13 AB16 AB18 AB32 AB21 AB23 AB69">
+    <cfRule type="expression" dxfId="103" priority="756">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="dataBar" priority="650">
+    <cfRule type="dataBar" priority="677">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8919,7 +8272,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="dataBar" priority="641">
+    <cfRule type="dataBar" priority="668">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8933,34 +8286,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:AA14">
-    <cfRule type="expression" dxfId="137" priority="640">
+    <cfRule type="expression" dxfId="102" priority="667">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:AB14">
-    <cfRule type="expression" dxfId="136" priority="642" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="669" stopIfTrue="1">
       <formula>AND($C14="Risque faible",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="643" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="670" stopIfTrue="1">
       <formula>AND($C14="Risque élevé",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="644" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="671" stopIfTrue="1">
       <formula>AND($C14="En bonne voie",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="645" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="672" stopIfTrue="1">
       <formula>AND($C14="Risque moyen",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="646" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="673" stopIfTrue="1">
       <formula>AND(LEN($C14)=0,I$5&gt;=$F14,I$5&lt;=$F14+$G14-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB14">
-    <cfRule type="expression" dxfId="131" priority="647">
+    <cfRule type="expression" dxfId="96" priority="674">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="dataBar" priority="632">
+    <cfRule type="dataBar" priority="659">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8974,34 +8327,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:AA15">
-    <cfRule type="expression" dxfId="130" priority="631">
+    <cfRule type="expression" dxfId="95" priority="658">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:AB15">
-    <cfRule type="expression" dxfId="129" priority="633" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="660" stopIfTrue="1">
       <formula>AND($C15="Risque faible",I$5&gt;=$F15,I$5&lt;=$F15+$G15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="634" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="661" stopIfTrue="1">
       <formula>AND($C15="Risque élevé",I$5&gt;=$F15,I$5&lt;=$F15+$G15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="635" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="662" stopIfTrue="1">
       <formula>AND($C15="En bonne voie",I$5&gt;=$F15,I$5&lt;=$F15+$G15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="636" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="663" stopIfTrue="1">
       <formula>AND($C15="Risque moyen",I$5&gt;=$F15,I$5&lt;=$F15+$G15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="637" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="664" stopIfTrue="1">
       <formula>AND(LEN($C15)=0,I$5&gt;=$F15,I$5&lt;=$F15+$G15-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB15">
-    <cfRule type="expression" dxfId="124" priority="638">
+    <cfRule type="expression" dxfId="89" priority="665">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="dataBar" priority="623">
+    <cfRule type="dataBar" priority="650">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9015,34 +8368,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:AA17">
-    <cfRule type="expression" dxfId="123" priority="622">
+    <cfRule type="expression" dxfId="88" priority="649">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:AB17">
-    <cfRule type="expression" dxfId="122" priority="624" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="651" stopIfTrue="1">
       <formula>AND($C17="Risque faible",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="625" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="652" stopIfTrue="1">
       <formula>AND($C17="Risque élevé",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="626" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="653" stopIfTrue="1">
       <formula>AND($C17="En bonne voie",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="627" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="654" stopIfTrue="1">
       <formula>AND($C17="Risque moyen",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="628" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="655" stopIfTrue="1">
       <formula>AND(LEN($C17)=0,I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB17">
-    <cfRule type="expression" dxfId="117" priority="629">
+    <cfRule type="expression" dxfId="82" priority="656">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="dataBar" priority="614">
+    <cfRule type="dataBar" priority="641">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9056,17 +8409,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:AA27">
-    <cfRule type="expression" dxfId="116" priority="613">
+    <cfRule type="expression" dxfId="81" priority="640">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB27">
-    <cfRule type="expression" dxfId="115" priority="620">
+    <cfRule type="expression" dxfId="80" priority="647">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="dataBar" priority="605">
+    <cfRule type="dataBar" priority="632">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9080,17 +8433,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:AA30">
-    <cfRule type="expression" dxfId="114" priority="604">
+    <cfRule type="expression" dxfId="79" priority="631">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB30">
-    <cfRule type="expression" dxfId="113" priority="611">
+    <cfRule type="expression" dxfId="78" priority="638">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="dataBar" priority="596">
+  <conditionalFormatting sqref="E35">
+    <cfRule type="dataBar" priority="623">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9103,48 +8456,48 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34:AA34">
-    <cfRule type="expression" dxfId="112" priority="595">
+  <conditionalFormatting sqref="I35:AA35">
+    <cfRule type="expression" dxfId="77" priority="622">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB34">
-    <cfRule type="expression" dxfId="111" priority="602">
+  <conditionalFormatting sqref="AB35">
+    <cfRule type="expression" dxfId="76" priority="629">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:AA40 I43:AA43 I45:AA45">
-    <cfRule type="expression" dxfId="110" priority="577">
+  <conditionalFormatting sqref="I41:AA41 I44:AA44 I46:AA46">
+    <cfRule type="expression" dxfId="75" priority="604">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB40 AB43 AB45">
-    <cfRule type="expression" dxfId="109" priority="584">
+  <conditionalFormatting sqref="AB41 AB44 AB46">
+    <cfRule type="expression" dxfId="74" priority="611">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:AA55">
-    <cfRule type="expression" dxfId="108" priority="559">
+  <conditionalFormatting sqref="I57:AA57">
+    <cfRule type="expression" dxfId="73" priority="586">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB55">
-    <cfRule type="expression" dxfId="107" priority="566">
+  <conditionalFormatting sqref="AB57">
+    <cfRule type="expression" dxfId="72" priority="593">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:AA58">
-    <cfRule type="expression" dxfId="106" priority="550">
+  <conditionalFormatting sqref="I60:AA60">
+    <cfRule type="expression" dxfId="71" priority="577">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB58">
-    <cfRule type="expression" dxfId="105" priority="557">
+  <conditionalFormatting sqref="AB60">
+    <cfRule type="expression" dxfId="70" priority="584">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="dataBar" priority="549">
+  <conditionalFormatting sqref="E41">
+    <cfRule type="dataBar" priority="576">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9157,8 +8510,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="dataBar" priority="548">
+  <conditionalFormatting sqref="E44">
+    <cfRule type="dataBar" priority="575">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9171,8 +8524,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="dataBar" priority="547">
+  <conditionalFormatting sqref="E46">
+    <cfRule type="dataBar" priority="574">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9185,8 +8538,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="dataBar" priority="544">
+  <conditionalFormatting sqref="E57">
+    <cfRule type="dataBar" priority="571">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9199,8 +8552,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="dataBar" priority="543">
+  <conditionalFormatting sqref="E60">
+    <cfRule type="dataBar" priority="570">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9213,8 +8566,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="dataBar" priority="535">
+  <conditionalFormatting sqref="E53">
+    <cfRule type="dataBar" priority="562">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9227,28 +8580,28 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51:AA51">
-    <cfRule type="expression" dxfId="104" priority="534">
+  <conditionalFormatting sqref="I53:AA53">
+    <cfRule type="expression" dxfId="69" priority="561">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB51">
-    <cfRule type="expression" dxfId="103" priority="541">
+  <conditionalFormatting sqref="AB53">
+    <cfRule type="expression" dxfId="68" priority="568">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:AA52">
-    <cfRule type="expression" dxfId="102" priority="526">
+  <conditionalFormatting sqref="I54:AA54">
+    <cfRule type="expression" dxfId="67" priority="553">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB52">
-    <cfRule type="expression" dxfId="101" priority="532">
+  <conditionalFormatting sqref="AB54">
+    <cfRule type="expression" dxfId="66" priority="559">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="dataBar" priority="525">
+  <conditionalFormatting sqref="E54">
+    <cfRule type="dataBar" priority="552">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9262,7 +8615,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="dataBar" priority="517">
+    <cfRule type="dataBar" priority="544">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9276,17 +8629,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:AA31">
-    <cfRule type="expression" dxfId="100" priority="516">
+    <cfRule type="expression" dxfId="65" priority="543">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB31">
-    <cfRule type="expression" dxfId="99" priority="523">
+    <cfRule type="expression" dxfId="64" priority="550">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="dataBar" priority="508">
+  <conditionalFormatting sqref="E33:E34">
+    <cfRule type="dataBar" priority="535">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9299,18 +8652,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:AA33">
-    <cfRule type="expression" dxfId="98" priority="507">
+  <conditionalFormatting sqref="I33:AA34">
+    <cfRule type="expression" dxfId="63" priority="534">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB33">
-    <cfRule type="expression" dxfId="97" priority="514">
+  <conditionalFormatting sqref="AB33:AB34">
+    <cfRule type="expression" dxfId="62" priority="541">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="dataBar" priority="499">
+    <cfRule type="dataBar" priority="526">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9324,51 +8677,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:AA19">
-    <cfRule type="expression" dxfId="96" priority="498">
+    <cfRule type="expression" dxfId="61" priority="525">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:AB19">
-    <cfRule type="expression" dxfId="95" priority="500" stopIfTrue="1">
-      <formula>AND($C19="Risque faible",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="501" stopIfTrue="1">
-      <formula>AND($C19="Risque élevé",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="502" stopIfTrue="1">
-      <formula>AND($C19="En bonne voie",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="503" stopIfTrue="1">
-      <formula>AND($C19="Risque moyen",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="504" stopIfTrue="1">
-      <formula>AND(LEN($C19)=0,I$5&gt;=$F19,I$5&lt;=$F19+$G19-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AB19">
-    <cfRule type="expression" dxfId="90" priority="505">
+    <cfRule type="expression" dxfId="60" priority="532">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:AB21 I43:AB43 I55:AB55">
-    <cfRule type="expression" dxfId="89" priority="783" stopIfTrue="1">
+  <conditionalFormatting sqref="I21:AB21 I44:AB44 I57:AB57">
+    <cfRule type="expression" dxfId="59" priority="810" stopIfTrue="1">
       <formula>AND($C21="Risque faible",I$5&gt;=$F22,I$5&lt;=$F22+$G21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="784" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="811" stopIfTrue="1">
       <formula>AND($C21="Risque élevé",I$5&gt;=$F22,I$5&lt;=$F22+$G21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="785" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="812" stopIfTrue="1">
       <formula>AND($C21="En bonne voie",I$5&gt;=$F22,I$5&lt;=$F22+$G21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="786" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="813" stopIfTrue="1">
       <formula>AND($C21="Risque moyen",I$5&gt;=$F22,I$5&lt;=$F22+$G21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="787" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="814" stopIfTrue="1">
       <formula>AND(LEN($C21)=0,I$5&gt;=$F22,I$5&lt;=$F22+$G21-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="dataBar" priority="427">
+  <conditionalFormatting sqref="E36">
+    <cfRule type="dataBar" priority="454">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9381,18 +8717,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:AA35">
-    <cfRule type="expression" dxfId="84" priority="426">
+  <conditionalFormatting sqref="I36:AA36">
+    <cfRule type="expression" dxfId="54" priority="453">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB35">
-    <cfRule type="expression" dxfId="83" priority="433">
+  <conditionalFormatting sqref="AB36">
+    <cfRule type="expression" dxfId="53" priority="460">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="dataBar" priority="381">
+    <cfRule type="dataBar" priority="408">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9406,12 +8742,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:AA22">
-    <cfRule type="expression" dxfId="82" priority="380">
+    <cfRule type="expression" dxfId="52" priority="407">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E29">
-    <cfRule type="dataBar" priority="399">
+    <cfRule type="dataBar" priority="426">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9425,17 +8761,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:AA29">
-    <cfRule type="expression" dxfId="81" priority="398">
+    <cfRule type="expression" dxfId="51" priority="425">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB28:AB29">
-    <cfRule type="expression" dxfId="80" priority="405">
+    <cfRule type="expression" dxfId="50" priority="432">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="dataBar" priority="390">
+    <cfRule type="dataBar" priority="417">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9449,39 +8785,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:AA26">
-    <cfRule type="expression" dxfId="79" priority="389">
+    <cfRule type="expression" dxfId="49" priority="416">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB26">
-    <cfRule type="expression" dxfId="78" priority="396">
+    <cfRule type="expression" dxfId="48" priority="423">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:AB22">
-    <cfRule type="expression" dxfId="77" priority="382" stopIfTrue="1">
-      <formula>AND($C22="Risque faible",I$5&gt;=$F22,I$5&lt;=$F22+$G22-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="383" stopIfTrue="1">
-      <formula>AND($C22="Risque élevé",I$5&gt;=$F22,I$5&lt;=$F22+$G22-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="384" stopIfTrue="1">
-      <formula>AND($C22="En bonne voie",I$5&gt;=$F22,I$5&lt;=$F22+$G22-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="385" stopIfTrue="1">
-      <formula>AND($C22="Risque moyen",I$5&gt;=$F22,I$5&lt;=$F22+$G22-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="386" stopIfTrue="1">
-      <formula>AND(LEN($C22)=0,I$5&gt;=$F22,I$5&lt;=$F22+$G22-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AB22">
-    <cfRule type="expression" dxfId="72" priority="387">
+    <cfRule type="expression" dxfId="47" priority="414">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="dataBar" priority="372">
+    <cfRule type="dataBar" priority="399">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9495,34 +8814,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:AA20">
-    <cfRule type="expression" dxfId="71" priority="371">
+    <cfRule type="expression" dxfId="46" priority="398">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:AB20">
-    <cfRule type="expression" dxfId="70" priority="373" stopIfTrue="1">
-      <formula>AND($C20="Risque faible",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="374" stopIfTrue="1">
-      <formula>AND($C20="Risque élevé",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="375" stopIfTrue="1">
-      <formula>AND($C20="En bonne voie",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="376" stopIfTrue="1">
-      <formula>AND($C20="Risque moyen",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="377" stopIfTrue="1">
-      <formula>AND(LEN($C20)=0,I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AB20">
-    <cfRule type="expression" dxfId="65" priority="378">
+    <cfRule type="expression" dxfId="45" priority="405">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41:E42">
-    <cfRule type="dataBar" priority="309">
+  <conditionalFormatting sqref="E42:E43">
+    <cfRule type="dataBar" priority="336">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9535,13 +8837,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:AA42">
-    <cfRule type="expression" dxfId="64" priority="308">
+  <conditionalFormatting sqref="I42:AA43">
+    <cfRule type="expression" dxfId="44" priority="335">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37:E38">
-    <cfRule type="dataBar" priority="327">
+  <conditionalFormatting sqref="E38:E39">
+    <cfRule type="dataBar" priority="354">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9554,23 +8856,23 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:AA38">
-    <cfRule type="expression" dxfId="63" priority="326">
+  <conditionalFormatting sqref="I38:AA39">
+    <cfRule type="expression" dxfId="43" priority="353">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB37:AB38">
-    <cfRule type="expression" dxfId="62" priority="333">
+  <conditionalFormatting sqref="AB38:AB39">
+    <cfRule type="expression" dxfId="42" priority="360">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB41:AB42">
-    <cfRule type="expression" dxfId="61" priority="315">
+  <conditionalFormatting sqref="AB42:AB43">
+    <cfRule type="expression" dxfId="41" priority="342">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E48">
-    <cfRule type="dataBar" priority="300">
+  <conditionalFormatting sqref="E47:E49">
+    <cfRule type="dataBar" priority="327">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9583,28 +8885,28 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:AA48">
-    <cfRule type="expression" dxfId="60" priority="299">
+  <conditionalFormatting sqref="I47:AA49">
+    <cfRule type="expression" dxfId="40" priority="326">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB46:AB48">
-    <cfRule type="expression" dxfId="59" priority="306">
+  <conditionalFormatting sqref="AB47:AB49">
+    <cfRule type="expression" dxfId="39" priority="333">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:AA36">
-    <cfRule type="expression" dxfId="58" priority="282">
+  <conditionalFormatting sqref="I37:AA37">
+    <cfRule type="expression" dxfId="38" priority="309">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB36">
-    <cfRule type="expression" dxfId="57" priority="283">
+  <conditionalFormatting sqref="AB37">
+    <cfRule type="expression" dxfId="37" priority="310">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="dataBar" priority="281">
+  <conditionalFormatting sqref="E37">
+    <cfRule type="dataBar" priority="308">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9617,8 +8919,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="dataBar" priority="273">
+  <conditionalFormatting sqref="E40">
+    <cfRule type="dataBar" priority="300">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9631,18 +8933,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:AA39">
-    <cfRule type="expression" dxfId="56" priority="272">
+  <conditionalFormatting sqref="I40:AA40">
+    <cfRule type="expression" dxfId="36" priority="299">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB39">
-    <cfRule type="expression" dxfId="55" priority="279">
+  <conditionalFormatting sqref="AB40">
+    <cfRule type="expression" dxfId="35" priority="306">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E50">
-    <cfRule type="dataBar" priority="255">
+  <conditionalFormatting sqref="E50:E52">
+    <cfRule type="dataBar" priority="282">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9655,18 +8957,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:AA50">
-    <cfRule type="expression" dxfId="54" priority="254">
+  <conditionalFormatting sqref="I50:AA52">
+    <cfRule type="expression" dxfId="34" priority="281">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB49:AB50">
-    <cfRule type="expression" dxfId="53" priority="261">
+  <conditionalFormatting sqref="AB50:AB52">
+    <cfRule type="expression" dxfId="33" priority="288">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53:E54">
-    <cfRule type="dataBar" priority="246">
+  <conditionalFormatting sqref="E55:E56">
+    <cfRule type="dataBar" priority="273">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9679,18 +8981,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:AA54">
-    <cfRule type="expression" dxfId="52" priority="245">
+  <conditionalFormatting sqref="I55:AA56">
+    <cfRule type="expression" dxfId="32" priority="272">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB53:AB54">
-    <cfRule type="expression" dxfId="51" priority="252">
+  <conditionalFormatting sqref="AB55:AB56">
+    <cfRule type="expression" dxfId="31" priority="279">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="dataBar" priority="191">
+  <conditionalFormatting sqref="E58">
+    <cfRule type="dataBar" priority="218">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9703,13 +9005,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:AA56">
-    <cfRule type="expression" dxfId="50" priority="190">
+  <conditionalFormatting sqref="I58:AA58">
+    <cfRule type="expression" dxfId="30" priority="217">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="dataBar" priority="200">
+  <conditionalFormatting sqref="E59">
+    <cfRule type="dataBar" priority="227">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9722,33 +9024,33 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57:AA57">
-    <cfRule type="expression" dxfId="49" priority="199">
+  <conditionalFormatting sqref="I59:AA59">
+    <cfRule type="expression" dxfId="29" priority="226">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB57">
-    <cfRule type="expression" dxfId="48" priority="206">
+  <conditionalFormatting sqref="AB59">
+    <cfRule type="expression" dxfId="28" priority="233">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB56">
-    <cfRule type="expression" dxfId="47" priority="192">
+  <conditionalFormatting sqref="AB58">
+    <cfRule type="expression" dxfId="27" priority="219">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB59">
-    <cfRule type="expression" dxfId="46" priority="138">
+  <conditionalFormatting sqref="AB61">
+    <cfRule type="expression" dxfId="26" priority="165">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59:AA59">
-    <cfRule type="expression" dxfId="45" priority="137">
+  <conditionalFormatting sqref="I61:AA61">
+    <cfRule type="expression" dxfId="25" priority="164">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="dataBar" priority="136">
+  <conditionalFormatting sqref="E61">
+    <cfRule type="dataBar" priority="163">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9761,8 +9063,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E61">
-    <cfRule type="dataBar" priority="92">
+  <conditionalFormatting sqref="E62:E63">
+    <cfRule type="dataBar" priority="119">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9775,28 +9077,28 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60:AA61">
-    <cfRule type="expression" dxfId="44" priority="91">
+  <conditionalFormatting sqref="I62:AA63">
+    <cfRule type="expression" dxfId="24" priority="118">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB60:AB61">
-    <cfRule type="expression" dxfId="43" priority="93">
+  <conditionalFormatting sqref="AB62:AB63">
+    <cfRule type="expression" dxfId="23" priority="120">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:AA63">
-    <cfRule type="expression" dxfId="42" priority="74">
+  <conditionalFormatting sqref="I65:AA65">
+    <cfRule type="expression" dxfId="22" priority="101">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB62">
-    <cfRule type="expression" dxfId="41" priority="84">
+  <conditionalFormatting sqref="AB64">
+    <cfRule type="expression" dxfId="21" priority="111">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="dataBar" priority="73">
+  <conditionalFormatting sqref="E65">
+    <cfRule type="dataBar" priority="100">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9809,8 +9111,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="dataBar" priority="83">
+  <conditionalFormatting sqref="E64">
+    <cfRule type="dataBar" priority="110">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9823,18 +9125,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62:AA62">
-    <cfRule type="expression" dxfId="40" priority="82">
+  <conditionalFormatting sqref="I64:AA64">
+    <cfRule type="expression" dxfId="20" priority="109">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB63">
-    <cfRule type="expression" dxfId="39" priority="75">
+  <conditionalFormatting sqref="AB65">
+    <cfRule type="expression" dxfId="19" priority="102">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="dataBar" priority="65">
+  <conditionalFormatting sqref="E66">
+    <cfRule type="dataBar" priority="92">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9847,18 +9149,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64:AA64">
-    <cfRule type="expression" dxfId="38" priority="64">
+  <conditionalFormatting sqref="I66:AA66">
+    <cfRule type="expression" dxfId="18" priority="91">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB64">
-    <cfRule type="expression" dxfId="37" priority="66">
+  <conditionalFormatting sqref="AB66">
+    <cfRule type="expression" dxfId="17" priority="93">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="dataBar" priority="56">
+  <conditionalFormatting sqref="E67">
+    <cfRule type="dataBar" priority="83">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9871,23 +9173,23 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I65:AA65">
-    <cfRule type="expression" dxfId="36" priority="55">
+  <conditionalFormatting sqref="I67:AA67">
+    <cfRule type="expression" dxfId="16" priority="82">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB65">
-    <cfRule type="expression" dxfId="35" priority="57">
+  <conditionalFormatting sqref="AB67">
+    <cfRule type="expression" dxfId="15" priority="84">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66:AA66">
-    <cfRule type="expression" dxfId="34" priority="47">
+  <conditionalFormatting sqref="I68:AA68">
+    <cfRule type="expression" dxfId="14" priority="74">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="dataBar" priority="46">
+  <conditionalFormatting sqref="E68">
+    <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9900,13 +9202,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB66">
-    <cfRule type="expression" dxfId="33" priority="48">
+  <conditionalFormatting sqref="AB68">
+    <cfRule type="expression" dxfId="13" priority="75">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="dataBar" priority="29">
+  <conditionalFormatting sqref="E45">
+    <cfRule type="dataBar" priority="56">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9919,52 +9221,35 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:AA44">
-    <cfRule type="expression" dxfId="32" priority="28">
+  <conditionalFormatting sqref="I45:AA45">
+    <cfRule type="expression" dxfId="12" priority="55">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB44">
-    <cfRule type="expression" dxfId="31" priority="35">
+  <conditionalFormatting sqref="AB45">
+    <cfRule type="expression" dxfId="11" priority="62">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:AB23">
-    <cfRule type="expression" dxfId="28" priority="968" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="995" stopIfTrue="1">
       <formula>AND($C23="Risque faible",I$5&gt;=$F25,I$5&lt;=$F25+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="969" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="996" stopIfTrue="1">
       <formula>AND($C23="Risque élevé",I$5&gt;=$F25,I$5&lt;=$F25+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="970" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="997" stopIfTrue="1">
       <formula>AND($C23="En bonne voie",I$5&gt;=$F25,I$5&lt;=$F25+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="971" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="998" stopIfTrue="1">
       <formula>AND($C23="Risque moyen",I$5&gt;=$F25,I$5&lt;=$F25+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="972" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="999" stopIfTrue="1">
       <formula>AND(LEN($C23)=0,I$5&gt;=$F25,I$5&lt;=$F25+$G23-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24:AB25">
-    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
-      <formula>AND($C24="Risque faible",I$5&gt;=$F24,I$5&lt;=$F24+$G24-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
-      <formula>AND($C24="Risque élevé",I$5&gt;=$F24,I$5&lt;=$F24+$G24-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
-      <formula>AND($C24="En bonne voie",I$5&gt;=$F24,I$5&lt;=$F24+$G24-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8" stopIfTrue="1">
-      <formula>AND($C24="Risque moyen",I$5&gt;=$F24,I$5&lt;=$F24+$G24-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="9" stopIfTrue="1">
-      <formula>AND(LEN($C24)=0,I$5&gt;=$F24,I$5&lt;=$F24+$G24-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E24:E25">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9978,11 +9263,59 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:AA25">
+    <cfRule type="expression" dxfId="5" priority="28">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB24:AB25">
+    <cfRule type="expression" dxfId="4" priority="30">
+      <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A63CCB1F-A7A9-FB4D-96BE-C68735FCF745}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52:AA52">
+    <cfRule type="expression" dxfId="3" priority="10">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB52">
+    <cfRule type="expression" dxfId="2" priority="12">
+      <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{77136285-CE6D-CC44-A948-A1CCC3E96272}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:AA34">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB24:AB25">
+  <conditionalFormatting sqref="AB34">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
@@ -9991,7 +9324,7 @@
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="F4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C44:C66 C9:C42" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45:C68 C9:C35 C36:C43" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Objectif,Jalon,En bonne voie, Risque faible, Risque moyen, Risque élevé"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10125,7 +9458,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E34</xm:sqref>
+          <xm:sqref>E35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AD70BCA6-5622-4695-84FB-2AAECD02A5DE}">
@@ -10140,7 +9473,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E40</xm:sqref>
+          <xm:sqref>E41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3CBDDACF-FC7C-45F6-95D1-5DBA8E4A1D55}">
@@ -10155,7 +9488,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E43</xm:sqref>
+          <xm:sqref>E44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{144DEF8C-605F-43FE-9524-61F2ABA96716}">
@@ -10170,7 +9503,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E45</xm:sqref>
+          <xm:sqref>E46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9F370AF9-74B8-44C8-9022-14C9EE62E0ED}">
@@ -10185,7 +9518,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E55</xm:sqref>
+          <xm:sqref>E57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7919DF62-4435-4B9E-B9D5-9E65B546E4A6}">
@@ -10200,7 +9533,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E58</xm:sqref>
+          <xm:sqref>E60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E3BFE576-8AFE-CF47-84D7-9B6AFF36E0D2}">
@@ -10215,7 +9548,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E51</xm:sqref>
+          <xm:sqref>E53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DA161F4D-BE9C-5942-811B-5A06F9BE9035}">
@@ -10230,7 +9563,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E52</xm:sqref>
+          <xm:sqref>E54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B7458B1E-89A7-4035-AAD0-B4EF57EC5395}">
@@ -10260,7 +9593,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E33</xm:sqref>
+          <xm:sqref>E33:E34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{55FDD253-E1AD-46E7-B4B2-049EF2039EEC}">
@@ -10290,7 +9623,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E35</xm:sqref>
+          <xm:sqref>E36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2A646182-6DCD-41D3-B1FC-FD0BD97E7EB4}">
@@ -10365,7 +9698,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E41:E42</xm:sqref>
+          <xm:sqref>E42:E43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4B6A1F15-41AD-46DB-A0E2-CC6291CEB3B9}">
@@ -10380,7 +9713,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E37:E38</xm:sqref>
+          <xm:sqref>E38:E39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E50629AE-4ED2-45DA-B67C-3CEE49679E5F}">
@@ -10395,7 +9728,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E46:E48</xm:sqref>
+          <xm:sqref>E47:E49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{60857565-07DD-43B4-A08A-A9316D4E4223}">
@@ -10410,7 +9743,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E36</xm:sqref>
+          <xm:sqref>E37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F397BBBD-F9C4-49C1-9309-39EACB50A4EC}">
@@ -10425,7 +9758,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E39</xm:sqref>
+          <xm:sqref>E40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{12C5A9C6-10DB-49E8-9E4B-D2B7F47D4CF9}">
@@ -10440,7 +9773,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E49:E50</xm:sqref>
+          <xm:sqref>E50:E52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C06F97DA-CE73-4EC6-A05B-B1FB73BB5B34}">
@@ -10455,7 +9788,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E53:E54</xm:sqref>
+          <xm:sqref>E55:E56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6D0B9FB5-F9CE-42AC-9D63-CA5848E39A6E}">
@@ -10470,25 +9803,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E56</xm:sqref>
+          <xm:sqref>E58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5956CA58-EF61-4E17-99E7-3B18CA15DB7F}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E57</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C0E29D5B-20CB-4D30-948E-E90BE31F636D}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10503,7 +9821,7 @@
           <xm:sqref>E59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7BA5B507-194D-462E-8E0D-BA9490DDCB82}">
+          <x14:cfRule type="dataBar" id="{C0E29D5B-20CB-4D30-948E-E90BE31F636D}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10515,7 +9833,22 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E60:E61</xm:sqref>
+          <xm:sqref>E61</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7BA5B507-194D-462E-8E0D-BA9490DDCB82}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E62:E63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EE2A084F-CD4E-443B-9F05-519A4985B074}">
@@ -10530,25 +9863,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E63</xm:sqref>
+          <xm:sqref>E65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{55E82E44-C53D-446A-B47E-A546B864BBFA}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E62</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FDCCC79C-CD8C-4140-A8D0-A0ED96E46894}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10563,22 +9881,7 @@
           <xm:sqref>E64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D0DD4C81-866F-4BBC-9627-C8F89D3E1C16}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E65</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C019EDF8-0993-4E6F-BBC6-62A4A373AC33}">
+          <x14:cfRule type="dataBar" id="{FDCCC79C-CD8C-4140-A8D0-A0ED96E46894}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10593,7 +9896,7 @@
           <xm:sqref>E66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{389BAB7B-E22B-E94B-8141-EDDECFB85A8B}">
+          <x14:cfRule type="dataBar" id="{D0DD4C81-866F-4BBC-9627-C8F89D3E1C16}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10605,10 +9908,739 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E44</xm:sqref>
+          <xm:sqref>E67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="759" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="dataBar" id="{C019EDF8-0993-4E6F-BBC6-62A4A373AC33}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E68</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{389BAB7B-E22B-E94B-8141-EDDECFB85A8B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E45</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{205F4948-FD16-E54E-8003-A5E1FCFAC893}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E24:E25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="786" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I69:AB69</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="794" id="{509C0C8D-ECE2-4639-AAFB-0202F8036D5F}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I10:AB10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="675" id="{E20B9330-3E7D-467D-BB97-4945220E838E}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I14:AB14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="666" id="{4D81ECB6-03E5-4CF0-997D-711C08D14695}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I15:AB15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="657" id="{B496B112-22A1-48FA-A15D-192841B88000}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I17:AB17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="648" id="{38C89652-7123-4200-AE3B-B4E0CE5A4B63}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I27:AB27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="639" id="{6E69B1FD-A566-4AF6-B066-C49084DAB989}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I30:AB30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="630" id="{8720D01A-918D-4DAD-A31E-5B3AE4AC4A58}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I35:AB35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="612" id="{B4E75299-C05E-442C-B2C9-B5ED5412E9F6}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I41:AB41 I44:AB44 I46:AB46</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="594" id="{7CDB34B2-0FC0-4B9A-9E69-81735F7220E2}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I57:AB57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="569" id="{31C8FE75-F59F-D342-AEE2-B66278EFCAC1}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I53:AB53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="560" id="{1DF787E2-8065-3546-9AF4-433C120E8B43}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I54:AB54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="551" id="{28E3D5FF-7874-452A-A900-6AEA95466C37}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I31:AB31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="542" id="{EC388F78-FEFF-4C31-A322-84A70D95C998}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I33:AB33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="533" id="{771D04B8-E599-4047-9D2C-0D8164B3B415}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I19:AB19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="461" id="{86F81114-0858-46FD-89A5-B77B20D08E09}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I36:AB36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="433" id="{B37227A7-F3EB-494D-BE63-027ED68866C7}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I28:AB29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="424" id="{11F29DBB-9C3A-40BB-A8C9-DD464C4407DD}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I26:AB26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="415" id="{A651CFAC-274C-4A2B-9831-B1A6280A02F5}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I22:AB22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="406" id="{3EB16589-8FA1-40F5-9A1D-03F367216E76}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I20:AB20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="361" id="{3C8C73C2-5882-4D50-A619-E8929324CEEC}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I38:AB39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="343" id="{7E74A7BE-42A4-4086-9DC6-241A23E184DD}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I42:AB43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="334" id="{472C0571-07BE-40E4-9871-D2A65C7AE928}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I47:AB49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="311" id="{3BE21401-6C53-4176-97B2-58F16FBEE64E}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I37:AB37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="307" id="{5854C059-CE8A-46A8-9DE3-850FF95EEC5D}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I40:AB40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="289" id="{35F291B0-AC08-4DEC-AC71-E2527C6395F3}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I50:AB51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="280" id="{63E239F2-C90C-4923-A631-FDFBBBCB6804}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I55:AB56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="822" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I18:AB18 I8:AB9 I11:AB13 I16:AB16 I32:AB32 I21:AB21 I23:AB23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="829" id="{FCA8B08D-F57A-48A9-A135-03AEE1B0E4C5}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I60:AB60</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="234" id="{1BF54B70-B0A3-451B-82EE-99FB2164159D}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I59:AB59</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="220" id="{3E51AEFB-2819-456C-B5A5-4FB3826FC475}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I58:AB58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="166" id="{19020CA2-A634-4E23-B0F2-6254842B5EB1}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I61:AB61</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="121" id="{6235C1BF-8B2E-4174-B0E6-53AF00330DAD}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I62:AB63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="112" id="{92356BE9-F220-4F5F-8C52-37BFD8ADA4D0}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I64:AB64</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="103" id="{094C2F2E-15C4-4206-8A4A-A249309459C8}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I65:AB65</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="94" id="{17BED863-7B80-4A47-B388-C01464071AEA}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I66:AB66</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="85" id="{8987036F-3AE1-4CD0-A7FA-9E6DCDF640DB}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10627,7 +10659,7 @@
           <xm:sqref>I67:AB67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="767" id="{509C0C8D-ECE2-4639-AAFB-0202F8036D5F}">
+          <x14:cfRule type="iconSet" priority="76" id="{E5E94B63-5356-481B-8A1F-AA218FFD91A9}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10643,10 +10675,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I10:AB10</xm:sqref>
+          <xm:sqref>I68:AB68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="648" id="{E20B9330-3E7D-467D-BB97-4945220E838E}">
+          <x14:cfRule type="iconSet" priority="63" id="{7B97A23B-8B89-DC40-9F44-1E113CE2352E}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10662,10 +10694,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I14:AB14</xm:sqref>
+          <xm:sqref>I45:AB45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="639" id="{4D81ECB6-03E5-4CF0-997D-711C08D14695}">
+          <x14:cfRule type="iconSet" priority="31" id="{D9983E9E-BB35-1845-AC55-6F8DF957894B}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10681,143 +10713,25 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I15:AB15</xm:sqref>
+          <xm:sqref>I24:AB25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="630" id="{B496B112-22A1-48FA-A15D-192841B88000}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
+          <x14:cfRule type="dataBar" id="{A63CCB1F-A7A9-FB4D-96BE-C68735FCF745}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
                 <xm:f>0</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
                 <xm:f>1</xm:f>
               </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I17:AB17</xm:sqref>
+          <xm:sqref>E52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="621" id="{38C89652-7123-4200-AE3B-B4E0CE5A4B63}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I27:AB27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="612" id="{6E69B1FD-A566-4AF6-B066-C49084DAB989}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I30:AB30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="603" id="{8720D01A-918D-4DAD-A31E-5B3AE4AC4A58}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I34:AB34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="585" id="{B4E75299-C05E-442C-B2C9-B5ED5412E9F6}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I40:AB40 I43:AB43 I45:AB45</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="567" id="{7CDB34B2-0FC0-4B9A-9E69-81735F7220E2}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I55:AB55</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="542" id="{31C8FE75-F59F-D342-AEE2-B66278EFCAC1}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I51:AB51</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="533" id="{1DF787E2-8065-3546-9AF4-433C120E8B43}">
+          <x14:cfRule type="iconSet" priority="13" id="{E15BFD62-9391-FA42-8B09-20ECBD2428FD}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10836,7 +10750,22 @@
           <xm:sqref>I52:AB52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="524" id="{28E3D5FF-7874-452A-A900-6AEA95466C37}">
+          <x14:cfRule type="dataBar" id="{77136285-CE6D-CC44-A948-A1CCC3E96272}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{A5B4E9B3-6226-4145-BD2D-873C36B43997}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10852,535 +10781,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I31:AB31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="515" id="{EC388F78-FEFF-4C31-A322-84A70D95C998}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I33:AB33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="506" id="{771D04B8-E599-4047-9D2C-0D8164B3B415}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I19:AB19</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="434" id="{86F81114-0858-46FD-89A5-B77B20D08E09}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I35:AB35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="406" id="{B37227A7-F3EB-494D-BE63-027ED68866C7}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I28:AB29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="397" id="{11F29DBB-9C3A-40BB-A8C9-DD464C4407DD}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I26:AB26</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="388" id="{A651CFAC-274C-4A2B-9831-B1A6280A02F5}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I22:AB22</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="379" id="{3EB16589-8FA1-40F5-9A1D-03F367216E76}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I20:AB20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="334" id="{3C8C73C2-5882-4D50-A619-E8929324CEEC}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I37:AB38</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="316" id="{7E74A7BE-42A4-4086-9DC6-241A23E184DD}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I41:AB42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="307" id="{472C0571-07BE-40E4-9871-D2A65C7AE928}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I46:AB48</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="284" id="{3BE21401-6C53-4176-97B2-58F16FBEE64E}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I36:AB36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="280" id="{5854C059-CE8A-46A8-9DE3-850FF95EEC5D}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I39:AB39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="262" id="{35F291B0-AC08-4DEC-AC71-E2527C6395F3}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I49:AB50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="253" id="{63E239F2-C90C-4923-A631-FDFBBBCB6804}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I53:AB54</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="795" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I8:AB9 I11:AB13 I16:AB16 I18:AB18 I32:AB32 I21:AB21 I23:AB23</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="802" id="{FCA8B08D-F57A-48A9-A135-03AEE1B0E4C5}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I58:AB58</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="207" id="{1BF54B70-B0A3-451B-82EE-99FB2164159D}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I57:AB57</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="193" id="{3E51AEFB-2819-456C-B5A5-4FB3826FC475}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I56:AB56</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="139" id="{19020CA2-A634-4E23-B0F2-6254842B5EB1}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I59:AB59</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="94" id="{6235C1BF-8B2E-4174-B0E6-53AF00330DAD}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I60:AB61</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="85" id="{92356BE9-F220-4F5F-8C52-37BFD8ADA4D0}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I62:AB62</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="76" id="{094C2F2E-15C4-4206-8A4A-A249309459C8}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I63:AB63</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="67" id="{17BED863-7B80-4A47-B388-C01464071AEA}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I64:AB64</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="58" id="{8987036F-3AE1-4CD0-A7FA-9E6DCDF640DB}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I65:AB65</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="49" id="{E5E94B63-5356-481B-8A1F-AA218FFD91A9}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I66:AB66</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="36" id="{7B97A23B-8B89-DC40-9F44-1E113CE2352E}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I44:AB44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{205F4948-FD16-E54E-8003-A5E1FCFAC893}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E24:E25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{D9983E9E-BB35-1845-AC55-6F8DF957894B}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I24:AB25</xm:sqref>
+          <xm:sqref>I34:AB34</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Diagramme_de_Gantt.xlsx
+++ b/Diagramme_de_Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ADA830-82B2-FB46-A647-20D7D37A553B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67153CC9-9E1E-BD4A-B685-8F0F2BA4F06D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="94">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -1370,6 +1370,15 @@
   </cellStyles>
   <dxfs count="128">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3429,15 +3438,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -3701,9 +3701,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon" dataDxfId="115"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Catégorie" dataDxfId="114"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à" dataDxfId="113"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Catégorie" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Début" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nombre de jours"/>
@@ -3985,8 +3985,8 @@
   </sheetPr>
   <dimension ref="A1:AB71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A37" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A38" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6798,11 +6798,13 @@
         <v>66</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="33"/>
+        <v>15</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>46</v>
+      </c>
       <c r="E43" s="30">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F43" s="31">
         <v>43894</v>
@@ -7146,11 +7148,13 @@
         <v>71</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="33"/>
+        <v>16</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>46</v>
+      </c>
       <c r="E49" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="31">
         <v>43896</v>
@@ -7728,11 +7732,13 @@
         <v>79</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="33"/>
+        <v>14</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>90</v>
+      </c>
       <c r="E58" s="30">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F58" s="31">
         <v>43894</v>
@@ -8216,44 +8222,44 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:AA13 I16:AA16 I18:AA18 I32:AA32 I21:AA21 I23:AA23 I69:AA69">
-    <cfRule type="expression" dxfId="112" priority="685">
+    <cfRule type="expression" dxfId="115" priority="685">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:AB4">
-    <cfRule type="expression" dxfId="111" priority="691">
+    <cfRule type="expression" dxfId="114" priority="691">
       <formula>I$5&lt;=EOMONTH($I$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:AB4">
-    <cfRule type="expression" dxfId="110" priority="687">
+    <cfRule type="expression" dxfId="113" priority="687">
       <formula>AND(J$5&lt;=EOMONTH($I$5,2),J$5&gt;EOMONTH($I$5,0),J$5&gt;EOMONTH($I$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:AB4">
-    <cfRule type="expression" dxfId="109" priority="686">
+    <cfRule type="expression" dxfId="112" priority="686">
       <formula>AND(I$5&lt;=EOMONTH($I$5,1),I$5&gt;EOMONTH($I$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:AB13 I16:AB16 I22:AB22 I18:AB20 I58:AB68 I24:AB43 I45:AB56">
-    <cfRule type="expression" dxfId="108" priority="708" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="708" stopIfTrue="1">
       <formula>AND($C8="Risque faible",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="727" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="727" stopIfTrue="1">
       <formula>AND($C8="Risque élevé",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="745" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="745" stopIfTrue="1">
       <formula>AND($C8="En bonne voie",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="746" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="746" stopIfTrue="1">
       <formula>AND($C8="Risque moyen",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="747" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="747" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5:AB13 AB16 AB18 AB32 AB21 AB23 AB69">
-    <cfRule type="expression" dxfId="103" priority="756">
+    <cfRule type="expression" dxfId="106" priority="756">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8286,29 +8292,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:AA14">
-    <cfRule type="expression" dxfId="102" priority="667">
+    <cfRule type="expression" dxfId="105" priority="667">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:AB14">
-    <cfRule type="expression" dxfId="101" priority="669" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="669" stopIfTrue="1">
       <formula>AND($C14="Risque faible",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="670" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="670" stopIfTrue="1">
       <formula>AND($C14="Risque élevé",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="671" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="671" stopIfTrue="1">
       <formula>AND($C14="En bonne voie",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="672" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="672" stopIfTrue="1">
       <formula>AND($C14="Risque moyen",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="673" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="673" stopIfTrue="1">
       <formula>AND(LEN($C14)=0,I$5&gt;=$F14,I$5&lt;=$F14+$G14-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB14">
-    <cfRule type="expression" dxfId="96" priority="674">
+    <cfRule type="expression" dxfId="99" priority="674">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8327,29 +8333,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:AA15">
-    <cfRule type="expression" dxfId="95" priority="658">
+    <cfRule type="expression" dxfId="98" priority="658">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:AB15">
-    <cfRule type="expression" dxfId="94" priority="660" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="660" stopIfTrue="1">
       <formula>AND($C15="Risque faible",I$5&gt;=$F15,I$5&lt;=$F15+$G15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="661" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="661" stopIfTrue="1">
       <formula>AND($C15="Risque élevé",I$5&gt;=$F15,I$5&lt;=$F15+$G15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="662" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="662" stopIfTrue="1">
       <formula>AND($C15="En bonne voie",I$5&gt;=$F15,I$5&lt;=$F15+$G15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="663" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="663" stopIfTrue="1">
       <formula>AND($C15="Risque moyen",I$5&gt;=$F15,I$5&lt;=$F15+$G15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="664" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="664" stopIfTrue="1">
       <formula>AND(LEN($C15)=0,I$5&gt;=$F15,I$5&lt;=$F15+$G15-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB15">
-    <cfRule type="expression" dxfId="89" priority="665">
+    <cfRule type="expression" dxfId="92" priority="665">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8368,29 +8374,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:AA17">
-    <cfRule type="expression" dxfId="88" priority="649">
+    <cfRule type="expression" dxfId="91" priority="649">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:AB17">
-    <cfRule type="expression" dxfId="87" priority="651" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="651" stopIfTrue="1">
       <formula>AND($C17="Risque faible",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="652" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="652" stopIfTrue="1">
       <formula>AND($C17="Risque élevé",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="653" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="653" stopIfTrue="1">
       <formula>AND($C17="En bonne voie",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="654" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="654" stopIfTrue="1">
       <formula>AND($C17="Risque moyen",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="655" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="655" stopIfTrue="1">
       <formula>AND(LEN($C17)=0,I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB17">
-    <cfRule type="expression" dxfId="82" priority="656">
+    <cfRule type="expression" dxfId="85" priority="656">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8409,12 +8415,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:AA27">
-    <cfRule type="expression" dxfId="81" priority="640">
+    <cfRule type="expression" dxfId="84" priority="640">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB27">
-    <cfRule type="expression" dxfId="80" priority="647">
+    <cfRule type="expression" dxfId="83" priority="647">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8433,12 +8439,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:AA30">
-    <cfRule type="expression" dxfId="79" priority="631">
+    <cfRule type="expression" dxfId="82" priority="631">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB30">
-    <cfRule type="expression" dxfId="78" priority="638">
+    <cfRule type="expression" dxfId="81" priority="638">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8457,42 +8463,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:AA35">
-    <cfRule type="expression" dxfId="77" priority="622">
+    <cfRule type="expression" dxfId="80" priority="622">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB35">
-    <cfRule type="expression" dxfId="76" priority="629">
+    <cfRule type="expression" dxfId="79" priority="629">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:AA41 I44:AA44 I46:AA46">
-    <cfRule type="expression" dxfId="75" priority="604">
+    <cfRule type="expression" dxfId="78" priority="604">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB41 AB44 AB46">
-    <cfRule type="expression" dxfId="74" priority="611">
+    <cfRule type="expression" dxfId="77" priority="611">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57:AA57">
-    <cfRule type="expression" dxfId="73" priority="586">
+    <cfRule type="expression" dxfId="76" priority="586">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB57">
-    <cfRule type="expression" dxfId="72" priority="593">
+    <cfRule type="expression" dxfId="75" priority="593">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60:AA60">
-    <cfRule type="expression" dxfId="71" priority="577">
+    <cfRule type="expression" dxfId="74" priority="577">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB60">
-    <cfRule type="expression" dxfId="70" priority="584">
+    <cfRule type="expression" dxfId="73" priority="584">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8581,22 +8587,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53:AA53">
-    <cfRule type="expression" dxfId="69" priority="561">
+    <cfRule type="expression" dxfId="72" priority="561">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB53">
-    <cfRule type="expression" dxfId="68" priority="568">
+    <cfRule type="expression" dxfId="71" priority="568">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:AA54">
-    <cfRule type="expression" dxfId="67" priority="553">
+    <cfRule type="expression" dxfId="70" priority="553">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB54">
-    <cfRule type="expression" dxfId="66" priority="559">
+    <cfRule type="expression" dxfId="69" priority="559">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8629,12 +8635,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:AA31">
-    <cfRule type="expression" dxfId="65" priority="543">
+    <cfRule type="expression" dxfId="68" priority="543">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB31">
-    <cfRule type="expression" dxfId="64" priority="550">
+    <cfRule type="expression" dxfId="67" priority="550">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8653,12 +8659,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:AA34">
-    <cfRule type="expression" dxfId="63" priority="534">
+    <cfRule type="expression" dxfId="66" priority="534">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB33:AB34">
-    <cfRule type="expression" dxfId="62" priority="541">
+    <cfRule type="expression" dxfId="65" priority="541">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8677,29 +8683,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:AA19">
-    <cfRule type="expression" dxfId="61" priority="525">
+    <cfRule type="expression" dxfId="64" priority="525">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB19">
-    <cfRule type="expression" dxfId="60" priority="532">
+    <cfRule type="expression" dxfId="63" priority="532">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:AB21 I44:AB44 I57:AB57">
-    <cfRule type="expression" dxfId="59" priority="810" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="810" stopIfTrue="1">
       <formula>AND($C21="Risque faible",I$5&gt;=$F22,I$5&lt;=$F22+$G21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="811" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="811" stopIfTrue="1">
       <formula>AND($C21="Risque élevé",I$5&gt;=$F22,I$5&lt;=$F22+$G21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="812" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="812" stopIfTrue="1">
       <formula>AND($C21="En bonne voie",I$5&gt;=$F22,I$5&lt;=$F22+$G21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="813" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="813" stopIfTrue="1">
       <formula>AND($C21="Risque moyen",I$5&gt;=$F22,I$5&lt;=$F22+$G21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="814" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="814" stopIfTrue="1">
       <formula>AND(LEN($C21)=0,I$5&gt;=$F22,I$5&lt;=$F22+$G21-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8718,12 +8724,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:AA36">
-    <cfRule type="expression" dxfId="54" priority="453">
+    <cfRule type="expression" dxfId="57" priority="453">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB36">
-    <cfRule type="expression" dxfId="53" priority="460">
+    <cfRule type="expression" dxfId="56" priority="460">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8742,7 +8748,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:AA22">
-    <cfRule type="expression" dxfId="52" priority="407">
+    <cfRule type="expression" dxfId="55" priority="407">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8761,12 +8767,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:AA29">
-    <cfRule type="expression" dxfId="51" priority="425">
+    <cfRule type="expression" dxfId="54" priority="425">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB28:AB29">
-    <cfRule type="expression" dxfId="50" priority="432">
+    <cfRule type="expression" dxfId="53" priority="432">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8785,17 +8791,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:AA26">
-    <cfRule type="expression" dxfId="49" priority="416">
+    <cfRule type="expression" dxfId="52" priority="416">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB26">
-    <cfRule type="expression" dxfId="48" priority="423">
+    <cfRule type="expression" dxfId="51" priority="423">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB22">
-    <cfRule type="expression" dxfId="47" priority="414">
+    <cfRule type="expression" dxfId="50" priority="414">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8814,12 +8820,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:AA20">
-    <cfRule type="expression" dxfId="46" priority="398">
+    <cfRule type="expression" dxfId="49" priority="398">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB20">
-    <cfRule type="expression" dxfId="45" priority="405">
+    <cfRule type="expression" dxfId="48" priority="405">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8838,7 +8844,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:AA43">
-    <cfRule type="expression" dxfId="44" priority="335">
+    <cfRule type="expression" dxfId="47" priority="335">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8857,17 +8863,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:AA39">
-    <cfRule type="expression" dxfId="43" priority="353">
+    <cfRule type="expression" dxfId="46" priority="353">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB38:AB39">
-    <cfRule type="expression" dxfId="42" priority="360">
+    <cfRule type="expression" dxfId="45" priority="360">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB42:AB43">
-    <cfRule type="expression" dxfId="41" priority="342">
+    <cfRule type="expression" dxfId="44" priority="342">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8886,22 +8892,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:AA49">
-    <cfRule type="expression" dxfId="40" priority="326">
+    <cfRule type="expression" dxfId="43" priority="326">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB47:AB49">
-    <cfRule type="expression" dxfId="39" priority="333">
+    <cfRule type="expression" dxfId="42" priority="333">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:AA37">
-    <cfRule type="expression" dxfId="38" priority="309">
+    <cfRule type="expression" dxfId="41" priority="309">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB37">
-    <cfRule type="expression" dxfId="37" priority="310">
+    <cfRule type="expression" dxfId="40" priority="310">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8934,12 +8940,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:AA40">
-    <cfRule type="expression" dxfId="36" priority="299">
+    <cfRule type="expression" dxfId="39" priority="299">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB40">
-    <cfRule type="expression" dxfId="35" priority="306">
+    <cfRule type="expression" dxfId="38" priority="306">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8958,12 +8964,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50:AA52">
-    <cfRule type="expression" dxfId="34" priority="281">
+    <cfRule type="expression" dxfId="37" priority="281">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB50:AB52">
-    <cfRule type="expression" dxfId="33" priority="288">
+    <cfRule type="expression" dxfId="36" priority="288">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8982,12 +8988,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55:AA56">
-    <cfRule type="expression" dxfId="32" priority="272">
+    <cfRule type="expression" dxfId="35" priority="272">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB55:AB56">
-    <cfRule type="expression" dxfId="31" priority="279">
+    <cfRule type="expression" dxfId="34" priority="279">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9006,7 +9012,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:AA58">
-    <cfRule type="expression" dxfId="30" priority="217">
+    <cfRule type="expression" dxfId="33" priority="217">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9025,27 +9031,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59:AA59">
-    <cfRule type="expression" dxfId="29" priority="226">
+    <cfRule type="expression" dxfId="32" priority="226">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB59">
-    <cfRule type="expression" dxfId="28" priority="233">
+    <cfRule type="expression" dxfId="31" priority="233">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB58">
-    <cfRule type="expression" dxfId="27" priority="219">
+    <cfRule type="expression" dxfId="30" priority="219">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB61">
-    <cfRule type="expression" dxfId="26" priority="165">
+    <cfRule type="expression" dxfId="29" priority="165">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61:AA61">
-    <cfRule type="expression" dxfId="25" priority="164">
+    <cfRule type="expression" dxfId="28" priority="164">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9078,22 +9084,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I62:AA63">
-    <cfRule type="expression" dxfId="24" priority="118">
+    <cfRule type="expression" dxfId="27" priority="118">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB62:AB63">
-    <cfRule type="expression" dxfId="23" priority="120">
+    <cfRule type="expression" dxfId="26" priority="120">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65:AA65">
-    <cfRule type="expression" dxfId="22" priority="101">
+    <cfRule type="expression" dxfId="25" priority="101">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB64">
-    <cfRule type="expression" dxfId="21" priority="111">
+    <cfRule type="expression" dxfId="24" priority="111">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9126,12 +9132,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64:AA64">
-    <cfRule type="expression" dxfId="20" priority="109">
+    <cfRule type="expression" dxfId="23" priority="109">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB65">
-    <cfRule type="expression" dxfId="19" priority="102">
+    <cfRule type="expression" dxfId="22" priority="102">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9150,12 +9156,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66:AA66">
-    <cfRule type="expression" dxfId="18" priority="91">
+    <cfRule type="expression" dxfId="21" priority="91">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB66">
-    <cfRule type="expression" dxfId="17" priority="93">
+    <cfRule type="expression" dxfId="20" priority="93">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9174,17 +9180,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I67:AA67">
-    <cfRule type="expression" dxfId="16" priority="82">
+    <cfRule type="expression" dxfId="19" priority="82">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB67">
-    <cfRule type="expression" dxfId="15" priority="84">
+    <cfRule type="expression" dxfId="18" priority="84">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I68:AA68">
-    <cfRule type="expression" dxfId="14" priority="74">
+    <cfRule type="expression" dxfId="17" priority="74">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9203,7 +9209,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB68">
-    <cfRule type="expression" dxfId="13" priority="75">
+    <cfRule type="expression" dxfId="16" priority="75">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9222,29 +9228,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:AA45">
-    <cfRule type="expression" dxfId="12" priority="55">
+    <cfRule type="expression" dxfId="15" priority="55">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB45">
-    <cfRule type="expression" dxfId="11" priority="62">
+    <cfRule type="expression" dxfId="14" priority="62">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:AB23">
-    <cfRule type="expression" dxfId="10" priority="995" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="995" stopIfTrue="1">
       <formula>AND($C23="Risque faible",I$5&gt;=$F25,I$5&lt;=$F25+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="996" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="996" stopIfTrue="1">
       <formula>AND($C23="Risque élevé",I$5&gt;=$F25,I$5&lt;=$F25+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="997" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="997" stopIfTrue="1">
       <formula>AND($C23="En bonne voie",I$5&gt;=$F25,I$5&lt;=$F25+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="998" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="998" stopIfTrue="1">
       <formula>AND($C23="Risque moyen",I$5&gt;=$F25,I$5&lt;=$F25+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="999" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="999" stopIfTrue="1">
       <formula>AND(LEN($C23)=0,I$5&gt;=$F25,I$5&lt;=$F25+$G23-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9263,12 +9269,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:AA25">
-    <cfRule type="expression" dxfId="5" priority="28">
+    <cfRule type="expression" dxfId="8" priority="28">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB24:AB25">
-    <cfRule type="expression" dxfId="4" priority="30">
+    <cfRule type="expression" dxfId="7" priority="30">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9287,12 +9293,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52:AA52">
-    <cfRule type="expression" dxfId="3" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB52">
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="5" priority="12">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9311,12 +9317,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:AA34">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB34">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9956,6 +9962,36 @@
           <xm:sqref>E24:E25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A63CCB1F-A7A9-FB4D-96BE-C68735FCF745}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{77136285-CE6D-CC44-A948-A1CCC3E96272}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="786" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -10716,21 +10752,6 @@
           <xm:sqref>I24:AB25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A63CCB1F-A7A9-FB4D-96BE-C68735FCF745}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E52</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="13" id="{E15BFD62-9391-FA42-8B09-20ECBD2428FD}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -10748,21 +10769,6 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>I52:AB52</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{77136285-CE6D-CC44-A948-A1CCC3E96272}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="4" id="{A5B4E9B3-6226-4145-BD2D-873C36B43997}">

--- a/Diagramme_de_Gantt.xlsx
+++ b/Diagramme_de_Gantt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67153CC9-9E1E-BD4A-B685-8F0F2BA4F06D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A256A19-B1F7-3F42-A12B-76DFABF3D71A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="94">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -3985,8 +3985,8 @@
   </sheetPr>
   <dimension ref="A1:AB71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A38" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6798,13 +6798,13 @@
         <v>66</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D43" s="33" t="s">
         <v>46</v>
       </c>
       <c r="E43" s="30">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F43" s="31">
         <v>43894</v>
@@ -7190,11 +7190,13 @@
         <v>74</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="33"/>
+        <v>16</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>46</v>
+      </c>
       <c r="E50" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="31">
         <v>43896</v>
@@ -7499,10 +7501,10 @@
         <v>16</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="E55" s="30">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F55" s="31">
         <v>43896</v>
@@ -7604,7 +7606,7 @@
         <v>46</v>
       </c>
       <c r="E56" s="30">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F56" s="31">
         <v>43894</v>
@@ -7738,7 +7740,7 @@
         <v>90</v>
       </c>
       <c r="E58" s="30">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F58" s="31">
         <v>43894</v>

--- a/Diagramme_de_Gantt.xlsx
+++ b/Diagramme_de_Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A256A19-B1F7-3F42-A12B-76DFABF3D71A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785C754E-9115-CD4E-B8D3-D02BE0B7CDCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="94">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -3985,8 +3985,8 @@
   </sheetPr>
   <dimension ref="A1:AB71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A44" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5559,7 +5559,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="E22" s="30">
         <v>1</v>
@@ -6932,11 +6932,13 @@
         <v>67</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="33"/>
+        <v>16</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>46</v>
+      </c>
       <c r="E45" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="31">
         <v>43892</v>
@@ -7976,11 +7978,13 @@
         <v>85</v>
       </c>
       <c r="C64" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="33"/>
+        <v>16</v>
+      </c>
+      <c r="D64" s="33" t="s">
+        <v>89</v>
+      </c>
       <c r="E64" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="31">
         <v>43897</v>
@@ -8090,13 +8094,13 @@
         <v>88</v>
       </c>
       <c r="C67" s="33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D67" s="33" t="s">
         <v>46</v>
       </c>
       <c r="E67" s="30">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F67" s="31">
         <v>43894</v>

--- a/Diagramme_de_Gantt.xlsx
+++ b/Diagramme_de_Gantt.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785C754E-9115-CD4E-B8D3-D02BE0B7CDCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B573F8B3-CED5-4A22-9485-05E3918E6823}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="94">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -3985,25 +3985,25 @@
   </sheetPr>
   <dimension ref="A1:AB71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A44" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A37" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" customWidth="1"/>
-    <col min="9" max="28" width="9.33203125" customWidth="1"/>
-    <col min="33" max="34" width="10.33203125"/>
+    <col min="1" max="1" width="2.7109375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" customWidth="1"/>
+    <col min="9" max="28" width="9.28515625" customWidth="1"/>
+    <col min="33" max="34" width="10.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -4037,7 +4037,7 @@
       <c r="AA1" s="20"/>
       <c r="AB1" s="20"/>
     </row>
-    <row r="2" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -4073,7 +4073,7 @@
       </c>
       <c r="AB2" s="65"/>
     </row>
-    <row r="3" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -4091,7 +4091,7 @@
       <c r="G3" s="70"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -4132,7 +4132,7 @@
       <c r="AA4" s="40"/>
       <c r="AB4" s="40"/>
     </row>
-    <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="20" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" s="20" customFormat="1" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -4256,7 +4256,7 @@
       <c r="AA6" s="43"/>
       <c r="AB6" s="43"/>
     </row>
-    <row r="7" spans="1:28" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>l</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>7</v>
       </c>
@@ -4390,7 +4390,7 @@
       <c r="AA8" s="35"/>
       <c r="AB8" s="35"/>
     </row>
-    <row r="9" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="54" t="s">
         <v>30</v>
@@ -4588,7 +4588,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="50" t="s">
         <v>31</v>
@@ -4690,7 +4690,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="50" t="s">
         <v>32</v>
@@ -4792,7 +4792,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="50" t="s">
         <v>33</v>
@@ -4894,7 +4894,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="54" t="s">
         <v>34</v>
@@ -4986,7 +4986,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="50" t="s">
         <v>35</v>
@@ -5088,7 +5088,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="50" t="s">
         <v>36</v>
@@ -5190,7 +5190,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="54" t="s">
         <v>37</v>
@@ -5282,7 +5282,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="50" t="s">
         <v>38</v>
@@ -5374,7 +5374,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="53" t="s">
         <v>54</v>
@@ -5416,7 +5416,7 @@
       <c r="AA19" s="37"/>
       <c r="AB19" s="37"/>
     </row>
-    <row r="20" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="53" t="s">
         <v>55</v>
@@ -5458,7 +5458,7 @@
       <c r="AA20" s="37"/>
       <c r="AB20" s="37"/>
     </row>
-    <row r="21" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="50" t="s">
         <v>39</v>
@@ -5550,7 +5550,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="53" t="s">
         <v>56</v>
@@ -5592,7 +5592,7 @@
       <c r="AA22" s="37"/>
       <c r="AB22" s="37"/>
     </row>
-    <row r="23" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="50" t="s">
         <v>59</v>
@@ -5684,7 +5684,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="53" t="s">
         <v>91</v>
@@ -5726,7 +5726,7 @@
       <c r="AA24" s="37"/>
       <c r="AB24" s="37"/>
     </row>
-    <row r="25" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="53" t="s">
         <v>57</v>
@@ -5768,7 +5768,7 @@
       <c r="AA25" s="37"/>
       <c r="AB25" s="37"/>
     </row>
-    <row r="26" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="53" t="s">
         <v>58</v>
@@ -5810,7 +5810,7 @@
       <c r="AA26" s="37"/>
       <c r="AB26" s="37"/>
     </row>
-    <row r="27" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="50" t="s">
         <v>40</v>
@@ -5902,7 +5902,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="53" t="s">
         <v>60</v>
@@ -5944,7 +5944,7 @@
       <c r="AA28" s="37"/>
       <c r="AB28" s="37"/>
     </row>
-    <row r="29" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="53" t="s">
         <v>61</v>
@@ -5986,7 +5986,7 @@
       <c r="AA29" s="37"/>
       <c r="AB29" s="37"/>
     </row>
-    <row r="30" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="50" t="s">
         <v>41</v>
@@ -6088,7 +6088,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="50" t="s">
         <v>52</v>
@@ -6120,7 +6120,7 @@
       <c r="AA31" s="37"/>
       <c r="AB31" s="37"/>
     </row>
-    <row r="32" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="53" t="s">
         <v>51</v>
@@ -6222,7 +6222,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:28" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="56"/>
       <c r="B33" s="57" t="s">
         <v>53</v>
@@ -6264,7 +6264,7 @@
       <c r="AA33" s="63"/>
       <c r="AB33" s="63"/>
     </row>
-    <row r="34" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="50" t="s">
         <v>93</v>
@@ -6306,7 +6306,7 @@
       <c r="AA34" s="37"/>
       <c r="AB34" s="37"/>
     </row>
-    <row r="35" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="54" t="s">
         <v>42</v>
@@ -6398,7 +6398,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="50" t="s">
         <v>62</v>
@@ -6440,7 +6440,7 @@
       <c r="AA36" s="37"/>
       <c r="AB36" s="37"/>
     </row>
-    <row r="37" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="50" t="s">
         <v>43</v>
@@ -6532,7 +6532,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="53" t="s">
         <v>63</v>
@@ -6574,7 +6574,7 @@
       <c r="AA38" s="37"/>
       <c r="AB38" s="37"/>
     </row>
-    <row r="39" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="53" t="s">
         <v>64</v>
@@ -6616,7 +6616,7 @@
       <c r="AA39" s="37"/>
       <c r="AB39" s="37"/>
     </row>
-    <row r="40" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="53" t="s">
         <v>72</v>
@@ -6658,7 +6658,7 @@
       <c r="AA40" s="37"/>
       <c r="AB40" s="37"/>
     </row>
-    <row r="41" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="50" t="s">
         <v>44</v>
@@ -6750,7 +6750,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="53" t="s">
         <v>65</v>
@@ -6792,7 +6792,7 @@
       <c r="AA42" s="37"/>
       <c r="AB42" s="37"/>
     </row>
-    <row r="43" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="53" t="s">
         <v>66</v>
@@ -6834,7 +6834,7 @@
       <c r="AA43" s="37"/>
       <c r="AB43" s="37"/>
     </row>
-    <row r="44" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="50" t="s">
         <v>40</v>
@@ -6926,7 +6926,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="53" t="s">
         <v>67</v>
@@ -6968,7 +6968,7 @@
       <c r="AA45" s="37"/>
       <c r="AB45" s="37"/>
     </row>
-    <row r="46" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="50" t="s">
         <v>68</v>
@@ -7060,7 +7060,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="53" t="s">
         <v>69</v>
@@ -7102,7 +7102,7 @@
       <c r="AA47" s="37"/>
       <c r="AB47" s="37"/>
     </row>
-    <row r="48" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="53" t="s">
         <v>70</v>
@@ -7144,7 +7144,7 @@
       <c r="AA48" s="37"/>
       <c r="AB48" s="37"/>
     </row>
-    <row r="49" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="53" t="s">
         <v>71</v>
@@ -7186,7 +7186,7 @@
       <c r="AA49" s="37"/>
       <c r="AB49" s="37"/>
     </row>
-    <row r="50" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="53" t="s">
         <v>74</v>
@@ -7228,17 +7228,19 @@
       <c r="AA50" s="37"/>
       <c r="AB50" s="37"/>
     </row>
-    <row r="51" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
       <c r="B51" s="53" t="s">
         <v>73</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="33"/>
+        <v>16</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>89</v>
+      </c>
       <c r="E51" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="31">
         <v>43896</v>
@@ -7268,7 +7270,7 @@
       <c r="AA51" s="37"/>
       <c r="AB51" s="37"/>
     </row>
-    <row r="52" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="50" t="s">
         <v>92</v>
@@ -7310,7 +7312,7 @@
       <c r="AA52" s="37"/>
       <c r="AB52" s="37"/>
     </row>
-    <row r="53" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
       <c r="B53" s="54" t="s">
         <v>75</v>
@@ -7402,7 +7404,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
       <c r="B54" s="50" t="s">
         <v>76</v>
@@ -7494,7 +7496,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
       <c r="B55" s="53" t="s">
         <v>77</v>
@@ -7596,7 +7598,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
       <c r="B56" s="53" t="s">
         <v>78</v>
@@ -7638,7 +7640,7 @@
       <c r="AA56" s="37"/>
       <c r="AB56" s="37"/>
     </row>
-    <row r="57" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
       <c r="B57" s="50" t="s">
         <v>80</v>
@@ -7730,13 +7732,13 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
       <c r="B58" s="53" t="s">
         <v>79</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D58" s="33" t="s">
         <v>90</v>
@@ -7772,7 +7774,7 @@
       <c r="AA58" s="37"/>
       <c r="AB58" s="37"/>
     </row>
-    <row r="59" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14"/>
       <c r="B59" s="53" t="s">
         <v>81</v>
@@ -7814,7 +7816,7 @@
       <c r="AA59" s="37"/>
       <c r="AB59" s="37"/>
     </row>
-    <row r="60" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
       <c r="B60" s="50" t="s">
         <v>45</v>
@@ -7856,7 +7858,7 @@
       <c r="AA60" s="37"/>
       <c r="AB60" s="37"/>
     </row>
-    <row r="61" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
       <c r="B61" s="50" t="s">
         <v>82</v>
@@ -7888,7 +7890,7 @@
       <c r="AA61" s="37"/>
       <c r="AB61" s="37"/>
     </row>
-    <row r="62" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
       <c r="B62" s="53" t="s">
         <v>83</v>
@@ -7930,7 +7932,7 @@
       <c r="AA62" s="37"/>
       <c r="AB62" s="37"/>
     </row>
-    <row r="63" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
       <c r="B63" s="53" t="s">
         <v>84</v>
@@ -7972,7 +7974,7 @@
       <c r="AA63" s="37"/>
       <c r="AB63" s="37"/>
     </row>
-    <row r="64" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
       <c r="B64" s="53" t="s">
         <v>85</v>
@@ -8014,7 +8016,7 @@
       <c r="AA64" s="37"/>
       <c r="AB64" s="37"/>
     </row>
-    <row r="65" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
       <c r="B65" s="50" t="s">
         <v>86</v>
@@ -8046,7 +8048,7 @@
       <c r="AA65" s="37"/>
       <c r="AB65" s="37"/>
     </row>
-    <row r="66" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="14"/>
       <c r="B66" s="53" t="s">
         <v>87</v>
@@ -8088,7 +8090,7 @@
       <c r="AA66" s="37"/>
       <c r="AB66" s="37"/>
     </row>
-    <row r="67" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14"/>
       <c r="B67" s="53" t="s">
         <v>88</v>
@@ -8130,7 +8132,7 @@
       <c r="AA67" s="37"/>
       <c r="AB67" s="37"/>
     </row>
-    <row r="68" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
       <c r="B68" s="50"/>
       <c r="C68" s="33"/>
@@ -8160,7 +8162,7 @@
       <c r="AA68" s="37"/>
       <c r="AB68" s="37"/>
     </row>
-    <row r="69" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
         <v>9</v>
       </c>
@@ -8194,12 +8196,12 @@
       <c r="AA69" s="36"/>
       <c r="AB69" s="36"/>
     </row>
-    <row r="70" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D70" s="5"/>
       <c r="G70" s="16"/>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D71" s="6"/>
     </row>
   </sheetData>
@@ -10807,13 +10809,13 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.1640625" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="8"/>
+    <col min="1" max="1" width="87.140625" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
@@ -10828,7 +10830,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>27</v>
       </c>
